--- a/data/analysis/social_media_analytics/pivot_tables/governance_simpl-subject_matter_simpl/museum_activity_groups__var2-governance_simpl-subject_matter_simpl.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/governance_simpl-subject_matter_simpl/museum_activity_groups__var2-governance_simpl-subject_matter_simpl.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -497,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB73"/>
+  <dimension ref="A1:AO73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:41">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -535,150 +538,204 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:41">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AO2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>54382</v>
+        <v>28846</v>
       </c>
       <c r="D4">
-        <v>2175.3</v>
+        <v>1153.8</v>
       </c>
       <c r="E4">
-        <v>3137.3</v>
+        <v>1836.3</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>671</v>
+        <v>269</v>
       </c>
       <c r="I4">
-        <v>4136</v>
+        <v>1559</v>
       </c>
       <c r="J4">
-        <v>13403</v>
+        <v>7295</v>
       </c>
       <c r="K4">
         <v>25</v>
       </c>
       <c r="L4">
-        <v>2862.2</v>
+        <v>1696.8</v>
       </c>
       <c r="M4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N4">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="O4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="P4">
-        <v>13714</v>
+        <v>15028</v>
       </c>
       <c r="Q4">
-        <v>548.6</v>
+        <v>601.1</v>
       </c>
       <c r="R4">
-        <v>691.1</v>
+        <v>1314.2</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -687,82 +744,121 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="V4">
-        <v>845</v>
+        <v>377</v>
       </c>
       <c r="W4">
-        <v>2362</v>
+        <v>6050</v>
       </c>
       <c r="X4">
         <v>25</v>
       </c>
       <c r="Y4">
+        <v>884</v>
+      </c>
+      <c r="Z4">
+        <v>17</v>
+      </c>
+      <c r="AA4">
+        <v>68</v>
+      </c>
+      <c r="AB4">
+        <v>0.3</v>
+      </c>
+      <c r="AC4">
+        <v>13714</v>
+      </c>
+      <c r="AD4">
+        <v>548.6</v>
+      </c>
+      <c r="AE4">
+        <v>691.1</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>160</v>
+      </c>
+      <c r="AI4">
+        <v>845</v>
+      </c>
+      <c r="AJ4">
+        <v>2362</v>
+      </c>
+      <c r="AK4">
+        <v>25</v>
+      </c>
+      <c r="AL4">
         <v>1054.9</v>
       </c>
-      <c r="Z4">
+      <c r="AM4">
         <v>13</v>
       </c>
-      <c r="AA4">
+      <c r="AN4">
         <v>52</v>
       </c>
-      <c r="AB4">
+      <c r="AO4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:41">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>211868</v>
+        <v>118855</v>
       </c>
       <c r="D5">
-        <v>2522.2</v>
+        <v>1414.9</v>
       </c>
       <c r="E5">
-        <v>3768</v>
+        <v>2065.1</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>70.8</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1353.5</v>
+        <v>915.5</v>
       </c>
       <c r="I5">
-        <v>2800</v>
+        <v>1951</v>
       </c>
       <c r="J5">
-        <v>17930</v>
+        <v>14118</v>
       </c>
       <c r="K5">
         <v>84</v>
       </c>
       <c r="L5">
-        <v>3259.5</v>
+        <v>1980.9</v>
       </c>
       <c r="M5">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N5">
-        <v>77.40000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="O5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P5">
-        <v>47740</v>
+        <v>50147</v>
       </c>
       <c r="Q5">
-        <v>568.3</v>
+        <v>597</v>
       </c>
       <c r="R5">
-        <v>780.7</v>
+        <v>1414.4</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -771,43 +867,82 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>400.5</v>
+        <v>144</v>
       </c>
       <c r="V5">
-        <v>924.5</v>
+        <v>401</v>
       </c>
       <c r="W5">
-        <v>4362</v>
+        <v>9195</v>
       </c>
       <c r="X5">
         <v>84</v>
       </c>
       <c r="Y5">
+        <v>822.1</v>
+      </c>
+      <c r="Z5">
+        <v>61</v>
+      </c>
+      <c r="AA5">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="AB5">
+        <v>0.5</v>
+      </c>
+      <c r="AC5">
+        <v>47740</v>
+      </c>
+      <c r="AD5">
+        <v>568.3</v>
+      </c>
+      <c r="AE5">
+        <v>780.7</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>400.5</v>
+      </c>
+      <c r="AI5">
+        <v>924.5</v>
+      </c>
+      <c r="AJ5">
+        <v>4362</v>
+      </c>
+      <c r="AK5">
+        <v>84</v>
+      </c>
+      <c r="AL5">
         <v>1085</v>
       </c>
-      <c r="Z5">
+      <c r="AM5">
         <v>44</v>
       </c>
-      <c r="AA5">
+      <c r="AN5">
         <v>52.4</v>
       </c>
-      <c r="AB5">
+      <c r="AO5">
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:41">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>1175</v>
+        <v>891</v>
       </c>
       <c r="D6">
-        <v>293.8</v>
+        <v>222.8</v>
       </c>
       <c r="E6">
-        <v>516.8</v>
+        <v>390.3</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -816,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I6">
-        <v>348.8</v>
+        <v>265.8</v>
       </c>
       <c r="J6">
-        <v>1065</v>
+        <v>805</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
       <c r="L6">
-        <v>587.5</v>
+        <v>445.5</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -837,16 +972,16 @@
         <v>50</v>
       </c>
       <c r="O6">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="P6">
-        <v>530</v>
+        <v>281</v>
       </c>
       <c r="Q6">
-        <v>132.5</v>
+        <v>70.2</v>
       </c>
       <c r="R6">
-        <v>265</v>
+        <v>125</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -855,43 +990,82 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V6">
-        <v>132.5</v>
+        <v>82.2</v>
       </c>
       <c r="W6">
-        <v>530</v>
+        <v>257</v>
       </c>
       <c r="X6">
         <v>4</v>
       </c>
       <c r="Y6">
+        <v>140.5</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>50</v>
+      </c>
+      <c r="AB6">
+        <v>-0.3</v>
+      </c>
+      <c r="AC6">
         <v>530</v>
       </c>
-      <c r="Z6">
+      <c r="AD6">
+        <v>132.5</v>
+      </c>
+      <c r="AE6">
+        <v>265</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>132.5</v>
+      </c>
+      <c r="AJ6">
+        <v>530</v>
+      </c>
+      <c r="AK6">
+        <v>4</v>
+      </c>
+      <c r="AL6">
+        <v>530</v>
+      </c>
+      <c r="AM6">
         <v>1</v>
       </c>
-      <c r="AA6">
+      <c r="AN6">
         <v>25</v>
       </c>
-      <c r="AB6">
+      <c r="AO6">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:41">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>152643</v>
+        <v>61097</v>
       </c>
       <c r="D7">
-        <v>1715.1</v>
+        <v>686.5</v>
       </c>
       <c r="E7">
-        <v>4107.1</v>
+        <v>1077.4</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -900,37 +1074,37 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="I7">
-        <v>1714</v>
+        <v>937</v>
       </c>
       <c r="J7">
-        <v>30621</v>
+        <v>4893</v>
       </c>
       <c r="K7">
         <v>89</v>
       </c>
       <c r="L7">
-        <v>2312.8</v>
+        <v>1035.5</v>
       </c>
       <c r="M7">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N7">
-        <v>74.2</v>
+        <v>66.3</v>
       </c>
       <c r="O7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P7">
-        <v>44523</v>
+        <v>14793</v>
       </c>
       <c r="Q7">
-        <v>500.3</v>
+        <v>166.2</v>
       </c>
       <c r="R7">
-        <v>1629.9</v>
+        <v>344.4</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -939,61 +1113,100 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V7">
-        <v>473</v>
+        <v>180</v>
       </c>
       <c r="W7">
-        <v>13336</v>
+        <v>1956</v>
       </c>
       <c r="X7">
         <v>89</v>
       </c>
       <c r="Y7">
+        <v>246.6</v>
+      </c>
+      <c r="Z7">
+        <v>60</v>
+      </c>
+      <c r="AA7">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="AB7">
+        <v>0.3</v>
+      </c>
+      <c r="AC7">
+        <v>44523</v>
+      </c>
+      <c r="AD7">
+        <v>500.3</v>
+      </c>
+      <c r="AE7">
+        <v>1629.9</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>473</v>
+      </c>
+      <c r="AJ7">
+        <v>13336</v>
+      </c>
+      <c r="AK7">
+        <v>89</v>
+      </c>
+      <c r="AL7">
         <v>1272.1</v>
       </c>
-      <c r="Z7">
+      <c r="AM7">
         <v>35</v>
       </c>
-      <c r="AA7">
+      <c r="AN7">
         <v>39.3</v>
       </c>
-      <c r="AB7">
+      <c r="AO7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:41">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>5461</v>
+        <v>3607</v>
       </c>
       <c r="D8">
-        <v>5461</v>
+        <v>3607</v>
       </c>
       <c r="F8">
-        <v>5461</v>
+        <v>3607</v>
       </c>
       <c r="G8">
-        <v>5461</v>
+        <v>3607</v>
       </c>
       <c r="H8">
-        <v>5461</v>
+        <v>3607</v>
       </c>
       <c r="I8">
-        <v>5461</v>
+        <v>3607</v>
       </c>
       <c r="J8">
-        <v>5461</v>
+        <v>3607</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>5461</v>
+        <v>3607</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -1002,34 +1215,34 @@
         <v>100</v>
       </c>
       <c r="O8">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P8">
-        <v>983</v>
+        <v>1841</v>
       </c>
       <c r="Q8">
-        <v>983</v>
+        <v>1841</v>
       </c>
       <c r="S8">
-        <v>983</v>
+        <v>1841</v>
       </c>
       <c r="T8">
-        <v>983</v>
+        <v>1841</v>
       </c>
       <c r="U8">
-        <v>983</v>
+        <v>1841</v>
       </c>
       <c r="V8">
-        <v>983</v>
+        <v>1841</v>
       </c>
       <c r="W8">
-        <v>983</v>
+        <v>1841</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
       <c r="Y8">
-        <v>983</v>
+        <v>1841</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -1038,136 +1251,205 @@
         <v>100</v>
       </c>
       <c r="AB8">
+        <v>1.4</v>
+      </c>
+      <c r="AC8">
+        <v>983</v>
+      </c>
+      <c r="AD8">
+        <v>983</v>
+      </c>
+      <c r="AF8">
+        <v>983</v>
+      </c>
+      <c r="AG8">
+        <v>983</v>
+      </c>
+      <c r="AH8">
+        <v>983</v>
+      </c>
+      <c r="AI8">
+        <v>983</v>
+      </c>
+      <c r="AJ8">
+        <v>983</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>983</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>100</v>
+      </c>
+      <c r="AO8">
         <v>2.4</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:41">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>-2</v>
+      </c>
+      <c r="P9">
         <v>3</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>100</v>
-      </c>
-      <c r="O9">
-        <v>1.2</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
+      <c r="Y9">
+        <v>3</v>
+      </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB9">
+        <v>1.4</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:41">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>74081</v>
+        <v>35736</v>
       </c>
       <c r="D10">
-        <v>1899.5</v>
+        <v>916.3</v>
       </c>
       <c r="E10">
-        <v>3224.5</v>
+        <v>1808</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>343</v>
+        <v>30</v>
       </c>
       <c r="I10">
-        <v>2250.5</v>
+        <v>1044.5</v>
       </c>
       <c r="J10">
-        <v>13075</v>
+        <v>8460</v>
       </c>
       <c r="K10">
         <v>39</v>
       </c>
       <c r="L10">
-        <v>2554.5</v>
+        <v>1624.4</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N10">
-        <v>74.40000000000001</v>
+        <v>56.4</v>
       </c>
       <c r="O10">
-        <v>0.2</v>
+        <v>-0</v>
       </c>
       <c r="P10">
-        <v>21307</v>
+        <v>6308</v>
       </c>
       <c r="Q10">
-        <v>546.3</v>
+        <v>161.7</v>
       </c>
       <c r="R10">
-        <v>995.1</v>
+        <v>499.7</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1176,73 +1458,109 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V10">
-        <v>729</v>
+        <v>112</v>
       </c>
       <c r="W10">
-        <v>5271</v>
+        <v>3021</v>
       </c>
       <c r="X10">
         <v>39</v>
       </c>
       <c r="Y10">
+        <v>262.8</v>
+      </c>
+      <c r="Z10">
+        <v>24</v>
+      </c>
+      <c r="AA10">
+        <v>61.5</v>
+      </c>
+      <c r="AB10">
+        <v>0.1</v>
+      </c>
+      <c r="AC10">
+        <v>21307</v>
+      </c>
+      <c r="AD10">
+        <v>546.3</v>
+      </c>
+      <c r="AE10">
+        <v>995.1</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>729</v>
+      </c>
+      <c r="AJ10">
+        <v>5271</v>
+      </c>
+      <c r="AK10">
+        <v>39</v>
+      </c>
+      <c r="AL10">
         <v>1121.4</v>
       </c>
-      <c r="Z10">
+      <c r="AM10">
         <v>19</v>
       </c>
-      <c r="AA10">
+      <c r="AN10">
         <v>48.7</v>
       </c>
-      <c r="AB10">
+      <c r="AO10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:41">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>1802</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>901</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1274.2</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>450.5</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>901</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1351.5</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1802</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
-      <c r="L11">
-        <v>1802</v>
-      </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>-0.7</v>
+        <v>-2</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1278,22 +1596,58 @@
         <v>0</v>
       </c>
       <c r="AB11">
+        <v>-2.1</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>2</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:41">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>708176</v>
+        <v>205361</v>
       </c>
       <c r="D12">
-        <v>2734.3</v>
+        <v>792.9</v>
       </c>
       <c r="E12">
-        <v>6340.8</v>
+        <v>1562.5</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1302,37 +1656,37 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>600</v>
+        <v>105</v>
       </c>
       <c r="I12">
-        <v>2203.5</v>
+        <v>1009.5</v>
       </c>
       <c r="J12">
-        <v>68140</v>
+        <v>14888</v>
       </c>
       <c r="K12">
         <v>259</v>
       </c>
       <c r="L12">
-        <v>3807.4</v>
+        <v>1333.5</v>
       </c>
       <c r="M12">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="N12">
-        <v>71.8</v>
+        <v>59.5</v>
       </c>
       <c r="O12">
         <v>0.1</v>
       </c>
       <c r="P12">
-        <v>146549</v>
+        <v>54737</v>
       </c>
       <c r="Q12">
-        <v>565.8</v>
+        <v>211.3</v>
       </c>
       <c r="R12">
-        <v>1230.1</v>
+        <v>766.1</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1341,34 +1695,73 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V12">
-        <v>603</v>
+        <v>138.5</v>
       </c>
       <c r="W12">
-        <v>6887</v>
+        <v>10421</v>
       </c>
       <c r="X12">
         <v>259</v>
       </c>
       <c r="Y12">
+        <v>364.9</v>
+      </c>
+      <c r="Z12">
+        <v>150</v>
+      </c>
+      <c r="AA12">
+        <v>57.9</v>
+      </c>
+      <c r="AB12">
+        <v>-0</v>
+      </c>
+      <c r="AC12">
+        <v>146549</v>
+      </c>
+      <c r="AD12">
+        <v>565.8</v>
+      </c>
+      <c r="AE12">
+        <v>1230.1</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>603</v>
+      </c>
+      <c r="AJ12">
+        <v>6887</v>
+      </c>
+      <c r="AK12">
+        <v>259</v>
+      </c>
+      <c r="AL12">
         <v>1422.8</v>
       </c>
-      <c r="Z12">
+      <c r="AM12">
         <v>103</v>
       </c>
-      <c r="AA12">
+      <c r="AN12">
         <v>39.8</v>
       </c>
-      <c r="AB12">
+      <c r="AO12">
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:41">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1401,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1434,127 +1827,199 @@
         <v>0</v>
       </c>
       <c r="AB13">
+        <v>-2.1</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:41">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>332872</v>
+        <v>185749</v>
       </c>
       <c r="D14">
-        <v>2945.8</v>
+        <v>1643.8</v>
       </c>
       <c r="E14">
-        <v>4534.7</v>
+        <v>2564.8</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="H14">
-        <v>1370</v>
+        <v>946</v>
       </c>
       <c r="I14">
-        <v>3207</v>
+        <v>2125</v>
       </c>
       <c r="J14">
-        <v>24665</v>
+        <v>19900</v>
       </c>
       <c r="K14">
         <v>113</v>
       </c>
       <c r="L14">
-        <v>3579.3</v>
+        <v>2185.3</v>
       </c>
       <c r="M14">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="N14">
-        <v>82.3</v>
+        <v>75.2</v>
       </c>
       <c r="O14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P14">
-        <v>87395</v>
+        <v>76745</v>
       </c>
       <c r="Q14">
-        <v>773.4</v>
+        <v>679.2</v>
       </c>
       <c r="R14">
-        <v>988.5</v>
+        <v>2145.9</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>640</v>
+        <v>180</v>
       </c>
       <c r="V14">
-        <v>1081</v>
+        <v>493</v>
       </c>
       <c r="W14">
-        <v>6448</v>
+        <v>18016</v>
       </c>
       <c r="X14">
         <v>113</v>
       </c>
       <c r="Y14">
+        <v>882.1</v>
+      </c>
+      <c r="Z14">
+        <v>87</v>
+      </c>
+      <c r="AA14">
+        <v>77</v>
+      </c>
+      <c r="AB14">
+        <v>0.6</v>
+      </c>
+      <c r="AC14">
+        <v>87395</v>
+      </c>
+      <c r="AD14">
+        <v>773.4</v>
+      </c>
+      <c r="AE14">
+        <v>988.5</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>640</v>
+      </c>
+      <c r="AI14">
+        <v>1081</v>
+      </c>
+      <c r="AJ14">
+        <v>6448</v>
+      </c>
+      <c r="AK14">
+        <v>113</v>
+      </c>
+      <c r="AL14">
         <v>1165.3</v>
       </c>
-      <c r="Z14">
+      <c r="AM14">
         <v>75</v>
       </c>
-      <c r="AA14">
+      <c r="AN14">
         <v>66.40000000000001</v>
       </c>
-      <c r="AB14">
+      <c r="AO14">
         <v>1.1</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:41">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
-        <v>51655</v>
+        <v>32782</v>
       </c>
       <c r="D15">
-        <v>4304.6</v>
+        <v>2731.8</v>
       </c>
       <c r="E15">
-        <v>6557.1</v>
+        <v>3179.9</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>174</v>
+        <v>149.2</v>
       </c>
       <c r="H15">
-        <v>2176</v>
+        <v>1797</v>
       </c>
       <c r="I15">
-        <v>4788.2</v>
+        <v>3489.5</v>
       </c>
       <c r="J15">
-        <v>23410</v>
+        <v>10793</v>
       </c>
       <c r="K15">
         <v>12</v>
       </c>
       <c r="L15">
-        <v>5739.4</v>
+        <v>3642.4</v>
       </c>
       <c r="M15">
         <v>9</v>
@@ -1563,61 +2028,100 @@
         <v>75</v>
       </c>
       <c r="O15">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="P15">
-        <v>7021</v>
+        <v>18703</v>
       </c>
       <c r="Q15">
-        <v>585.1</v>
+        <v>1558.6</v>
       </c>
       <c r="R15">
-        <v>931.9</v>
+        <v>3514.6</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>292.5</v>
       </c>
       <c r="V15">
-        <v>1040.8</v>
+        <v>1285</v>
       </c>
       <c r="W15">
-        <v>2991</v>
+        <v>12485</v>
       </c>
       <c r="X15">
         <v>12</v>
       </c>
       <c r="Y15">
+        <v>2078.1</v>
+      </c>
+      <c r="Z15">
+        <v>9</v>
+      </c>
+      <c r="AA15">
+        <v>75</v>
+      </c>
+      <c r="AB15">
+        <v>0.6</v>
+      </c>
+      <c r="AC15">
+        <v>7021</v>
+      </c>
+      <c r="AD15">
+        <v>585.1</v>
+      </c>
+      <c r="AE15">
+        <v>931.9</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>1040.8</v>
+      </c>
+      <c r="AJ15">
+        <v>2991</v>
+      </c>
+      <c r="AK15">
+        <v>12</v>
+      </c>
+      <c r="AL15">
         <v>1404.2</v>
       </c>
-      <c r="Z15">
+      <c r="AM15">
         <v>5</v>
       </c>
-      <c r="AA15">
+      <c r="AN15">
         <v>41.7</v>
       </c>
-      <c r="AB15">
+      <c r="AO15">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:41">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>3257</v>
+        <v>2128</v>
       </c>
       <c r="D16">
-        <v>651.4</v>
+        <v>425.6</v>
       </c>
       <c r="E16">
-        <v>1455.5</v>
+        <v>951.7</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1629,76 +2133,115 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>3255</v>
+        <v>2128</v>
       </c>
       <c r="K16">
         <v>5</v>
       </c>
       <c r="L16">
-        <v>1628.5</v>
+        <v>2128</v>
       </c>
       <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>20</v>
+      </c>
+      <c r="O16">
+        <v>-1.3</v>
+      </c>
+      <c r="P16">
+        <v>1116</v>
+      </c>
+      <c r="Q16">
+        <v>223.2</v>
+      </c>
+      <c r="R16">
+        <v>498</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
         <v>2</v>
       </c>
-      <c r="N16">
-        <v>40</v>
-      </c>
-      <c r="O16">
-        <v>-1</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
       <c r="W16">
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="X16">
         <v>5</v>
       </c>
+      <c r="Y16">
+        <v>558</v>
+      </c>
       <c r="Z16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB16">
+        <v>-0.7</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>5</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:41">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>71836</v>
+        <v>27904</v>
       </c>
       <c r="D17">
-        <v>1795.9</v>
+        <v>697.6</v>
       </c>
       <c r="E17">
-        <v>5260.4</v>
+        <v>1095.6</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1707,37 +2250,37 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>453.5</v>
+        <v>344.5</v>
       </c>
       <c r="I17">
-        <v>1181.2</v>
+        <v>975.2</v>
       </c>
       <c r="J17">
-        <v>30621</v>
+        <v>5627</v>
       </c>
       <c r="K17">
         <v>40</v>
       </c>
       <c r="L17">
-        <v>3123.3</v>
+        <v>1268.4</v>
       </c>
       <c r="M17">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N17">
-        <v>57.5</v>
+        <v>55</v>
       </c>
       <c r="O17">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="P17">
-        <v>19589</v>
+        <v>13176</v>
       </c>
       <c r="Q17">
-        <v>489.7</v>
+        <v>329.4</v>
       </c>
       <c r="R17">
-        <v>2109.6</v>
+        <v>1446</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -1746,43 +2289,82 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="V17">
-        <v>143.5</v>
+        <v>142.8</v>
       </c>
       <c r="W17">
-        <v>13336</v>
+        <v>9196</v>
       </c>
       <c r="X17">
         <v>40</v>
       </c>
       <c r="Y17">
+        <v>598.9</v>
+      </c>
+      <c r="Z17">
+        <v>22</v>
+      </c>
+      <c r="AA17">
+        <v>55</v>
+      </c>
+      <c r="AB17">
+        <v>-0.1</v>
+      </c>
+      <c r="AC17">
+        <v>19589</v>
+      </c>
+      <c r="AD17">
+        <v>489.7</v>
+      </c>
+      <c r="AE17">
+        <v>2109.6</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>143.5</v>
+      </c>
+      <c r="AJ17">
+        <v>13336</v>
+      </c>
+      <c r="AK17">
+        <v>40</v>
+      </c>
+      <c r="AL17">
         <v>1780.8</v>
       </c>
-      <c r="Z17">
+      <c r="AM17">
         <v>11</v>
       </c>
-      <c r="AA17">
+      <c r="AN17">
         <v>27.5</v>
       </c>
-      <c r="AB17">
+      <c r="AO17">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:41">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>11215</v>
+        <v>6905</v>
       </c>
       <c r="D18">
-        <v>448.6</v>
+        <v>276.2</v>
       </c>
       <c r="E18">
-        <v>701.8</v>
+        <v>408.2</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1791,37 +2373,37 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="I18">
-        <v>688</v>
+        <v>527</v>
       </c>
       <c r="J18">
-        <v>2784</v>
+        <v>1623</v>
       </c>
       <c r="K18">
         <v>25</v>
       </c>
       <c r="L18">
-        <v>700.9</v>
+        <v>460.3</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N18">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O18">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="P18">
-        <v>4567</v>
+        <v>1507</v>
       </c>
       <c r="Q18">
-        <v>182.7</v>
+        <v>60.3</v>
       </c>
       <c r="R18">
-        <v>384.2</v>
+        <v>106.1</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1830,127 +2412,205 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V18">
-        <v>273</v>
+        <v>92</v>
       </c>
       <c r="W18">
-        <v>1602</v>
+        <v>465</v>
       </c>
       <c r="X18">
         <v>25</v>
       </c>
       <c r="Y18">
+        <v>100.5</v>
+      </c>
+      <c r="Z18">
+        <v>15</v>
+      </c>
+      <c r="AA18">
+        <v>60</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>4567</v>
+      </c>
+      <c r="AD18">
+        <v>182.7</v>
+      </c>
+      <c r="AE18">
+        <v>384.2</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>273</v>
+      </c>
+      <c r="AJ18">
+        <v>1602</v>
+      </c>
+      <c r="AK18">
+        <v>25</v>
+      </c>
+      <c r="AL18">
         <v>652.4</v>
       </c>
-      <c r="Z18">
+      <c r="AM18">
         <v>7</v>
       </c>
-      <c r="AA18">
+      <c r="AN18">
         <v>28</v>
       </c>
-      <c r="AB18">
+      <c r="AO18">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:41">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>20028</v>
+        <v>8018</v>
       </c>
       <c r="D19">
-        <v>3338</v>
+        <v>1336.3</v>
       </c>
       <c r="E19">
-        <v>4465.8</v>
+        <v>2223.6</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>174.2</v>
+        <v>30.5</v>
       </c>
       <c r="H19">
-        <v>1380</v>
+        <v>162.5</v>
       </c>
       <c r="I19">
-        <v>5086.2</v>
+        <v>1659.5</v>
       </c>
       <c r="J19">
-        <v>11174</v>
+        <v>5548</v>
       </c>
       <c r="K19">
         <v>6</v>
       </c>
       <c r="L19">
-        <v>4005.6</v>
+        <v>2004.5</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>83.3</v>
+        <v>66.7</v>
       </c>
       <c r="O19">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="P19">
-        <v>1971</v>
+        <v>5969</v>
       </c>
       <c r="Q19">
-        <v>328.5</v>
+        <v>994.8</v>
       </c>
       <c r="R19">
-        <v>405.7</v>
+        <v>2233.7</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>215</v>
+        <v>45.5</v>
       </c>
       <c r="V19">
-        <v>519.2</v>
+        <v>267</v>
       </c>
       <c r="W19">
-        <v>992</v>
+        <v>5547</v>
       </c>
       <c r="X19">
         <v>6</v>
       </c>
       <c r="Y19">
+        <v>1492.2</v>
+      </c>
+      <c r="Z19">
+        <v>4</v>
+      </c>
+      <c r="AA19">
+        <v>66.7</v>
+      </c>
+      <c r="AB19">
+        <v>0.3</v>
+      </c>
+      <c r="AC19">
+        <v>1971</v>
+      </c>
+      <c r="AD19">
+        <v>328.5</v>
+      </c>
+      <c r="AE19">
+        <v>405.7</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>215</v>
+      </c>
+      <c r="AI19">
+        <v>519.2</v>
+      </c>
+      <c r="AJ19">
+        <v>992</v>
+      </c>
+      <c r="AK19">
+        <v>6</v>
+      </c>
+      <c r="AL19">
         <v>657</v>
       </c>
-      <c r="Z19">
+      <c r="AM19">
         <v>3</v>
       </c>
-      <c r="AA19">
+      <c r="AN19">
         <v>50</v>
       </c>
-      <c r="AB19">
+      <c r="AO19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:41">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20">
-        <v>34908</v>
+        <v>18773</v>
       </c>
       <c r="D20">
-        <v>2181.8</v>
+        <v>1173.3</v>
       </c>
       <c r="E20">
-        <v>3533.4</v>
+        <v>1656.7</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1959,37 +2619,37 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="I20">
-        <v>1824.2</v>
+        <v>1303.2</v>
       </c>
       <c r="J20">
-        <v>10097</v>
+        <v>4893</v>
       </c>
       <c r="K20">
         <v>16</v>
       </c>
       <c r="L20">
-        <v>3173.5</v>
+        <v>1877.3</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N20">
-        <v>68.8</v>
+        <v>62.5</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P20">
-        <v>6298</v>
+        <v>16144</v>
       </c>
       <c r="Q20">
-        <v>393.6</v>
+        <v>1009</v>
       </c>
       <c r="R20">
-        <v>523</v>
+        <v>2056.8</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -1998,82 +2658,121 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>2.5</v>
+        <v>72.5</v>
       </c>
       <c r="V20">
-        <v>662.5</v>
+        <v>517.2</v>
       </c>
       <c r="W20">
-        <v>1428</v>
+        <v>6137</v>
       </c>
       <c r="X20">
         <v>16</v>
       </c>
       <c r="Y20">
+        <v>1467.6</v>
+      </c>
+      <c r="Z20">
+        <v>11</v>
+      </c>
+      <c r="AA20">
+        <v>68.8</v>
+      </c>
+      <c r="AB20">
+        <v>0.4</v>
+      </c>
+      <c r="AC20">
+        <v>6298</v>
+      </c>
+      <c r="AD20">
+        <v>393.6</v>
+      </c>
+      <c r="AE20">
+        <v>523</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>2.5</v>
+      </c>
+      <c r="AI20">
+        <v>662.5</v>
+      </c>
+      <c r="AJ20">
+        <v>1428</v>
+      </c>
+      <c r="AK20">
+        <v>16</v>
+      </c>
+      <c r="AL20">
         <v>787.2</v>
       </c>
-      <c r="Z20">
+      <c r="AM20">
         <v>8</v>
       </c>
-      <c r="AA20">
+      <c r="AN20">
         <v>50</v>
       </c>
-      <c r="AB20">
+      <c r="AO20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:41">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21">
-        <v>34664</v>
+        <v>1603</v>
       </c>
       <c r="D21">
-        <v>8666</v>
+        <v>400.8</v>
       </c>
       <c r="E21">
-        <v>12190.1</v>
+        <v>591.1</v>
       </c>
       <c r="F21">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>1405</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3808</v>
+        <v>175.5</v>
       </c>
       <c r="I21">
-        <v>11069</v>
+        <v>576.2</v>
       </c>
       <c r="J21">
-        <v>26615</v>
+        <v>1252</v>
       </c>
       <c r="K21">
         <v>4</v>
       </c>
       <c r="L21">
-        <v>8666</v>
+        <v>801.5</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O21">
-        <v>1.2</v>
+        <v>-0.3</v>
       </c>
       <c r="P21">
-        <v>3946</v>
+        <v>555</v>
       </c>
       <c r="Q21">
-        <v>986.5</v>
+        <v>138.8</v>
       </c>
       <c r="R21">
-        <v>1567.6</v>
+        <v>226.7</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2082,19 +2781,19 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>327</v>
+        <v>40.5</v>
       </c>
       <c r="V21">
-        <v>1313.5</v>
+        <v>179.2</v>
       </c>
       <c r="W21">
-        <v>3292</v>
+        <v>474</v>
       </c>
       <c r="X21">
         <v>4</v>
       </c>
       <c r="Y21">
-        <v>1973</v>
+        <v>277.5</v>
       </c>
       <c r="Z21">
         <v>2</v>
@@ -2103,61 +2802,100 @@
         <v>50</v>
       </c>
       <c r="AB21">
+        <v>-0.3</v>
+      </c>
+      <c r="AC21">
+        <v>3946</v>
+      </c>
+      <c r="AD21">
+        <v>986.5</v>
+      </c>
+      <c r="AE21">
+        <v>1567.6</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>327</v>
+      </c>
+      <c r="AI21">
+        <v>1313.5</v>
+      </c>
+      <c r="AJ21">
+        <v>3292</v>
+      </c>
+      <c r="AK21">
+        <v>4</v>
+      </c>
+      <c r="AL21">
+        <v>1973</v>
+      </c>
+      <c r="AM21">
+        <v>2</v>
+      </c>
+      <c r="AN21">
+        <v>50</v>
+      </c>
+      <c r="AO21">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:41">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
-        <v>34394</v>
+        <v>14901</v>
       </c>
       <c r="D22">
-        <v>2292.9</v>
+        <v>993.4</v>
       </c>
       <c r="E22">
-        <v>2968.6</v>
+        <v>858.8</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1809</v>
+        <v>1201</v>
       </c>
       <c r="I22">
-        <v>2207.5</v>
+        <v>1612</v>
       </c>
       <c r="J22">
-        <v>10869</v>
+        <v>2347</v>
       </c>
       <c r="K22">
         <v>15</v>
       </c>
       <c r="L22">
-        <v>3126.7</v>
+        <v>1490.1</v>
       </c>
       <c r="M22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N22">
-        <v>73.3</v>
+        <v>66.7</v>
       </c>
       <c r="O22">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P22">
-        <v>6087</v>
+        <v>8551</v>
       </c>
       <c r="Q22">
-        <v>405.8</v>
+        <v>570.1</v>
       </c>
       <c r="R22">
-        <v>469.5</v>
+        <v>1183.7</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2166,43 +2904,82 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>238</v>
+        <v>359</v>
       </c>
       <c r="V22">
-        <v>747.5</v>
+        <v>460.5</v>
       </c>
       <c r="W22">
-        <v>1223</v>
+        <v>4715</v>
       </c>
       <c r="X22">
         <v>15</v>
       </c>
       <c r="Y22">
+        <v>855.1</v>
+      </c>
+      <c r="Z22">
+        <v>10</v>
+      </c>
+      <c r="AA22">
+        <v>66.7</v>
+      </c>
+      <c r="AB22">
+        <v>0.3</v>
+      </c>
+      <c r="AC22">
+        <v>6087</v>
+      </c>
+      <c r="AD22">
+        <v>405.8</v>
+      </c>
+      <c r="AE22">
+        <v>469.5</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>238</v>
+      </c>
+      <c r="AI22">
+        <v>747.5</v>
+      </c>
+      <c r="AJ22">
+        <v>1223</v>
+      </c>
+      <c r="AK22">
+        <v>15</v>
+      </c>
+      <c r="AL22">
         <v>760.9</v>
       </c>
-      <c r="Z22">
+      <c r="AM22">
         <v>8</v>
       </c>
-      <c r="AA22">
+      <c r="AN22">
         <v>53.3</v>
       </c>
-      <c r="AB22">
+      <c r="AO22">
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:41">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23">
-        <v>6490</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>1298</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>2902.4</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2217,31 +2994,28 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6490</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>5</v>
       </c>
-      <c r="L23">
-        <v>6490</v>
-      </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
       <c r="P23">
-        <v>2344</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>468.8</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1048.3</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2256,76 +3030,112 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>2344</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>5</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>-2.1</v>
+      </c>
+      <c r="AC23">
         <v>2344</v>
       </c>
-      <c r="Z23">
+      <c r="AD23">
+        <v>468.8</v>
+      </c>
+      <c r="AE23">
+        <v>1048.3</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>2344</v>
+      </c>
+      <c r="AK23">
+        <v>5</v>
+      </c>
+      <c r="AL23">
+        <v>2344</v>
+      </c>
+      <c r="AM23">
         <v>1</v>
       </c>
-      <c r="AA23">
+      <c r="AN23">
         <v>20</v>
       </c>
-      <c r="AB23">
+      <c r="AO23">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:41">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24">
-        <v>143765</v>
+        <v>90970</v>
       </c>
       <c r="D24">
-        <v>2934</v>
+        <v>1856.5</v>
       </c>
       <c r="E24">
-        <v>5374</v>
+        <v>3812.5</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>631</v>
+        <v>491</v>
       </c>
       <c r="I24">
-        <v>2600</v>
+        <v>1669</v>
       </c>
       <c r="J24">
-        <v>22952</v>
+        <v>18330</v>
       </c>
       <c r="K24">
         <v>49</v>
       </c>
       <c r="L24">
-        <v>3885.5</v>
+        <v>2526.9</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N24">
-        <v>75.5</v>
+        <v>73.5</v>
       </c>
       <c r="O24">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="P24">
-        <v>31478</v>
+        <v>30043</v>
       </c>
       <c r="Q24">
-        <v>642.4</v>
+        <v>613.1</v>
       </c>
       <c r="R24">
-        <v>1056.7</v>
+        <v>1195.4</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2334,45 +3144,84 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>263</v>
+        <v>106</v>
       </c>
       <c r="V24">
-        <v>769</v>
+        <v>478</v>
       </c>
       <c r="W24">
-        <v>6327</v>
+        <v>4588</v>
       </c>
       <c r="X24">
         <v>49</v>
       </c>
       <c r="Y24">
+        <v>834.5</v>
+      </c>
+      <c r="Z24">
+        <v>36</v>
+      </c>
+      <c r="AA24">
+        <v>73.5</v>
+      </c>
+      <c r="AB24">
+        <v>0.5</v>
+      </c>
+      <c r="AC24">
+        <v>31478</v>
+      </c>
+      <c r="AD24">
+        <v>642.4</v>
+      </c>
+      <c r="AE24">
+        <v>1056.7</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>263</v>
+      </c>
+      <c r="AI24">
+        <v>769</v>
+      </c>
+      <c r="AJ24">
+        <v>6327</v>
+      </c>
+      <c r="AK24">
+        <v>49</v>
+      </c>
+      <c r="AL24">
         <v>1124.2</v>
       </c>
-      <c r="Z24">
+      <c r="AM24">
         <v>28</v>
       </c>
-      <c r="AA24">
+      <c r="AN24">
         <v>57.1</v>
       </c>
-      <c r="AB24">
+      <c r="AO24">
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:41">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>122680</v>
+        <v>75768</v>
       </c>
       <c r="D25">
-        <v>2152.3</v>
+        <v>1329.3</v>
       </c>
       <c r="E25">
-        <v>8176.9</v>
+        <v>6343</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2381,37 +3230,37 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="I25">
-        <v>930</v>
+        <v>358</v>
       </c>
       <c r="J25">
-        <v>56317</v>
+        <v>47580</v>
       </c>
       <c r="K25">
         <v>57</v>
       </c>
       <c r="L25">
-        <v>3717.6</v>
+        <v>2444.1</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N25">
-        <v>57.9</v>
+        <v>54.4</v>
       </c>
       <c r="O25">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="P25">
-        <v>9741</v>
+        <v>20759</v>
       </c>
       <c r="Q25">
-        <v>170.9</v>
+        <v>364.2</v>
       </c>
       <c r="R25">
-        <v>369.8</v>
+        <v>1205.8</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2420,43 +3269,82 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="W25">
-        <v>1601</v>
+        <v>8505</v>
       </c>
       <c r="X25">
         <v>57</v>
       </c>
       <c r="Y25">
+        <v>669.6</v>
+      </c>
+      <c r="Z25">
+        <v>31</v>
+      </c>
+      <c r="AA25">
+        <v>54.4</v>
+      </c>
+      <c r="AB25">
+        <v>-0.2</v>
+      </c>
+      <c r="AC25">
+        <v>9741</v>
+      </c>
+      <c r="AD25">
+        <v>170.9</v>
+      </c>
+      <c r="AE25">
+        <v>369.8</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>1601</v>
+      </c>
+      <c r="AK25">
+        <v>57</v>
+      </c>
+      <c r="AL25">
         <v>695.8</v>
       </c>
-      <c r="Z25">
+      <c r="AM25">
         <v>14</v>
       </c>
-      <c r="AA25">
+      <c r="AN25">
         <v>24.6</v>
       </c>
-      <c r="AB25">
+      <c r="AO25">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:41">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26">
-        <v>231415</v>
+        <v>137575</v>
       </c>
       <c r="D26">
-        <v>1961.1</v>
+        <v>1165.9</v>
       </c>
       <c r="E26">
-        <v>3692.1</v>
+        <v>2069.7</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2465,37 +3353,37 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>571.5</v>
+        <v>364.5</v>
       </c>
       <c r="I26">
-        <v>2061.5</v>
+        <v>1377.5</v>
       </c>
       <c r="J26">
-        <v>22875</v>
+        <v>14101</v>
       </c>
       <c r="K26">
         <v>118</v>
       </c>
       <c r="L26">
-        <v>2690.9</v>
+        <v>1677.7</v>
       </c>
       <c r="M26">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N26">
-        <v>72.90000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="O26">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P26">
-        <v>51340</v>
+        <v>49716</v>
       </c>
       <c r="Q26">
-        <v>435.1</v>
+        <v>421.3</v>
       </c>
       <c r="R26">
-        <v>701.3</v>
+        <v>1910.8</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -2504,43 +3392,82 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>55.5</v>
       </c>
       <c r="V26">
-        <v>698</v>
+        <v>234.5</v>
       </c>
       <c r="W26">
-        <v>4241</v>
+        <v>19557</v>
       </c>
       <c r="X26">
         <v>118</v>
       </c>
       <c r="Y26">
-        <v>950.7</v>
+        <v>613.8</v>
       </c>
       <c r="Z26">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="AA26">
-        <v>45.8</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="AB26">
         <v>0.3</v>
       </c>
+      <c r="AC26">
+        <v>51340</v>
+      </c>
+      <c r="AD26">
+        <v>435.1</v>
+      </c>
+      <c r="AE26">
+        <v>701.3</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>698</v>
+      </c>
+      <c r="AJ26">
+        <v>4241</v>
+      </c>
+      <c r="AK26">
+        <v>118</v>
+      </c>
+      <c r="AL26">
+        <v>950.7</v>
+      </c>
+      <c r="AM26">
+        <v>54</v>
+      </c>
+      <c r="AN26">
+        <v>45.8</v>
+      </c>
+      <c r="AO26">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:41">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27">
-        <v>136205</v>
+        <v>64834</v>
       </c>
       <c r="D27">
-        <v>1530.4</v>
+        <v>728.5</v>
       </c>
       <c r="E27">
-        <v>3444.1</v>
+        <v>1329.2</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2549,37 +3476,37 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="I27">
-        <v>1197</v>
+        <v>795</v>
       </c>
       <c r="J27">
-        <v>22121</v>
+        <v>7432</v>
       </c>
       <c r="K27">
         <v>89</v>
       </c>
       <c r="L27">
-        <v>2670.7</v>
+        <v>1350.7</v>
       </c>
       <c r="M27">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N27">
-        <v>57.3</v>
+        <v>53.9</v>
       </c>
       <c r="O27">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="P27">
-        <v>27450</v>
+        <v>32245</v>
       </c>
       <c r="Q27">
-        <v>308.4</v>
+        <v>362.3</v>
       </c>
       <c r="R27">
-        <v>676.6</v>
+        <v>1254.5</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2588,43 +3515,82 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V27">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="W27">
-        <v>3550</v>
+        <v>10371</v>
       </c>
       <c r="X27">
         <v>89</v>
       </c>
       <c r="Y27">
+        <v>671.8</v>
+      </c>
+      <c r="Z27">
+        <v>48</v>
+      </c>
+      <c r="AA27">
+        <v>53.9</v>
+      </c>
+      <c r="AB27">
+        <v>-0.2</v>
+      </c>
+      <c r="AC27">
+        <v>27450</v>
+      </c>
+      <c r="AD27">
+        <v>308.4</v>
+      </c>
+      <c r="AE27">
+        <v>676.6</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>300</v>
+      </c>
+      <c r="AJ27">
+        <v>3550</v>
+      </c>
+      <c r="AK27">
+        <v>89</v>
+      </c>
+      <c r="AL27">
         <v>915</v>
       </c>
-      <c r="Z27">
+      <c r="AM27">
         <v>30</v>
       </c>
-      <c r="AA27">
+      <c r="AN27">
         <v>33.7</v>
       </c>
-      <c r="AB27">
+      <c r="AO27">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:41">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28">
-        <v>282027</v>
+        <v>203966</v>
       </c>
       <c r="D28">
-        <v>617.1</v>
+        <v>446.3</v>
       </c>
       <c r="E28">
-        <v>1140.1</v>
+        <v>815.1</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2633,37 +3599,37 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="I28">
-        <v>752</v>
+        <v>573</v>
       </c>
       <c r="J28">
-        <v>9764</v>
+        <v>8769</v>
       </c>
       <c r="K28">
         <v>457</v>
       </c>
       <c r="L28">
-        <v>854.6</v>
+        <v>653.7</v>
       </c>
       <c r="M28">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="N28">
-        <v>72.2</v>
+        <v>68.3</v>
       </c>
       <c r="O28">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P28">
-        <v>139859</v>
+        <v>63626</v>
       </c>
       <c r="Q28">
-        <v>306</v>
+        <v>139.2</v>
       </c>
       <c r="R28">
-        <v>1753.5</v>
+        <v>322</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -2672,43 +3638,82 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V28">
-        <v>392</v>
+        <v>141</v>
       </c>
       <c r="W28">
-        <v>36948</v>
+        <v>3864</v>
       </c>
       <c r="X28">
         <v>457</v>
       </c>
       <c r="Y28">
+        <v>198.2</v>
+      </c>
+      <c r="Z28">
+        <v>321</v>
+      </c>
+      <c r="AA28">
+        <v>70.2</v>
+      </c>
+      <c r="AB28">
+        <v>0.4</v>
+      </c>
+      <c r="AC28">
+        <v>139859</v>
+      </c>
+      <c r="AD28">
+        <v>306</v>
+      </c>
+      <c r="AE28">
+        <v>1753.5</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>392</v>
+      </c>
+      <c r="AJ28">
+        <v>36948</v>
+      </c>
+      <c r="AK28">
+        <v>457</v>
+      </c>
+      <c r="AL28">
         <v>743.9</v>
       </c>
-      <c r="Z28">
+      <c r="AM28">
         <v>188</v>
       </c>
-      <c r="AA28">
+      <c r="AN28">
         <v>41.1</v>
       </c>
-      <c r="AB28">
+      <c r="AO28">
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:41">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29">
-        <v>16575</v>
+        <v>11556</v>
       </c>
       <c r="D29">
-        <v>1381.2</v>
+        <v>963</v>
       </c>
       <c r="E29">
-        <v>1940.5</v>
+        <v>1326.2</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2717,19 +3722,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="I29">
-        <v>2753.5</v>
+        <v>2034.2</v>
       </c>
       <c r="J29">
-        <v>5365</v>
+        <v>3687</v>
       </c>
       <c r="K29">
         <v>12</v>
       </c>
       <c r="L29">
-        <v>2367.9</v>
+        <v>1650.9</v>
       </c>
       <c r="M29">
         <v>7</v>
@@ -2738,16 +3743,16 @@
         <v>58.3</v>
       </c>
       <c r="O29">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>4143</v>
+        <v>4976</v>
       </c>
       <c r="Q29">
-        <v>345.2</v>
+        <v>414.7</v>
       </c>
       <c r="R29">
-        <v>568.1</v>
+        <v>755.3</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2756,43 +3761,82 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>614.8</v>
+        <v>346.2</v>
       </c>
       <c r="W29">
-        <v>1451</v>
+        <v>2280</v>
       </c>
       <c r="X29">
         <v>12</v>
       </c>
       <c r="Y29">
+        <v>829.3</v>
+      </c>
+      <c r="Z29">
+        <v>6</v>
+      </c>
+      <c r="AA29">
+        <v>50</v>
+      </c>
+      <c r="AB29">
+        <v>-0.3</v>
+      </c>
+      <c r="AC29">
+        <v>4143</v>
+      </c>
+      <c r="AD29">
+        <v>345.2</v>
+      </c>
+      <c r="AE29">
+        <v>568.1</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>614.8</v>
+      </c>
+      <c r="AJ29">
+        <v>1451</v>
+      </c>
+      <c r="AK29">
+        <v>12</v>
+      </c>
+      <c r="AL29">
         <v>1035.8</v>
       </c>
-      <c r="Z29">
+      <c r="AM29">
         <v>4</v>
       </c>
-      <c r="AA29">
+      <c r="AN29">
         <v>33.3</v>
       </c>
-      <c r="AB29">
+      <c r="AO29">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:41">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>23864</v>
+        <v>5783</v>
       </c>
       <c r="D30">
-        <v>1704.6</v>
+        <v>413.1</v>
       </c>
       <c r="E30">
-        <v>4384.3</v>
+        <v>760.9</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2801,37 +3845,37 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>16.5</v>
+        <v>1.5</v>
       </c>
       <c r="I30">
-        <v>1423.5</v>
+        <v>432</v>
       </c>
       <c r="J30">
-        <v>16598</v>
+        <v>2470</v>
       </c>
       <c r="K30">
         <v>14</v>
       </c>
       <c r="L30">
-        <v>2651.6</v>
+        <v>826.1</v>
       </c>
       <c r="M30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N30">
-        <v>64.3</v>
+        <v>50</v>
       </c>
       <c r="O30">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="P30">
-        <v>2988</v>
+        <v>1449</v>
       </c>
       <c r="Q30">
-        <v>213.4</v>
+        <v>103.5</v>
       </c>
       <c r="R30">
-        <v>449.4</v>
+        <v>178.9</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2840,43 +3884,82 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V30">
-        <v>140.2</v>
+        <v>117.2</v>
       </c>
       <c r="W30">
-        <v>1574</v>
+        <v>522</v>
       </c>
       <c r="X30">
         <v>14</v>
       </c>
       <c r="Y30">
+        <v>181.1</v>
+      </c>
+      <c r="Z30">
+        <v>8</v>
+      </c>
+      <c r="AA30">
+        <v>57.1</v>
+      </c>
+      <c r="AB30">
+        <v>-0.1</v>
+      </c>
+      <c r="AC30">
+        <v>2988</v>
+      </c>
+      <c r="AD30">
+        <v>213.4</v>
+      </c>
+      <c r="AE30">
+        <v>449.4</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>140.2</v>
+      </c>
+      <c r="AJ30">
+        <v>1574</v>
+      </c>
+      <c r="AK30">
+        <v>14</v>
+      </c>
+      <c r="AL30">
         <v>498</v>
       </c>
-      <c r="Z30">
+      <c r="AM30">
         <v>6</v>
       </c>
-      <c r="AA30">
+      <c r="AN30">
         <v>42.9</v>
       </c>
-      <c r="AB30">
+      <c r="AO30">
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:41">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>69785</v>
+        <v>39513</v>
       </c>
       <c r="D31">
-        <v>634.4</v>
+        <v>359.2</v>
       </c>
       <c r="E31">
-        <v>1390.4</v>
+        <v>574.1</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2885,37 +3968,37 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>64.5</v>
+        <v>49.5</v>
       </c>
       <c r="I31">
-        <v>719.8</v>
+        <v>513.2</v>
       </c>
       <c r="J31">
-        <v>11902</v>
+        <v>2665</v>
       </c>
       <c r="K31">
         <v>110</v>
       </c>
       <c r="L31">
-        <v>1011.4</v>
+        <v>617.4</v>
       </c>
       <c r="M31">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N31">
-        <v>62.7</v>
+        <v>58.2</v>
       </c>
       <c r="O31">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>36755</v>
+        <v>16392</v>
       </c>
       <c r="Q31">
-        <v>334.1</v>
+        <v>149</v>
       </c>
       <c r="R31">
-        <v>882.4</v>
+        <v>346.7</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2924,43 +4007,82 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V31">
-        <v>426.5</v>
+        <v>101.2</v>
       </c>
       <c r="W31">
-        <v>7664</v>
+        <v>1777</v>
       </c>
       <c r="X31">
         <v>110</v>
       </c>
       <c r="Y31">
+        <v>244.7</v>
+      </c>
+      <c r="Z31">
+        <v>67</v>
+      </c>
+      <c r="AA31">
+        <v>60.9</v>
+      </c>
+      <c r="AB31">
+        <v>0.1</v>
+      </c>
+      <c r="AC31">
+        <v>36755</v>
+      </c>
+      <c r="AD31">
+        <v>334.1</v>
+      </c>
+      <c r="AE31">
+        <v>882.4</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>426.5</v>
+      </c>
+      <c r="AJ31">
+        <v>7664</v>
+      </c>
+      <c r="AK31">
+        <v>110</v>
+      </c>
+      <c r="AL31">
         <v>918.9</v>
       </c>
-      <c r="Z31">
+      <c r="AM31">
         <v>40</v>
       </c>
-      <c r="AA31">
+      <c r="AN31">
         <v>36.4</v>
       </c>
-      <c r="AB31">
+      <c r="AO31">
         <v>-0</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:41">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>265095</v>
+        <v>47425</v>
       </c>
       <c r="D32">
-        <v>3193.9</v>
+        <v>571.4</v>
       </c>
       <c r="E32">
-        <v>8542.200000000001</v>
+        <v>1338.1</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2969,37 +4091,37 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1509.5</v>
+        <v>395</v>
       </c>
       <c r="J32">
-        <v>52507</v>
+        <v>7613</v>
       </c>
       <c r="K32">
         <v>83</v>
       </c>
       <c r="L32">
-        <v>5640.3</v>
+        <v>1216</v>
       </c>
       <c r="M32">
+        <v>39</v>
+      </c>
+      <c r="N32">
         <v>47</v>
-      </c>
-      <c r="N32">
-        <v>56.6</v>
       </c>
       <c r="O32">
         <v>-0.4</v>
       </c>
       <c r="P32">
-        <v>41057</v>
+        <v>21149</v>
       </c>
       <c r="Q32">
-        <v>494.7</v>
+        <v>254.8</v>
       </c>
       <c r="R32">
-        <v>1456.4</v>
+        <v>738.1</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -3011,40 +4133,79 @@
         <v>0</v>
       </c>
       <c r="V32">
-        <v>346</v>
+        <v>137</v>
       </c>
       <c r="W32">
-        <v>8880</v>
+        <v>5171</v>
       </c>
       <c r="X32">
         <v>83</v>
       </c>
       <c r="Y32">
+        <v>542.3</v>
+      </c>
+      <c r="Z32">
+        <v>39</v>
+      </c>
+      <c r="AA32">
+        <v>47</v>
+      </c>
+      <c r="AB32">
+        <v>-0.4</v>
+      </c>
+      <c r="AC32">
+        <v>41057</v>
+      </c>
+      <c r="AD32">
+        <v>494.7</v>
+      </c>
+      <c r="AE32">
+        <v>1456.4</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>346</v>
+      </c>
+      <c r="AJ32">
+        <v>8880</v>
+      </c>
+      <c r="AK32">
+        <v>83</v>
+      </c>
+      <c r="AL32">
         <v>1642.3</v>
       </c>
-      <c r="Z32">
+      <c r="AM32">
         <v>25</v>
       </c>
-      <c r="AA32">
+      <c r="AN32">
         <v>30.1</v>
       </c>
-      <c r="AB32">
+      <c r="AO32">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:41">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>399830</v>
+        <v>203661</v>
       </c>
       <c r="D33">
-        <v>821</v>
+        <v>418.2</v>
       </c>
       <c r="E33">
-        <v>3754.6</v>
+        <v>2179.4</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3053,37 +4214,37 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>322</v>
+        <v>242.5</v>
       </c>
       <c r="J33">
-        <v>52506</v>
+        <v>43003</v>
       </c>
       <c r="K33">
         <v>487</v>
       </c>
       <c r="L33">
-        <v>1514.5</v>
+        <v>838.1</v>
       </c>
       <c r="M33">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="N33">
-        <v>54.2</v>
+        <v>49.9</v>
       </c>
       <c r="O33">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="P33">
-        <v>81960</v>
+        <v>36878</v>
       </c>
       <c r="Q33">
-        <v>168.3</v>
+        <v>75.7</v>
       </c>
       <c r="R33">
-        <v>1051.3</v>
+        <v>359.8</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -3092,82 +4253,121 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="W33">
-        <v>21892</v>
+        <v>6504</v>
       </c>
       <c r="X33">
         <v>487</v>
       </c>
       <c r="Y33">
+        <v>149.9</v>
+      </c>
+      <c r="Z33">
+        <v>246</v>
+      </c>
+      <c r="AA33">
+        <v>50.5</v>
+      </c>
+      <c r="AB33">
+        <v>-0.3</v>
+      </c>
+      <c r="AC33">
+        <v>81960</v>
+      </c>
+      <c r="AD33">
+        <v>168.3</v>
+      </c>
+      <c r="AE33">
+        <v>1051.3</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>21892</v>
+      </c>
+      <c r="AK33">
+        <v>487</v>
+      </c>
+      <c r="AL33">
         <v>827.9</v>
       </c>
-      <c r="Z33">
+      <c r="AM33">
         <v>99</v>
       </c>
-      <c r="AA33">
+      <c r="AN33">
         <v>20.3</v>
       </c>
-      <c r="AB33">
+      <c r="AO33">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:41">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34">
-        <v>79752</v>
+        <v>24536</v>
       </c>
       <c r="D34">
-        <v>2848.3</v>
+        <v>876.3</v>
       </c>
       <c r="E34">
-        <v>3630</v>
+        <v>1134.3</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>1629.5</v>
+        <v>219.5</v>
       </c>
       <c r="I34">
-        <v>3711.8</v>
+        <v>1692.2</v>
       </c>
       <c r="J34">
-        <v>14642</v>
+        <v>4125</v>
       </c>
       <c r="K34">
         <v>28</v>
       </c>
       <c r="L34">
-        <v>3467.5</v>
+        <v>1363.1</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N34">
-        <v>82.09999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="O34">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P34">
-        <v>9250</v>
+        <v>8578</v>
       </c>
       <c r="Q34">
-        <v>330.4</v>
+        <v>306.4</v>
       </c>
       <c r="R34">
-        <v>510.3</v>
+        <v>554.2</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -3176,127 +4376,205 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="V34">
-        <v>794.8</v>
+        <v>377.2</v>
       </c>
       <c r="W34">
-        <v>1650</v>
+        <v>2057</v>
       </c>
       <c r="X34">
         <v>28</v>
       </c>
       <c r="Y34">
+        <v>476.6</v>
+      </c>
+      <c r="Z34">
+        <v>18</v>
+      </c>
+      <c r="AA34">
+        <v>64.3</v>
+      </c>
+      <c r="AB34">
+        <v>0.2</v>
+      </c>
+      <c r="AC34">
+        <v>9250</v>
+      </c>
+      <c r="AD34">
+        <v>330.4</v>
+      </c>
+      <c r="AE34">
+        <v>510.3</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>794.8</v>
+      </c>
+      <c r="AJ34">
+        <v>1650</v>
+      </c>
+      <c r="AK34">
+        <v>28</v>
+      </c>
+      <c r="AL34">
         <v>840.9</v>
       </c>
-      <c r="Z34">
+      <c r="AM34">
         <v>11</v>
       </c>
-      <c r="AA34">
+      <c r="AN34">
         <v>39.3</v>
       </c>
-      <c r="AB34">
+      <c r="AO34">
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:41">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>128087</v>
+        <v>45416</v>
       </c>
       <c r="D35">
-        <v>2911.1</v>
+        <v>1032.2</v>
       </c>
       <c r="E35">
-        <v>11287</v>
+        <v>1990.8</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>49.2</v>
+        <v>1.5</v>
       </c>
       <c r="H35">
-        <v>441</v>
+        <v>331.5</v>
       </c>
       <c r="I35">
-        <v>1646.8</v>
+        <v>1380</v>
       </c>
       <c r="J35">
-        <v>74441</v>
+        <v>11096</v>
       </c>
       <c r="K35">
         <v>44</v>
       </c>
       <c r="L35">
-        <v>3659.6</v>
+        <v>1376.2</v>
       </c>
       <c r="M35">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N35">
-        <v>79.5</v>
+        <v>75</v>
       </c>
       <c r="O35">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="P35">
-        <v>7148</v>
+        <v>8098</v>
       </c>
       <c r="Q35">
-        <v>162.5</v>
+        <v>184</v>
       </c>
       <c r="R35">
-        <v>279.2</v>
+        <v>395.6</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="V35">
-        <v>262.8</v>
+        <v>138.8</v>
       </c>
       <c r="W35">
-        <v>901</v>
+        <v>1930</v>
       </c>
       <c r="X35">
         <v>44</v>
       </c>
       <c r="Y35">
+        <v>238.2</v>
+      </c>
+      <c r="Z35">
+        <v>34</v>
+      </c>
+      <c r="AA35">
+        <v>77.3</v>
+      </c>
+      <c r="AB35">
+        <v>0.6</v>
+      </c>
+      <c r="AC35">
+        <v>7148</v>
+      </c>
+      <c r="AD35">
+        <v>162.5</v>
+      </c>
+      <c r="AE35">
+        <v>279.2</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>262.8</v>
+      </c>
+      <c r="AJ35">
+        <v>901</v>
+      </c>
+      <c r="AK35">
+        <v>44</v>
+      </c>
+      <c r="AL35">
         <v>510.6</v>
       </c>
-      <c r="Z35">
+      <c r="AM35">
         <v>14</v>
       </c>
-      <c r="AA35">
+      <c r="AN35">
         <v>31.8</v>
       </c>
-      <c r="AB35">
+      <c r="AO35">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:41">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36">
-        <v>7843</v>
+        <v>4939</v>
       </c>
       <c r="D36">
-        <v>373.5</v>
+        <v>235.2</v>
       </c>
       <c r="E36">
-        <v>807.4</v>
+        <v>546.2</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3308,34 +4586,34 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="J36">
-        <v>3056</v>
+        <v>1879</v>
       </c>
       <c r="K36">
         <v>21</v>
       </c>
       <c r="L36">
-        <v>871.4</v>
+        <v>705.6</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N36">
-        <v>42.9</v>
+        <v>33.3</v>
       </c>
       <c r="O36">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="P36">
-        <v>5331</v>
+        <v>1698</v>
       </c>
       <c r="Q36">
-        <v>253.9</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="R36">
-        <v>818.3</v>
+        <v>263</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -3347,124 +4625,202 @@
         <v>0</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W36">
-        <v>3642</v>
+        <v>1165</v>
       </c>
       <c r="X36">
         <v>21</v>
       </c>
       <c r="Y36">
+        <v>212.2</v>
+      </c>
+      <c r="Z36">
+        <v>8</v>
+      </c>
+      <c r="AA36">
+        <v>38.1</v>
+      </c>
+      <c r="AB36">
+        <v>-0.7</v>
+      </c>
+      <c r="AC36">
+        <v>5331</v>
+      </c>
+      <c r="AD36">
+        <v>253.9</v>
+      </c>
+      <c r="AE36">
+        <v>818.3</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>3642</v>
+      </c>
+      <c r="AK36">
+        <v>21</v>
+      </c>
+      <c r="AL36">
         <v>1777</v>
       </c>
-      <c r="Z36">
+      <c r="AM36">
         <v>3</v>
       </c>
-      <c r="AA36">
+      <c r="AN36">
         <v>14.3</v>
       </c>
-      <c r="AB36">
+      <c r="AO36">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:41">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37">
-        <v>79682</v>
+        <v>29279</v>
       </c>
       <c r="D37">
-        <v>2414.6</v>
+        <v>887.2</v>
       </c>
       <c r="E37">
-        <v>4618.6</v>
+        <v>1330.1</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>715</v>
+        <v>326</v>
       </c>
       <c r="I37">
-        <v>1779</v>
+        <v>1021</v>
       </c>
       <c r="J37">
-        <v>18679</v>
+        <v>4765</v>
       </c>
       <c r="K37">
         <v>33</v>
       </c>
       <c r="L37">
-        <v>2747.7</v>
+        <v>1171.2</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N37">
-        <v>87.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="O37">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="P37">
-        <v>11035</v>
+        <v>18776</v>
       </c>
       <c r="Q37">
-        <v>334.4</v>
+        <v>569</v>
       </c>
       <c r="R37">
-        <v>502.1</v>
+        <v>1950.8</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="V37">
-        <v>542</v>
+        <v>325</v>
       </c>
       <c r="W37">
-        <v>1721</v>
+        <v>11227</v>
       </c>
       <c r="X37">
         <v>33</v>
       </c>
       <c r="Y37">
+        <v>751</v>
+      </c>
+      <c r="Z37">
+        <v>25</v>
+      </c>
+      <c r="AA37">
+        <v>75.8</v>
+      </c>
+      <c r="AB37">
+        <v>0.6</v>
+      </c>
+      <c r="AC37">
+        <v>11035</v>
+      </c>
+      <c r="AD37">
+        <v>334.4</v>
+      </c>
+      <c r="AE37">
+        <v>502.1</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>542</v>
+      </c>
+      <c r="AJ37">
+        <v>1721</v>
+      </c>
+      <c r="AK37">
+        <v>33</v>
+      </c>
+      <c r="AL37">
         <v>689.7</v>
       </c>
-      <c r="Z37">
+      <c r="AM37">
         <v>16</v>
       </c>
-      <c r="AA37">
+      <c r="AN37">
         <v>48.5</v>
       </c>
-      <c r="AB37">
+      <c r="AO37">
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:41">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
-        <v>225006</v>
+        <v>109130</v>
       </c>
       <c r="D38">
-        <v>1730.8</v>
+        <v>839.5</v>
       </c>
       <c r="E38">
-        <v>4241.7</v>
+        <v>1812.5</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3473,37 +4829,37 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>313.5</v>
+        <v>166</v>
       </c>
       <c r="I38">
-        <v>1480.2</v>
+        <v>978</v>
       </c>
       <c r="J38">
-        <v>31042</v>
+        <v>14162</v>
       </c>
       <c r="K38">
         <v>130</v>
       </c>
       <c r="L38">
-        <v>2647.1</v>
+        <v>1381.4</v>
       </c>
       <c r="M38">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N38">
-        <v>65.40000000000001</v>
+        <v>60.8</v>
       </c>
       <c r="O38">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="P38">
-        <v>64618</v>
+        <v>53441</v>
       </c>
       <c r="Q38">
-        <v>497.1</v>
+        <v>411.1</v>
       </c>
       <c r="R38">
-        <v>3242.5</v>
+        <v>1885.8</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -3512,43 +4868,82 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="V38">
-        <v>232</v>
+        <v>168.5</v>
       </c>
       <c r="W38">
-        <v>36858</v>
+        <v>20111</v>
       </c>
       <c r="X38">
         <v>130</v>
       </c>
       <c r="Y38">
+        <v>668</v>
+      </c>
+      <c r="Z38">
+        <v>80</v>
+      </c>
+      <c r="AA38">
+        <v>61.5</v>
+      </c>
+      <c r="AB38">
+        <v>0.1</v>
+      </c>
+      <c r="AC38">
+        <v>64618</v>
+      </c>
+      <c r="AD38">
+        <v>497.1</v>
+      </c>
+      <c r="AE38">
+        <v>3242.5</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>232</v>
+      </c>
+      <c r="AJ38">
+        <v>36858</v>
+      </c>
+      <c r="AK38">
+        <v>130</v>
+      </c>
+      <c r="AL38">
         <v>1700.5</v>
       </c>
-      <c r="Z38">
+      <c r="AM38">
         <v>38</v>
       </c>
-      <c r="AA38">
+      <c r="AN38">
         <v>29.2</v>
       </c>
-      <c r="AB38">
+      <c r="AO38">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:41">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39">
-        <v>15222</v>
+        <v>13335</v>
       </c>
       <c r="D39">
-        <v>185.6</v>
+        <v>162.6</v>
       </c>
       <c r="E39">
-        <v>526.4</v>
+        <v>441.1</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3560,34 +4955,34 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>127.8</v>
+        <v>114.2</v>
       </c>
       <c r="J39">
-        <v>4261</v>
+        <v>3483</v>
       </c>
       <c r="K39">
         <v>82</v>
       </c>
       <c r="L39">
-        <v>380.6</v>
+        <v>360.4</v>
       </c>
       <c r="M39">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N39">
-        <v>48.8</v>
+        <v>45.1</v>
       </c>
       <c r="O39">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="P39">
-        <v>7292</v>
+        <v>1855</v>
       </c>
       <c r="Q39">
-        <v>88.90000000000001</v>
+        <v>22.6</v>
       </c>
       <c r="R39">
-        <v>307.7</v>
+        <v>87.7</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -3599,79 +4994,118 @@
         <v>0</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="W39">
-        <v>2234</v>
+        <v>767</v>
       </c>
       <c r="X39">
         <v>82</v>
       </c>
       <c r="Y39">
+        <v>48.8</v>
+      </c>
+      <c r="Z39">
+        <v>38</v>
+      </c>
+      <c r="AA39">
+        <v>46.3</v>
+      </c>
+      <c r="AB39">
+        <v>-0.4</v>
+      </c>
+      <c r="AC39">
+        <v>7292</v>
+      </c>
+      <c r="AD39">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="AE39">
+        <v>307.7</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>2234</v>
+      </c>
+      <c r="AK39">
+        <v>82</v>
+      </c>
+      <c r="AL39">
         <v>662.9</v>
       </c>
-      <c r="Z39">
+      <c r="AM39">
         <v>11</v>
       </c>
-      <c r="AA39">
+      <c r="AN39">
         <v>13.4</v>
       </c>
-      <c r="AB39">
+      <c r="AO39">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:41">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40">
-        <v>45167</v>
+        <v>11038</v>
       </c>
       <c r="D40">
-        <v>3474.4</v>
+        <v>849.1</v>
       </c>
       <c r="E40">
-        <v>4850.4</v>
+        <v>1187.9</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>1139</v>
+        <v>15</v>
       </c>
       <c r="I40">
-        <v>4717</v>
+        <v>1903</v>
       </c>
       <c r="J40">
-        <v>13909</v>
+        <v>3159</v>
       </c>
       <c r="K40">
         <v>13</v>
       </c>
       <c r="L40">
-        <v>4516.7</v>
+        <v>1379.8</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N40">
-        <v>76.90000000000001</v>
+        <v>61.5</v>
       </c>
       <c r="O40">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="P40">
-        <v>3931</v>
+        <v>7760</v>
       </c>
       <c r="Q40">
-        <v>302.4</v>
+        <v>596.9</v>
       </c>
       <c r="R40">
-        <v>628.5</v>
+        <v>1302</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -3680,43 +5114,82 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="W40">
-        <v>2030</v>
+        <v>4541</v>
       </c>
       <c r="X40">
         <v>13</v>
       </c>
       <c r="Y40">
+        <v>970</v>
+      </c>
+      <c r="Z40">
+        <v>8</v>
+      </c>
+      <c r="AA40">
+        <v>61.5</v>
+      </c>
+      <c r="AB40">
+        <v>0.1</v>
+      </c>
+      <c r="AC40">
+        <v>3931</v>
+      </c>
+      <c r="AD40">
+        <v>302.4</v>
+      </c>
+      <c r="AE40">
+        <v>628.5</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>2030</v>
+      </c>
+      <c r="AK40">
+        <v>13</v>
+      </c>
+      <c r="AL40">
         <v>1310.3</v>
       </c>
-      <c r="Z40">
+      <c r="AM40">
         <v>3</v>
       </c>
-      <c r="AA40">
+      <c r="AN40">
         <v>23.1</v>
       </c>
-      <c r="AB40">
+      <c r="AO40">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:41">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41">
-        <v>111993</v>
+        <v>40209</v>
       </c>
       <c r="D41">
-        <v>1349.3</v>
+        <v>484.4</v>
       </c>
       <c r="E41">
-        <v>5336.6</v>
+        <v>961</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3725,37 +5198,37 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="I41">
-        <v>837</v>
+        <v>603.5</v>
       </c>
       <c r="J41">
-        <v>47158</v>
+        <v>6213</v>
       </c>
       <c r="K41">
         <v>83</v>
       </c>
       <c r="L41">
-        <v>2036.2</v>
+        <v>773.2</v>
       </c>
       <c r="M41">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N41">
-        <v>66.3</v>
+        <v>62.7</v>
       </c>
       <c r="O41">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P41">
-        <v>41986</v>
+        <v>12272</v>
       </c>
       <c r="Q41">
-        <v>505.9</v>
+        <v>147.9</v>
       </c>
       <c r="R41">
-        <v>2248.5</v>
+        <v>448</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -3764,82 +5237,121 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V41">
-        <v>434</v>
+        <v>89.5</v>
       </c>
       <c r="W41">
-        <v>20246</v>
+        <v>3753</v>
       </c>
       <c r="X41">
         <v>83</v>
       </c>
       <c r="Y41">
-        <v>1272.3</v>
+        <v>245.4</v>
       </c>
       <c r="Z41">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="AA41">
-        <v>39.8</v>
+        <v>60.2</v>
       </c>
       <c r="AB41">
         <v>0.1</v>
       </c>
+      <c r="AC41">
+        <v>41986</v>
+      </c>
+      <c r="AD41">
+        <v>505.9</v>
+      </c>
+      <c r="AE41">
+        <v>2248.5</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>434</v>
+      </c>
+      <c r="AJ41">
+        <v>20246</v>
+      </c>
+      <c r="AK41">
+        <v>83</v>
+      </c>
+      <c r="AL41">
+        <v>1272.3</v>
+      </c>
+      <c r="AM41">
+        <v>33</v>
+      </c>
+      <c r="AN41">
+        <v>39.8</v>
+      </c>
+      <c r="AO41">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:41">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42">
-        <v>122532</v>
+        <v>12416</v>
       </c>
       <c r="D42">
-        <v>4376.1</v>
+        <v>443.4</v>
       </c>
       <c r="E42">
-        <v>9839.5</v>
+        <v>825.3</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>274.5</v>
+        <v>24</v>
       </c>
       <c r="I42">
-        <v>1989.2</v>
+        <v>418.2</v>
       </c>
       <c r="J42">
-        <v>40453</v>
+        <v>3039</v>
       </c>
       <c r="K42">
         <v>28</v>
       </c>
       <c r="L42">
-        <v>5834.9</v>
+        <v>776</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N42">
-        <v>75</v>
+        <v>57.1</v>
       </c>
       <c r="O42">
-        <v>0.3</v>
+        <v>-0</v>
       </c>
       <c r="P42">
-        <v>14205</v>
+        <v>4489</v>
       </c>
       <c r="Q42">
-        <v>507.3</v>
+        <v>160.3</v>
       </c>
       <c r="R42">
-        <v>1293</v>
+        <v>416.9</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -3848,43 +5360,82 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="V42">
-        <v>282.2</v>
+        <v>83.2</v>
       </c>
       <c r="W42">
-        <v>6335</v>
+        <v>1644</v>
       </c>
       <c r="X42">
         <v>28</v>
       </c>
       <c r="Y42">
+        <v>280.6</v>
+      </c>
+      <c r="Z42">
+        <v>16</v>
+      </c>
+      <c r="AA42">
+        <v>57.1</v>
+      </c>
+      <c r="AB42">
+        <v>-0.1</v>
+      </c>
+      <c r="AC42">
+        <v>14205</v>
+      </c>
+      <c r="AD42">
+        <v>507.3</v>
+      </c>
+      <c r="AE42">
+        <v>1293</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>282.2</v>
+      </c>
+      <c r="AJ42">
+        <v>6335</v>
+      </c>
+      <c r="AK42">
+        <v>28</v>
+      </c>
+      <c r="AL42">
         <v>1578.3</v>
       </c>
-      <c r="Z42">
+      <c r="AM42">
         <v>9</v>
       </c>
-      <c r="AA42">
+      <c r="AN42">
         <v>32.1</v>
       </c>
-      <c r="AB42">
+      <c r="AO42">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:41">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>250430</v>
+        <v>146034</v>
       </c>
       <c r="D43">
-        <v>1215.7</v>
+        <v>708.9</v>
       </c>
       <c r="E43">
-        <v>5315.8</v>
+        <v>3399.5</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -3893,37 +5444,37 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>63.5</v>
+        <v>31.5</v>
       </c>
       <c r="I43">
-        <v>759.8</v>
+        <v>502.2</v>
       </c>
       <c r="J43">
-        <v>68775</v>
+        <v>47571</v>
       </c>
       <c r="K43">
         <v>206</v>
       </c>
       <c r="L43">
-        <v>1868.9</v>
+        <v>1206.9</v>
       </c>
       <c r="M43">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="N43">
-        <v>65</v>
+        <v>58.7</v>
       </c>
       <c r="O43">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>61979</v>
+        <v>60480</v>
       </c>
       <c r="Q43">
-        <v>300.9</v>
+        <v>293.6</v>
       </c>
       <c r="R43">
-        <v>493.1</v>
+        <v>1506.1</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -3932,43 +5483,82 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V43">
-        <v>470.2</v>
+        <v>126.8</v>
       </c>
       <c r="W43">
-        <v>2322</v>
+        <v>20884</v>
       </c>
       <c r="X43">
         <v>206</v>
       </c>
       <c r="Y43">
+        <v>468.8</v>
+      </c>
+      <c r="Z43">
+        <v>129</v>
+      </c>
+      <c r="AA43">
+        <v>62.6</v>
+      </c>
+      <c r="AB43">
+        <v>0.1</v>
+      </c>
+      <c r="AC43">
+        <v>61979</v>
+      </c>
+      <c r="AD43">
+        <v>300.9</v>
+      </c>
+      <c r="AE43">
+        <v>493.1</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>470.2</v>
+      </c>
+      <c r="AJ43">
+        <v>2322</v>
+      </c>
+      <c r="AK43">
+        <v>206</v>
+      </c>
+      <c r="AL43">
         <v>696.4</v>
       </c>
-      <c r="Z43">
+      <c r="AM43">
         <v>89</v>
       </c>
-      <c r="AA43">
+      <c r="AN43">
         <v>43.2</v>
       </c>
-      <c r="AB43">
+      <c r="AO43">
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:41">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44">
-        <v>8399</v>
+        <v>7188</v>
       </c>
       <c r="D44">
-        <v>311.1</v>
+        <v>266.2</v>
       </c>
       <c r="E44">
-        <v>434.1</v>
+        <v>361.5</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3977,19 +5567,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I44">
-        <v>532</v>
+        <v>468</v>
       </c>
       <c r="J44">
-        <v>1490</v>
+        <v>1148</v>
       </c>
       <c r="K44">
         <v>27</v>
       </c>
       <c r="L44">
-        <v>524.9</v>
+        <v>449.2</v>
       </c>
       <c r="M44">
         <v>16</v>
@@ -3998,16 +5588,16 @@
         <v>59.3</v>
       </c>
       <c r="O44">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
       <c r="P44">
-        <v>1482</v>
+        <v>1206</v>
       </c>
       <c r="Q44">
-        <v>54.9</v>
+        <v>44.7</v>
       </c>
       <c r="R44">
-        <v>169.9</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -4016,43 +5606,82 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="W44">
-        <v>750</v>
+        <v>341</v>
       </c>
       <c r="X44">
         <v>27</v>
       </c>
       <c r="Y44">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="Z44">
+        <v>14</v>
+      </c>
+      <c r="AA44">
+        <v>51.9</v>
+      </c>
+      <c r="AB44">
+        <v>-0.2</v>
+      </c>
+      <c r="AC44">
+        <v>1482</v>
+      </c>
+      <c r="AD44">
+        <v>54.9</v>
+      </c>
+      <c r="AE44">
+        <v>169.9</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>750</v>
+      </c>
+      <c r="AK44">
+        <v>27</v>
+      </c>
+      <c r="AL44">
         <v>370.5</v>
       </c>
-      <c r="Z44">
+      <c r="AM44">
         <v>4</v>
       </c>
-      <c r="AA44">
+      <c r="AN44">
         <v>14.8</v>
       </c>
-      <c r="AB44">
+      <c r="AO44">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:41">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45">
-        <v>448244</v>
+        <v>145843</v>
       </c>
       <c r="D45">
-        <v>1630</v>
+        <v>530.3</v>
       </c>
       <c r="E45">
-        <v>6115.2</v>
+        <v>1373.8</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -4061,37 +5690,37 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="I45">
-        <v>896.5</v>
+        <v>558</v>
       </c>
       <c r="J45">
-        <v>72982</v>
+        <v>17279</v>
       </c>
       <c r="K45">
         <v>275</v>
       </c>
       <c r="L45">
-        <v>2518.2</v>
+        <v>911.5</v>
       </c>
       <c r="M45">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="N45">
-        <v>64.7</v>
+        <v>58.2</v>
       </c>
       <c r="O45">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>58211</v>
+        <v>69763</v>
       </c>
       <c r="Q45">
-        <v>211.7</v>
+        <v>253.7</v>
       </c>
       <c r="R45">
-        <v>458.2</v>
+        <v>919.9</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -4100,66 +5729,105 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V45">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="W45">
-        <v>2696</v>
+        <v>7809</v>
       </c>
       <c r="X45">
         <v>275</v>
       </c>
       <c r="Y45">
+        <v>422.8</v>
+      </c>
+      <c r="Z45">
+        <v>165</v>
+      </c>
+      <c r="AA45">
+        <v>60</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>58211</v>
+      </c>
+      <c r="AD45">
+        <v>211.7</v>
+      </c>
+      <c r="AE45">
+        <v>458.2</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>280</v>
+      </c>
+      <c r="AJ45">
+        <v>2696</v>
+      </c>
+      <c r="AK45">
+        <v>275</v>
+      </c>
+      <c r="AL45">
         <v>669.1</v>
       </c>
-      <c r="Z45">
+      <c r="AM45">
         <v>87</v>
       </c>
-      <c r="AA45">
+      <c r="AN45">
         <v>31.6</v>
       </c>
-      <c r="AB45">
+      <c r="AO45">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:41">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C46">
-        <v>15412</v>
+        <v>13346</v>
       </c>
       <c r="D46">
-        <v>1712.4</v>
+        <v>1482.9</v>
       </c>
       <c r="E46">
-        <v>1392.4</v>
+        <v>1273.5</v>
       </c>
       <c r="F46">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="G46">
-        <v>763</v>
+        <v>528</v>
       </c>
       <c r="H46">
-        <v>1067</v>
+        <v>815</v>
       </c>
       <c r="I46">
-        <v>2345</v>
+        <v>2129</v>
       </c>
       <c r="J46">
-        <v>4351</v>
+        <v>3864</v>
       </c>
       <c r="K46">
         <v>9</v>
       </c>
       <c r="L46">
-        <v>1712.4</v>
+        <v>1482.9</v>
       </c>
       <c r="M46">
         <v>9</v>
@@ -4168,205 +5836,283 @@
         <v>100</v>
       </c>
       <c r="O46">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P46">
-        <v>3858</v>
+        <v>2064</v>
       </c>
       <c r="Q46">
-        <v>428.7</v>
+        <v>229.3</v>
       </c>
       <c r="R46">
-        <v>684.6</v>
+        <v>129.6</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="V46">
-        <v>808</v>
+        <v>248</v>
       </c>
       <c r="W46">
-        <v>1748</v>
+        <v>473</v>
       </c>
       <c r="X46">
         <v>9</v>
       </c>
       <c r="Y46">
+        <v>229.3</v>
+      </c>
+      <c r="Z46">
+        <v>9</v>
+      </c>
+      <c r="AA46">
+        <v>100</v>
+      </c>
+      <c r="AB46">
+        <v>1.4</v>
+      </c>
+      <c r="AC46">
+        <v>3858</v>
+      </c>
+      <c r="AD46">
+        <v>428.7</v>
+      </c>
+      <c r="AE46">
+        <v>684.6</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>808</v>
+      </c>
+      <c r="AJ46">
+        <v>1748</v>
+      </c>
+      <c r="AK46">
+        <v>9</v>
+      </c>
+      <c r="AL46">
         <v>1286</v>
       </c>
-      <c r="Z46">
+      <c r="AM46">
         <v>3</v>
       </c>
-      <c r="AA46">
+      <c r="AN46">
         <v>33.3</v>
       </c>
-      <c r="AB46">
+      <c r="AO46">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:41">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47">
-        <v>120390</v>
+        <v>69907</v>
       </c>
       <c r="D47">
-        <v>2799.8</v>
+        <v>1625.7</v>
       </c>
       <c r="E47">
-        <v>3608.1</v>
+        <v>1836.4</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>268.5</v>
+        <v>153.5</v>
       </c>
       <c r="H47">
-        <v>1843</v>
+        <v>1298</v>
       </c>
       <c r="I47">
-        <v>4196.5</v>
+        <v>2518.5</v>
       </c>
       <c r="J47">
-        <v>18528</v>
+        <v>8682</v>
       </c>
       <c r="K47">
         <v>43</v>
       </c>
       <c r="L47">
-        <v>3168.2</v>
+        <v>1997.3</v>
       </c>
       <c r="M47">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N47">
-        <v>88.40000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="O47">
         <v>0.8</v>
       </c>
       <c r="P47">
-        <v>23920</v>
+        <v>22936</v>
       </c>
       <c r="Q47">
-        <v>556.3</v>
+        <v>533.4</v>
       </c>
       <c r="R47">
-        <v>662.4</v>
+        <v>1495</v>
       </c>
       <c r="S47">
         <v>0</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="U47">
-        <v>469</v>
+        <v>128</v>
       </c>
       <c r="V47">
-        <v>860</v>
+        <v>373.5</v>
       </c>
       <c r="W47">
-        <v>3303</v>
+        <v>9692</v>
       </c>
       <c r="X47">
         <v>43</v>
       </c>
       <c r="Y47">
+        <v>655.3</v>
+      </c>
+      <c r="Z47">
+        <v>35</v>
+      </c>
+      <c r="AA47">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="AB47">
+        <v>0.8</v>
+      </c>
+      <c r="AC47">
+        <v>23920</v>
+      </c>
+      <c r="AD47">
+        <v>556.3</v>
+      </c>
+      <c r="AE47">
+        <v>662.4</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>469</v>
+      </c>
+      <c r="AI47">
+        <v>860</v>
+      </c>
+      <c r="AJ47">
+        <v>3303</v>
+      </c>
+      <c r="AK47">
+        <v>43</v>
+      </c>
+      <c r="AL47">
         <v>854.3</v>
       </c>
-      <c r="Z47">
+      <c r="AM47">
         <v>28</v>
       </c>
-      <c r="AA47">
+      <c r="AN47">
         <v>65.09999999999999</v>
       </c>
-      <c r="AB47">
+      <c r="AO47">
         <v>1.1</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:41">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C48">
-        <v>14158</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>7079</v>
+        <v>7.5</v>
       </c>
       <c r="E48">
-        <v>9970.200000000001</v>
+        <v>10.6</v>
       </c>
       <c r="F48">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>3554</v>
+        <v>3.8</v>
       </c>
       <c r="H48">
-        <v>7079</v>
+        <v>7.5</v>
       </c>
       <c r="I48">
-        <v>10604</v>
+        <v>11.2</v>
       </c>
       <c r="J48">
-        <v>14129</v>
+        <v>15</v>
       </c>
       <c r="K48">
         <v>2</v>
       </c>
       <c r="L48">
-        <v>7079</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O48">
-        <v>1.2</v>
+        <v>-0.3</v>
       </c>
       <c r="P48">
-        <v>1116</v>
+        <v>14</v>
       </c>
       <c r="Q48">
-        <v>558</v>
+        <v>7</v>
       </c>
       <c r="R48">
-        <v>789.1</v>
+        <v>9.9</v>
       </c>
       <c r="S48">
         <v>0</v>
       </c>
       <c r="T48">
-        <v>279</v>
+        <v>3.5</v>
       </c>
       <c r="U48">
-        <v>558</v>
+        <v>7</v>
       </c>
       <c r="V48">
-        <v>837</v>
+        <v>10.5</v>
       </c>
       <c r="W48">
-        <v>1116</v>
+        <v>14</v>
       </c>
       <c r="X48">
         <v>2</v>
       </c>
       <c r="Y48">
-        <v>1116</v>
+        <v>14</v>
       </c>
       <c r="Z48">
         <v>1</v>
@@ -4375,40 +6121,79 @@
         <v>50</v>
       </c>
       <c r="AB48">
+        <v>-0.3</v>
+      </c>
+      <c r="AC48">
+        <v>1116</v>
+      </c>
+      <c r="AD48">
+        <v>558</v>
+      </c>
+      <c r="AE48">
+        <v>789.1</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>279</v>
+      </c>
+      <c r="AH48">
+        <v>558</v>
+      </c>
+      <c r="AI48">
+        <v>837</v>
+      </c>
+      <c r="AJ48">
+        <v>1116</v>
+      </c>
+      <c r="AK48">
+        <v>2</v>
+      </c>
+      <c r="AL48">
+        <v>1116</v>
+      </c>
+      <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>50</v>
+      </c>
+      <c r="AO48">
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:41">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="D49">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="F49">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="G49">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="H49">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="I49">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="J49">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -4417,73 +6202,109 @@
         <v>100</v>
       </c>
       <c r="O49">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="X49">
         <v>1</v>
       </c>
+      <c r="Y49">
+        <v>49</v>
+      </c>
       <c r="Z49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB49">
+        <v>1.4</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:41">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C50">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="D50">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="F50">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="G50">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="H50">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="I50">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="J50">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -4492,55 +6313,91 @@
         <v>100</v>
       </c>
       <c r="O50">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="X50">
         <v>1</v>
       </c>
+      <c r="Y50">
+        <v>71</v>
+      </c>
       <c r="Z50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB50">
+        <v>1.4</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:41">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C51">
-        <v>19228</v>
+        <v>2037</v>
       </c>
       <c r="D51">
-        <v>4807</v>
+        <v>509.2</v>
       </c>
       <c r="E51">
-        <v>7986.6</v>
+        <v>1018.5</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -4549,37 +6406,37 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1290.5</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>6097.5</v>
+        <v>509.2</v>
       </c>
       <c r="J51">
-        <v>16647</v>
+        <v>2037</v>
       </c>
       <c r="K51">
         <v>4</v>
       </c>
       <c r="L51">
-        <v>9614</v>
+        <v>2037</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O51">
-        <v>-0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="P51">
-        <v>5316</v>
+        <v>533</v>
       </c>
       <c r="Q51">
-        <v>1329</v>
+        <v>133.2</v>
       </c>
       <c r="R51">
-        <v>2658</v>
+        <v>266.5</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -4591,16 +6448,16 @@
         <v>0</v>
       </c>
       <c r="V51">
-        <v>1329</v>
+        <v>133.2</v>
       </c>
       <c r="W51">
-        <v>5316</v>
+        <v>533</v>
       </c>
       <c r="X51">
         <v>4</v>
       </c>
       <c r="Y51">
-        <v>5316</v>
+        <v>533</v>
       </c>
       <c r="Z51">
         <v>1</v>
@@ -4609,145 +6466,223 @@
         <v>25</v>
       </c>
       <c r="AB51">
+        <v>-1.2</v>
+      </c>
+      <c r="AC51">
+        <v>5316</v>
+      </c>
+      <c r="AD51">
+        <v>1329</v>
+      </c>
+      <c r="AE51">
+        <v>2658</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>1329</v>
+      </c>
+      <c r="AJ51">
+        <v>5316</v>
+      </c>
+      <c r="AK51">
+        <v>4</v>
+      </c>
+      <c r="AL51">
+        <v>5316</v>
+      </c>
+      <c r="AM51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
+        <v>25</v>
+      </c>
+      <c r="AO51">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:41">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C52">
-        <v>65150</v>
+        <v>32970</v>
       </c>
       <c r="D52">
-        <v>7238.9</v>
+        <v>3663.3</v>
       </c>
       <c r="E52">
-        <v>6348</v>
+        <v>3082.6</v>
       </c>
       <c r="F52">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>2687</v>
+        <v>1066</v>
       </c>
       <c r="H52">
-        <v>5506</v>
+        <v>3281</v>
       </c>
       <c r="I52">
-        <v>9718</v>
+        <v>4944</v>
       </c>
       <c r="J52">
-        <v>18528</v>
+        <v>8682</v>
       </c>
       <c r="K52">
         <v>9</v>
       </c>
       <c r="L52">
-        <v>7238.9</v>
+        <v>4121.2</v>
       </c>
       <c r="M52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N52">
-        <v>100</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="O52">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="P52">
-        <v>7346</v>
+        <v>15707</v>
       </c>
       <c r="Q52">
-        <v>816.2</v>
+        <v>1745.2</v>
       </c>
       <c r="R52">
-        <v>584.2</v>
+        <v>3036.7</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="U52">
-        <v>1028</v>
+        <v>871</v>
       </c>
       <c r="V52">
-        <v>1091</v>
+        <v>1166</v>
       </c>
       <c r="W52">
-        <v>1584</v>
+        <v>9691</v>
       </c>
       <c r="X52">
         <v>9</v>
       </c>
       <c r="Y52">
+        <v>1963.4</v>
+      </c>
+      <c r="Z52">
+        <v>8</v>
+      </c>
+      <c r="AA52">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="AB52">
+        <v>1.1</v>
+      </c>
+      <c r="AC52">
+        <v>7346</v>
+      </c>
+      <c r="AD52">
+        <v>816.2</v>
+      </c>
+      <c r="AE52">
+        <v>584.2</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>350</v>
+      </c>
+      <c r="AH52">
+        <v>1028</v>
+      </c>
+      <c r="AI52">
+        <v>1091</v>
+      </c>
+      <c r="AJ52">
+        <v>1584</v>
+      </c>
+      <c r="AK52">
+        <v>9</v>
+      </c>
+      <c r="AL52">
         <v>1049.4</v>
       </c>
-      <c r="Z52">
+      <c r="AM52">
         <v>7</v>
       </c>
-      <c r="AA52">
+      <c r="AN52">
         <v>77.8</v>
       </c>
-      <c r="AB52">
+      <c r="AO52">
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:41">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C53">
-        <v>30949</v>
+        <v>18533</v>
       </c>
       <c r="D53">
-        <v>2210.6</v>
+        <v>1323.8</v>
       </c>
       <c r="E53">
-        <v>2437.4</v>
+        <v>1473.1</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>218.8</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>1536</v>
+        <v>859</v>
       </c>
       <c r="I53">
-        <v>2901.5</v>
+        <v>2102</v>
       </c>
       <c r="J53">
-        <v>8053</v>
+        <v>4641</v>
       </c>
       <c r="K53">
         <v>14</v>
       </c>
       <c r="L53">
-        <v>3094.9</v>
+        <v>2059.2</v>
       </c>
       <c r="M53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N53">
-        <v>71.40000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="O53">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P53">
-        <v>4891</v>
+        <v>4344</v>
       </c>
       <c r="Q53">
-        <v>349.4</v>
+        <v>310.3</v>
       </c>
       <c r="R53">
-        <v>587.7</v>
+        <v>412.7</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -4756,43 +6691,82 @@
         <v>0</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>193.5</v>
       </c>
       <c r="V53">
-        <v>621.5</v>
+        <v>445</v>
       </c>
       <c r="W53">
-        <v>1522</v>
+        <v>1490</v>
       </c>
       <c r="X53">
         <v>14</v>
       </c>
       <c r="Y53">
+        <v>482.7</v>
+      </c>
+      <c r="Z53">
+        <v>9</v>
+      </c>
+      <c r="AA53">
+        <v>64.3</v>
+      </c>
+      <c r="AB53">
+        <v>0.2</v>
+      </c>
+      <c r="AC53">
+        <v>4891</v>
+      </c>
+      <c r="AD53">
+        <v>349.4</v>
+      </c>
+      <c r="AE53">
+        <v>587.7</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>621.5</v>
+      </c>
+      <c r="AJ53">
+        <v>1522</v>
+      </c>
+      <c r="AK53">
+        <v>14</v>
+      </c>
+      <c r="AL53">
         <v>978.2</v>
       </c>
-      <c r="Z53">
+      <c r="AM53">
         <v>5</v>
       </c>
-      <c r="AA53">
+      <c r="AN53">
         <v>35.7</v>
       </c>
-      <c r="AB53">
+      <c r="AO53">
         <v>-0</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:41">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C54">
-        <v>3237</v>
+        <v>2268</v>
       </c>
       <c r="D54">
-        <v>1079</v>
+        <v>756</v>
       </c>
       <c r="E54">
-        <v>1868.9</v>
+        <v>1309.4</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -4804,16 +6778,16 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1618.5</v>
+        <v>1134</v>
       </c>
       <c r="J54">
-        <v>3237</v>
+        <v>2268</v>
       </c>
       <c r="K54">
         <v>3</v>
       </c>
       <c r="L54">
-        <v>3237</v>
+        <v>2268</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -4822,16 +6796,16 @@
         <v>33.3</v>
       </c>
       <c r="O54">
-        <v>-1.3</v>
+        <v>-0.8</v>
       </c>
       <c r="P54">
-        <v>837</v>
+        <v>965</v>
       </c>
       <c r="Q54">
-        <v>279</v>
+        <v>321.7</v>
       </c>
       <c r="R54">
-        <v>483.2</v>
+        <v>557.1</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -4843,16 +6817,16 @@
         <v>0</v>
       </c>
       <c r="V54">
-        <v>418.5</v>
+        <v>482.5</v>
       </c>
       <c r="W54">
-        <v>837</v>
+        <v>965</v>
       </c>
       <c r="X54">
         <v>3</v>
       </c>
       <c r="Y54">
-        <v>837</v>
+        <v>965</v>
       </c>
       <c r="Z54">
         <v>1</v>
@@ -4861,124 +6835,202 @@
         <v>33.3</v>
       </c>
       <c r="AB54">
+        <v>-0.9</v>
+      </c>
+      <c r="AC54">
+        <v>837</v>
+      </c>
+      <c r="AD54">
+        <v>279</v>
+      </c>
+      <c r="AE54">
+        <v>483.2</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>418.5</v>
+      </c>
+      <c r="AJ54">
+        <v>837</v>
+      </c>
+      <c r="AK54">
+        <v>3</v>
+      </c>
+      <c r="AL54">
+        <v>837</v>
+      </c>
+      <c r="AM54">
+        <v>1</v>
+      </c>
+      <c r="AN54">
+        <v>33.3</v>
+      </c>
+      <c r="AO54">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:41">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
-        <v>23086</v>
+        <v>2323</v>
       </c>
       <c r="D55">
-        <v>11543</v>
+        <v>1161.5</v>
       </c>
       <c r="E55">
-        <v>12350.3</v>
+        <v>1642.6</v>
       </c>
       <c r="F55">
-        <v>2810</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>7176.5</v>
+        <v>580.8</v>
       </c>
       <c r="H55">
-        <v>11543</v>
+        <v>1161.5</v>
       </c>
       <c r="I55">
-        <v>15909.5</v>
+        <v>1742.2</v>
       </c>
       <c r="J55">
-        <v>20276</v>
+        <v>2323</v>
       </c>
       <c r="K55">
         <v>2</v>
       </c>
       <c r="L55">
-        <v>11543</v>
+        <v>2323</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O55">
-        <v>1.2</v>
+        <v>-0.3</v>
       </c>
       <c r="P55">
-        <v>1447</v>
+        <v>485</v>
       </c>
       <c r="Q55">
-        <v>723.5</v>
+        <v>242.5</v>
       </c>
       <c r="R55">
-        <v>409.4</v>
+        <v>342.9</v>
       </c>
       <c r="S55">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>578.8</v>
+        <v>121.2</v>
       </c>
       <c r="U55">
-        <v>723.5</v>
+        <v>242.5</v>
       </c>
       <c r="V55">
-        <v>868.2</v>
+        <v>363.8</v>
       </c>
       <c r="W55">
-        <v>1013</v>
+        <v>485</v>
       </c>
       <c r="X55">
         <v>2</v>
       </c>
       <c r="Y55">
+        <v>485</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
+      </c>
+      <c r="AA55">
+        <v>50</v>
+      </c>
+      <c r="AB55">
+        <v>-0.3</v>
+      </c>
+      <c r="AC55">
+        <v>1447</v>
+      </c>
+      <c r="AD55">
         <v>723.5</v>
       </c>
-      <c r="Z55">
+      <c r="AE55">
+        <v>409.4</v>
+      </c>
+      <c r="AF55">
+        <v>434</v>
+      </c>
+      <c r="AG55">
+        <v>578.8</v>
+      </c>
+      <c r="AH55">
+        <v>723.5</v>
+      </c>
+      <c r="AI55">
+        <v>868.2</v>
+      </c>
+      <c r="AJ55">
+        <v>1013</v>
+      </c>
+      <c r="AK55">
         <v>2</v>
       </c>
-      <c r="AA55">
+      <c r="AL55">
+        <v>723.5</v>
+      </c>
+      <c r="AM55">
+        <v>2</v>
+      </c>
+      <c r="AN55">
         <v>100</v>
       </c>
-      <c r="AB55">
+      <c r="AO55">
         <v>2.4</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:41">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C56">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="D56">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="F56">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="G56">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="H56">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="I56">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="J56">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -4987,34 +7039,34 @@
         <v>100</v>
       </c>
       <c r="O56">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P56">
-        <v>823</v>
+        <v>46992</v>
       </c>
       <c r="Q56">
-        <v>823</v>
+        <v>46992</v>
       </c>
       <c r="S56">
-        <v>823</v>
+        <v>46992</v>
       </c>
       <c r="T56">
-        <v>823</v>
+        <v>46992</v>
       </c>
       <c r="U56">
-        <v>823</v>
+        <v>46992</v>
       </c>
       <c r="V56">
-        <v>823</v>
+        <v>46992</v>
       </c>
       <c r="W56">
-        <v>823</v>
+        <v>46992</v>
       </c>
       <c r="X56">
         <v>1</v>
       </c>
       <c r="Y56">
-        <v>823</v>
+        <v>46992</v>
       </c>
       <c r="Z56">
         <v>1</v>
@@ -5023,43 +7075,79 @@
         <v>100</v>
       </c>
       <c r="AB56">
+        <v>1.4</v>
+      </c>
+      <c r="AC56">
+        <v>823</v>
+      </c>
+      <c r="AD56">
+        <v>823</v>
+      </c>
+      <c r="AF56">
+        <v>823</v>
+      </c>
+      <c r="AG56">
+        <v>823</v>
+      </c>
+      <c r="AH56">
+        <v>823</v>
+      </c>
+      <c r="AI56">
+        <v>823</v>
+      </c>
+      <c r="AJ56">
+        <v>823</v>
+      </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>823</v>
+      </c>
+      <c r="AM56">
+        <v>1</v>
+      </c>
+      <c r="AN56">
+        <v>100</v>
+      </c>
+      <c r="AO56">
         <v>2.4</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:41">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C57">
-        <v>5112</v>
+        <v>4362</v>
       </c>
       <c r="D57">
-        <v>2556</v>
+        <v>2181</v>
       </c>
       <c r="E57">
-        <v>875.4</v>
+        <v>1031</v>
       </c>
       <c r="F57">
-        <v>1937</v>
+        <v>1452</v>
       </c>
       <c r="G57">
-        <v>2246.5</v>
+        <v>1816.5</v>
       </c>
       <c r="H57">
-        <v>2556</v>
+        <v>2181</v>
       </c>
       <c r="I57">
-        <v>2865.5</v>
+        <v>2545.5</v>
       </c>
       <c r="J57">
-        <v>3175</v>
+        <v>2910</v>
       </c>
       <c r="K57">
         <v>2</v>
       </c>
       <c r="L57">
-        <v>2556</v>
+        <v>2181</v>
       </c>
       <c r="M57">
         <v>2</v>
@@ -5068,79 +7156,118 @@
         <v>100</v>
       </c>
       <c r="O57">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P57">
-        <v>614</v>
+        <v>723</v>
       </c>
       <c r="Q57">
-        <v>307</v>
+        <v>361.5</v>
       </c>
       <c r="R57">
-        <v>434.2</v>
+        <v>171.8</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="T57">
-        <v>153.5</v>
+        <v>300.8</v>
       </c>
       <c r="U57">
-        <v>307</v>
+        <v>361.5</v>
       </c>
       <c r="V57">
-        <v>460.5</v>
+        <v>422.2</v>
       </c>
       <c r="W57">
-        <v>614</v>
+        <v>483</v>
       </c>
       <c r="X57">
         <v>2</v>
       </c>
       <c r="Y57">
+        <v>361.5</v>
+      </c>
+      <c r="Z57">
+        <v>2</v>
+      </c>
+      <c r="AA57">
+        <v>100</v>
+      </c>
+      <c r="AB57">
+        <v>1.4</v>
+      </c>
+      <c r="AC57">
         <v>614</v>
       </c>
-      <c r="Z57">
+      <c r="AD57">
+        <v>307</v>
+      </c>
+      <c r="AE57">
+        <v>434.2</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>153.5</v>
+      </c>
+      <c r="AH57">
+        <v>307</v>
+      </c>
+      <c r="AI57">
+        <v>460.5</v>
+      </c>
+      <c r="AJ57">
+        <v>614</v>
+      </c>
+      <c r="AK57">
+        <v>2</v>
+      </c>
+      <c r="AL57">
+        <v>614</v>
+      </c>
+      <c r="AM57">
         <v>1</v>
       </c>
-      <c r="AA57">
+      <c r="AN57">
         <v>50</v>
       </c>
-      <c r="AB57">
+      <c r="AO57">
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:41">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C58">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="D58">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="F58">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="G58">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="H58">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="I58">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="J58">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -5149,34 +7276,34 @@
         <v>100</v>
       </c>
       <c r="O58">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P58">
-        <v>1419</v>
+        <v>73</v>
       </c>
       <c r="Q58">
-        <v>1419</v>
+        <v>73</v>
       </c>
       <c r="S58">
-        <v>1419</v>
+        <v>73</v>
       </c>
       <c r="T58">
-        <v>1419</v>
+        <v>73</v>
       </c>
       <c r="U58">
-        <v>1419</v>
+        <v>73</v>
       </c>
       <c r="V58">
-        <v>1419</v>
+        <v>73</v>
       </c>
       <c r="W58">
-        <v>1419</v>
+        <v>73</v>
       </c>
       <c r="X58">
         <v>1</v>
       </c>
       <c r="Y58">
-        <v>1419</v>
+        <v>73</v>
       </c>
       <c r="Z58">
         <v>1</v>
@@ -5185,45 +7312,81 @@
         <v>100</v>
       </c>
       <c r="AB58">
+        <v>1.4</v>
+      </c>
+      <c r="AC58">
+        <v>1419</v>
+      </c>
+      <c r="AD58">
+        <v>1419</v>
+      </c>
+      <c r="AF58">
+        <v>1419</v>
+      </c>
+      <c r="AG58">
+        <v>1419</v>
+      </c>
+      <c r="AH58">
+        <v>1419</v>
+      </c>
+      <c r="AI58">
+        <v>1419</v>
+      </c>
+      <c r="AJ58">
+        <v>1419</v>
+      </c>
+      <c r="AK58">
+        <v>1</v>
+      </c>
+      <c r="AL58">
+        <v>1419</v>
+      </c>
+      <c r="AM58">
+        <v>1</v>
+      </c>
+      <c r="AN58">
+        <v>100</v>
+      </c>
+      <c r="AO58">
         <v>2.4</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:41">
       <c r="A59" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C59">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D59">
-        <v>26</v>
+        <v>23.5</v>
       </c>
       <c r="E59">
-        <v>36.8</v>
+        <v>33.2</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>13</v>
+        <v>11.8</v>
       </c>
       <c r="H59">
-        <v>26</v>
+        <v>23.5</v>
       </c>
       <c r="I59">
-        <v>39</v>
+        <v>35.2</v>
       </c>
       <c r="J59">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K59">
         <v>2</v>
       </c>
       <c r="L59">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -5232,79 +7395,118 @@
         <v>50</v>
       </c>
       <c r="O59">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="S59">
         <v>0</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="W59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X59">
         <v>2</v>
       </c>
+      <c r="Y59">
+        <v>5</v>
+      </c>
       <c r="Z59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB59">
+        <v>-0.3</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>2</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>0</v>
+      </c>
+      <c r="AO59">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:41">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C60">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D60">
-        <v>49.5</v>
+        <v>44.5</v>
       </c>
       <c r="E60">
-        <v>67.2</v>
+        <v>60.1</v>
       </c>
       <c r="F60">
         <v>2</v>
       </c>
       <c r="G60">
-        <v>25.8</v>
+        <v>23.2</v>
       </c>
       <c r="H60">
-        <v>49.5</v>
+        <v>44.5</v>
       </c>
       <c r="I60">
-        <v>73.2</v>
+        <v>65.8</v>
       </c>
       <c r="J60">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K60">
         <v>2</v>
       </c>
       <c r="L60">
-        <v>49.5</v>
+        <v>44.5</v>
       </c>
       <c r="M60">
         <v>2</v>
@@ -5313,37 +7515,37 @@
         <v>100</v>
       </c>
       <c r="O60">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P60">
-        <v>590</v>
+        <v>10</v>
       </c>
       <c r="Q60">
-        <v>295</v>
+        <v>5</v>
       </c>
       <c r="R60">
-        <v>417.2</v>
+        <v>7.1</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
       <c r="T60">
-        <v>147.5</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>295</v>
+        <v>5</v>
       </c>
       <c r="V60">
-        <v>442.5</v>
+        <v>7.5</v>
       </c>
       <c r="W60">
-        <v>590</v>
+        <v>10</v>
       </c>
       <c r="X60">
         <v>2</v>
       </c>
       <c r="Y60">
-        <v>590</v>
+        <v>10</v>
       </c>
       <c r="Z60">
         <v>1</v>
@@ -5352,13 +7554,52 @@
         <v>50</v>
       </c>
       <c r="AB60">
+        <v>-0.3</v>
+      </c>
+      <c r="AC60">
+        <v>590</v>
+      </c>
+      <c r="AD60">
+        <v>295</v>
+      </c>
+      <c r="AE60">
+        <v>417.2</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>147.5</v>
+      </c>
+      <c r="AH60">
+        <v>295</v>
+      </c>
+      <c r="AI60">
+        <v>442.5</v>
+      </c>
+      <c r="AJ60">
+        <v>590</v>
+      </c>
+      <c r="AK60">
+        <v>2</v>
+      </c>
+      <c r="AL60">
+        <v>590</v>
+      </c>
+      <c r="AM60">
+        <v>1</v>
+      </c>
+      <c r="AN60">
+        <v>50</v>
+      </c>
+      <c r="AO60">
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:41">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -5397,16 +7638,16 @@
         <v>25</v>
       </c>
       <c r="O61">
-        <v>-1.6</v>
+        <v>-1.1</v>
       </c>
       <c r="P61">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -5418,31 +7659,67 @@
         <v>0</v>
       </c>
       <c r="V61">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="W61">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="X61">
         <v>4</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>-2.1</v>
+      </c>
+      <c r="AC61">
         <v>246</v>
       </c>
-      <c r="Z61">
+      <c r="AD61">
+        <v>61.5</v>
+      </c>
+      <c r="AE61">
+        <v>123</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>61.5</v>
+      </c>
+      <c r="AJ61">
+        <v>246</v>
+      </c>
+      <c r="AK61">
+        <v>4</v>
+      </c>
+      <c r="AL61">
+        <v>246</v>
+      </c>
+      <c r="AM61">
         <v>1</v>
       </c>
-      <c r="AA61">
+      <c r="AN61">
         <v>25</v>
       </c>
-      <c r="AB61">
+      <c r="AO61">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:41">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -5475,7 +7752,7 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -5508,40 +7785,73 @@
         <v>0</v>
       </c>
       <c r="AB62">
+        <v>-2.1</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>0</v>
+      </c>
+      <c r="AO62">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:41">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C63">
-        <v>4736</v>
+        <v>4250</v>
       </c>
       <c r="D63">
-        <v>4736</v>
+        <v>4250</v>
       </c>
       <c r="F63">
-        <v>4736</v>
+        <v>4250</v>
       </c>
       <c r="G63">
-        <v>4736</v>
+        <v>4250</v>
       </c>
       <c r="H63">
-        <v>4736</v>
+        <v>4250</v>
       </c>
       <c r="I63">
-        <v>4736</v>
+        <v>4250</v>
       </c>
       <c r="J63">
-        <v>4736</v>
+        <v>4250</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="L63">
-        <v>4736</v>
+        <v>4250</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -5550,34 +7860,34 @@
         <v>100</v>
       </c>
       <c r="O63">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P63">
-        <v>1485</v>
+        <v>478</v>
       </c>
       <c r="Q63">
-        <v>1485</v>
+        <v>478</v>
       </c>
       <c r="S63">
-        <v>1485</v>
+        <v>478</v>
       </c>
       <c r="T63">
-        <v>1485</v>
+        <v>478</v>
       </c>
       <c r="U63">
-        <v>1485</v>
+        <v>478</v>
       </c>
       <c r="V63">
-        <v>1485</v>
+        <v>478</v>
       </c>
       <c r="W63">
-        <v>1485</v>
+        <v>478</v>
       </c>
       <c r="X63">
         <v>1</v>
       </c>
       <c r="Y63">
-        <v>1485</v>
+        <v>478</v>
       </c>
       <c r="Z63">
         <v>1</v>
@@ -5586,22 +7896,58 @@
         <v>100</v>
       </c>
       <c r="AB63">
+        <v>1.4</v>
+      </c>
+      <c r="AC63">
+        <v>1485</v>
+      </c>
+      <c r="AD63">
+        <v>1485</v>
+      </c>
+      <c r="AF63">
+        <v>1485</v>
+      </c>
+      <c r="AG63">
+        <v>1485</v>
+      </c>
+      <c r="AH63">
+        <v>1485</v>
+      </c>
+      <c r="AI63">
+        <v>1485</v>
+      </c>
+      <c r="AJ63">
+        <v>1485</v>
+      </c>
+      <c r="AK63">
+        <v>1</v>
+      </c>
+      <c r="AL63">
+        <v>1485</v>
+      </c>
+      <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>100</v>
+      </c>
+      <c r="AO63">
         <v>2.4</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:41">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C64">
-        <v>12565</v>
+        <v>11279</v>
       </c>
       <c r="D64">
-        <v>698.1</v>
+        <v>626.6</v>
       </c>
       <c r="E64">
-        <v>1492.9</v>
+        <v>1374</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -5613,16 +7959,16 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>447</v>
+        <v>416.8</v>
       </c>
       <c r="J64">
-        <v>5121</v>
+        <v>4946</v>
       </c>
       <c r="K64">
         <v>18</v>
       </c>
       <c r="L64">
-        <v>1570.6</v>
+        <v>1409.9</v>
       </c>
       <c r="M64">
         <v>8</v>
@@ -5631,16 +7977,16 @@
         <v>44.4</v>
       </c>
       <c r="O64">
-        <v>-0.9</v>
+        <v>-0.5</v>
       </c>
       <c r="P64">
-        <v>3586</v>
+        <v>1257</v>
       </c>
       <c r="Q64">
-        <v>199.2</v>
+        <v>69.8</v>
       </c>
       <c r="R64">
-        <v>465.8</v>
+        <v>163.2</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -5652,58 +7998,97 @@
         <v>0</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>30.2</v>
       </c>
       <c r="W64">
-        <v>1735</v>
+        <v>648</v>
       </c>
       <c r="X64">
         <v>18</v>
       </c>
       <c r="Y64">
-        <v>896.5</v>
+        <v>157.1</v>
       </c>
       <c r="Z64">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA64">
-        <v>22.2</v>
+        <v>44.4</v>
       </c>
       <c r="AB64">
         <v>-0.5</v>
       </c>
+      <c r="AC64">
+        <v>3586</v>
+      </c>
+      <c r="AD64">
+        <v>199.2</v>
+      </c>
+      <c r="AE64">
+        <v>465.8</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <v>1735</v>
+      </c>
+      <c r="AK64">
+        <v>18</v>
+      </c>
+      <c r="AL64">
+        <v>896.5</v>
+      </c>
+      <c r="AM64">
+        <v>4</v>
+      </c>
+      <c r="AN64">
+        <v>22.2</v>
+      </c>
+      <c r="AO64">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:41">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C65">
-        <v>1099</v>
+        <v>638</v>
       </c>
       <c r="D65">
-        <v>1099</v>
+        <v>638</v>
       </c>
       <c r="F65">
-        <v>1099</v>
+        <v>638</v>
       </c>
       <c r="G65">
-        <v>1099</v>
+        <v>638</v>
       </c>
       <c r="H65">
-        <v>1099</v>
+        <v>638</v>
       </c>
       <c r="I65">
-        <v>1099</v>
+        <v>638</v>
       </c>
       <c r="J65">
-        <v>1099</v>
+        <v>638</v>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="L65">
-        <v>1099</v>
+        <v>638</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -5712,76 +8097,112 @@
         <v>100</v>
       </c>
       <c r="O65">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="T65">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="V65">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="W65">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="X65">
         <v>1</v>
       </c>
+      <c r="Y65">
+        <v>456</v>
+      </c>
       <c r="Z65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA65">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB65">
+        <v>1.4</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:41">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C66">
-        <v>1732</v>
+        <v>1348</v>
       </c>
       <c r="D66">
-        <v>866</v>
+        <v>674</v>
       </c>
       <c r="E66">
-        <v>693</v>
+        <v>545.9</v>
       </c>
       <c r="F66">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="G66">
-        <v>621</v>
+        <v>481</v>
       </c>
       <c r="H66">
-        <v>866</v>
+        <v>674</v>
       </c>
       <c r="I66">
-        <v>1111</v>
+        <v>867</v>
       </c>
       <c r="J66">
-        <v>1356</v>
+        <v>1060</v>
       </c>
       <c r="K66">
         <v>2</v>
       </c>
       <c r="L66">
-        <v>866</v>
+        <v>674</v>
       </c>
       <c r="M66">
         <v>2</v>
@@ -5790,61 +8211,100 @@
         <v>100</v>
       </c>
       <c r="O66">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P66">
-        <v>155</v>
+        <v>389</v>
       </c>
       <c r="Q66">
-        <v>77.5</v>
+        <v>194.5</v>
       </c>
       <c r="R66">
-        <v>109.6</v>
+        <v>149.2</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="T66">
-        <v>38.8</v>
+        <v>141.8</v>
       </c>
       <c r="U66">
-        <v>77.5</v>
+        <v>194.5</v>
       </c>
       <c r="V66">
-        <v>116.2</v>
+        <v>247.2</v>
       </c>
       <c r="W66">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="X66">
         <v>2</v>
       </c>
       <c r="Y66">
+        <v>194.5</v>
+      </c>
+      <c r="Z66">
+        <v>2</v>
+      </c>
+      <c r="AA66">
+        <v>100</v>
+      </c>
+      <c r="AB66">
+        <v>1.4</v>
+      </c>
+      <c r="AC66">
         <v>155</v>
       </c>
-      <c r="Z66">
+      <c r="AD66">
+        <v>77.5</v>
+      </c>
+      <c r="AE66">
+        <v>109.6</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>38.8</v>
+      </c>
+      <c r="AH66">
+        <v>77.5</v>
+      </c>
+      <c r="AI66">
+        <v>116.2</v>
+      </c>
+      <c r="AJ66">
+        <v>155</v>
+      </c>
+      <c r="AK66">
+        <v>2</v>
+      </c>
+      <c r="AL66">
+        <v>155</v>
+      </c>
+      <c r="AM66">
         <v>1</v>
       </c>
-      <c r="AA66">
+      <c r="AN66">
         <v>50</v>
       </c>
-      <c r="AB66">
+      <c r="AO66">
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:41">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D67">
-        <v>23.5</v>
+        <v>21.8</v>
       </c>
       <c r="E67">
-        <v>47</v>
+        <v>43.5</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5856,16 +8316,16 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>23.5</v>
+        <v>21.8</v>
       </c>
       <c r="J67">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K67">
         <v>4</v>
       </c>
       <c r="L67">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -5874,16 +8334,16 @@
         <v>25</v>
       </c>
       <c r="O67">
-        <v>-1.6</v>
+        <v>-1.1</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -5895,58 +8355,97 @@
         <v>0</v>
       </c>
       <c r="V67">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W67">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X67">
         <v>4</v>
       </c>
+      <c r="Y67">
+        <v>7</v>
+      </c>
       <c r="Z67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA67">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB67">
+        <v>-1.2</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>4</v>
+      </c>
+      <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>0</v>
+      </c>
+      <c r="AO67">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:41">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C68">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="D68">
-        <v>133</v>
+        <v>67.7</v>
       </c>
       <c r="E68">
-        <v>115.2</v>
+        <v>64.3</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>99.5</v>
+        <v>37.5</v>
       </c>
       <c r="H68">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="I68">
-        <v>199.5</v>
+        <v>101.5</v>
       </c>
       <c r="J68">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="K68">
         <v>3</v>
       </c>
       <c r="L68">
-        <v>199.5</v>
+        <v>101.5</v>
       </c>
       <c r="M68">
         <v>2</v>
@@ -5955,37 +8454,37 @@
         <v>66.7</v>
       </c>
       <c r="O68">
-        <v>-0</v>
+        <v>0.3</v>
       </c>
       <c r="P68">
-        <v>457</v>
+        <v>190</v>
       </c>
       <c r="Q68">
-        <v>152.3</v>
+        <v>63.3</v>
       </c>
       <c r="R68">
-        <v>133.5</v>
+        <v>60.7</v>
       </c>
       <c r="S68">
         <v>0</v>
       </c>
       <c r="T68">
-        <v>104</v>
+        <v>34.5</v>
       </c>
       <c r="U68">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="V68">
-        <v>228.5</v>
+        <v>95</v>
       </c>
       <c r="W68">
-        <v>249</v>
+        <v>121</v>
       </c>
       <c r="X68">
         <v>3</v>
       </c>
       <c r="Y68">
-        <v>228.5</v>
+        <v>95</v>
       </c>
       <c r="Z68">
         <v>2</v>
@@ -5994,61 +8493,100 @@
         <v>66.7</v>
       </c>
       <c r="AB68">
+        <v>0.3</v>
+      </c>
+      <c r="AC68">
+        <v>457</v>
+      </c>
+      <c r="AD68">
+        <v>152.3</v>
+      </c>
+      <c r="AE68">
+        <v>133.5</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>104</v>
+      </c>
+      <c r="AH68">
+        <v>208</v>
+      </c>
+      <c r="AI68">
+        <v>228.5</v>
+      </c>
+      <c r="AJ68">
+        <v>249</v>
+      </c>
+      <c r="AK68">
+        <v>3</v>
+      </c>
+      <c r="AL68">
+        <v>228.5</v>
+      </c>
+      <c r="AM68">
+        <v>2</v>
+      </c>
+      <c r="AN68">
+        <v>66.7</v>
+      </c>
+      <c r="AO68">
         <v>1.1</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:41">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C69">
-        <v>26516</v>
+        <v>396</v>
       </c>
       <c r="D69">
-        <v>8838.700000000001</v>
+        <v>132</v>
       </c>
       <c r="E69">
-        <v>14951.9</v>
+        <v>228.6</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>13258</v>
+        <v>198</v>
       </c>
       <c r="J69">
-        <v>26102</v>
+        <v>396</v>
       </c>
       <c r="K69">
         <v>3</v>
       </c>
       <c r="L69">
-        <v>13258</v>
+        <v>396</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>66.7</v>
+        <v>33.3</v>
       </c>
       <c r="O69">
-        <v>-0</v>
+        <v>-0.8</v>
       </c>
       <c r="P69">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="Q69">
-        <v>50.3</v>
+        <v>6</v>
       </c>
       <c r="R69">
-        <v>87.2</v>
+        <v>10.4</v>
       </c>
       <c r="S69">
         <v>0</v>
@@ -6060,16 +8598,16 @@
         <v>0</v>
       </c>
       <c r="V69">
-        <v>75.5</v>
+        <v>9</v>
       </c>
       <c r="W69">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="X69">
         <v>3</v>
       </c>
       <c r="Y69">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="Z69">
         <v>1</v>
@@ -6078,13 +8616,52 @@
         <v>33.3</v>
       </c>
       <c r="AB69">
+        <v>-0.9</v>
+      </c>
+      <c r="AC69">
+        <v>151</v>
+      </c>
+      <c r="AD69">
+        <v>50.3</v>
+      </c>
+      <c r="AE69">
+        <v>87.2</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>75.5</v>
+      </c>
+      <c r="AJ69">
+        <v>151</v>
+      </c>
+      <c r="AK69">
+        <v>3</v>
+      </c>
+      <c r="AL69">
+        <v>151</v>
+      </c>
+      <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
+        <v>33.3</v>
+      </c>
+      <c r="AO69">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:41">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -6120,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -6156,22 +8733,58 @@
         <v>0</v>
       </c>
       <c r="AB70">
+        <v>-2.1</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>2</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:41">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C71">
-        <v>10696</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>3565.3</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>6175.3</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -6183,97 +8796,130 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>5348</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>10696</v>
+        <v>0</v>
       </c>
       <c r="K71">
         <v>3</v>
       </c>
-      <c r="L71">
-        <v>10696</v>
-      </c>
       <c r="M71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>-1.3</v>
+        <v>-2</v>
       </c>
       <c r="P71">
-        <v>556</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>185.3</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>165.4</v>
+        <v>0</v>
       </c>
       <c r="S71">
         <v>0</v>
       </c>
       <c r="T71">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="U71">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="V71">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="W71">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="X71">
         <v>3</v>
       </c>
-      <c r="Y71">
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>-2.1</v>
+      </c>
+      <c r="AC71">
+        <v>556</v>
+      </c>
+      <c r="AD71">
+        <v>185.3</v>
+      </c>
+      <c r="AE71">
+        <v>165.4</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>119</v>
+      </c>
+      <c r="AH71">
+        <v>238</v>
+      </c>
+      <c r="AI71">
         <v>278</v>
       </c>
-      <c r="Z71">
+      <c r="AJ71">
+        <v>318</v>
+      </c>
+      <c r="AK71">
+        <v>3</v>
+      </c>
+      <c r="AL71">
+        <v>278</v>
+      </c>
+      <c r="AM71">
         <v>2</v>
       </c>
-      <c r="AA71">
+      <c r="AN71">
         <v>66.7</v>
       </c>
-      <c r="AB71">
+      <c r="AO71">
         <v>1.1</v>
       </c>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:41">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C72">
-        <v>1766</v>
+        <v>1755</v>
       </c>
       <c r="D72">
-        <v>1766</v>
+        <v>1755</v>
       </c>
       <c r="F72">
-        <v>1766</v>
+        <v>1755</v>
       </c>
       <c r="G72">
-        <v>1766</v>
+        <v>1755</v>
       </c>
       <c r="H72">
-        <v>1766</v>
+        <v>1755</v>
       </c>
       <c r="I72">
-        <v>1766</v>
+        <v>1755</v>
       </c>
       <c r="J72">
-        <v>1766</v>
+        <v>1755</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="L72">
-        <v>1766</v>
+        <v>1755</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -6282,55 +8928,91 @@
         <v>100</v>
       </c>
       <c r="O72">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X72">
         <v>1</v>
       </c>
+      <c r="Y72">
+        <v>10</v>
+      </c>
       <c r="Z72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB72">
+        <v>1.4</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>0</v>
+      </c>
+      <c r="AO72">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:41">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C73">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D73">
-        <v>27.4</v>
+        <v>23.2</v>
       </c>
       <c r="E73">
-        <v>77.40000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -6345,13 +9027,13 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="K73">
         <v>8</v>
       </c>
       <c r="L73">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -6360,16 +9042,16 @@
         <v>12.5</v>
       </c>
       <c r="O73">
-        <v>-2.1</v>
+        <v>-1.6</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="R73">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="S73">
         <v>0</v>
@@ -6384,25 +9066,65 @@
         <v>0</v>
       </c>
       <c r="W73">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="X73">
         <v>8</v>
       </c>
+      <c r="Y73">
+        <v>33</v>
+      </c>
       <c r="Z73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA73">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AB73">
+        <v>-1.6</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>8</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>0</v>
+      </c>
+      <c r="AO73">
         <v>-1.4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="P1:AB1"/>
+    <mergeCell ref="AC1:AO1"/>
     <mergeCell ref="A4:A24"/>
     <mergeCell ref="A25:A45"/>
     <mergeCell ref="A46:A58"/>

--- a/data/analysis/social_media_analytics/pivot_tables/governance_simpl-subject_matter_simpl/museum_activity_groups__var2-governance_simpl-subject_matter_simpl.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/governance_simpl-subject_matter_simpl/museum_activity_groups__var2-governance_simpl-subject_matter_simpl.xlsx
@@ -690,13 +690,13 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>28846</v>
+        <v>34215</v>
       </c>
       <c r="D4">
-        <v>1153.8</v>
+        <v>1368.6</v>
       </c>
       <c r="E4">
-        <v>1836.3</v>
+        <v>2106.3</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -705,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="I4">
-        <v>1559</v>
+        <v>1906</v>
       </c>
       <c r="J4">
-        <v>7295</v>
+        <v>8046</v>
       </c>
       <c r="K4">
         <v>25</v>
       </c>
       <c r="L4">
-        <v>1696.8</v>
+        <v>2012.6</v>
       </c>
       <c r="M4">
         <v>17</v>
@@ -729,13 +729,13 @@
         <v>0.4</v>
       </c>
       <c r="P4">
-        <v>15028</v>
+        <v>17585</v>
       </c>
       <c r="Q4">
-        <v>601.1</v>
+        <v>703.4</v>
       </c>
       <c r="R4">
-        <v>1314.2</v>
+        <v>1515</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="V4">
-        <v>377</v>
+        <v>482</v>
       </c>
       <c r="W4">
-        <v>6050</v>
+        <v>6901</v>
       </c>
       <c r="X4">
         <v>25</v>
       </c>
       <c r="Y4">
-        <v>884</v>
+        <v>1034.4</v>
       </c>
       <c r="Z4">
         <v>17</v>
@@ -768,13 +768,13 @@
         <v>0.3</v>
       </c>
       <c r="AC4">
-        <v>13714</v>
+        <v>13555</v>
       </c>
       <c r="AD4">
-        <v>548.6</v>
+        <v>542.2</v>
       </c>
       <c r="AE4">
-        <v>691.1</v>
+        <v>572.3</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>160</v>
+        <v>383</v>
       </c>
       <c r="AI4">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="AJ4">
-        <v>2362</v>
+        <v>2266</v>
       </c>
       <c r="AK4">
         <v>25</v>
       </c>
       <c r="AL4">
-        <v>1054.9</v>
+        <v>753.1</v>
       </c>
       <c r="AM4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AN4">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="AO4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -813,13 +813,13 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>118855</v>
+        <v>136046</v>
       </c>
       <c r="D5">
-        <v>1414.9</v>
+        <v>1619.6</v>
       </c>
       <c r="E5">
-        <v>2065.1</v>
+        <v>2408.4</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -828,37 +828,37 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>915.5</v>
+        <v>1015</v>
       </c>
       <c r="I5">
-        <v>1951</v>
+        <v>2229</v>
       </c>
       <c r="J5">
-        <v>14118</v>
+        <v>16882</v>
       </c>
       <c r="K5">
         <v>84</v>
       </c>
       <c r="L5">
-        <v>1980.9</v>
+        <v>2305.9</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N5">
-        <v>71.40000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="O5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P5">
-        <v>50147</v>
+        <v>59125</v>
       </c>
       <c r="Q5">
-        <v>597</v>
+        <v>703.9</v>
       </c>
       <c r="R5">
-        <v>1414.4</v>
+        <v>1736.8</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -867,37 +867,37 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="V5">
-        <v>401</v>
+        <v>483</v>
       </c>
       <c r="W5">
-        <v>9195</v>
+        <v>10616</v>
       </c>
       <c r="X5">
         <v>84</v>
       </c>
       <c r="Y5">
-        <v>822.1</v>
+        <v>985.4</v>
       </c>
       <c r="Z5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA5">
-        <v>72.59999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="AB5">
         <v>0.5</v>
       </c>
       <c r="AC5">
-        <v>47740</v>
+        <v>65976</v>
       </c>
       <c r="AD5">
-        <v>568.3</v>
+        <v>785.4</v>
       </c>
       <c r="AE5">
-        <v>780.7</v>
+        <v>853.7</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>400.5</v>
+        <v>665.5</v>
       </c>
       <c r="AI5">
-        <v>924.5</v>
+        <v>1330.5</v>
       </c>
       <c r="AJ5">
-        <v>4362</v>
+        <v>3740</v>
       </c>
       <c r="AK5">
         <v>84</v>
       </c>
       <c r="AL5">
-        <v>1085</v>
+        <v>1064.1</v>
       </c>
       <c r="AM5">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AN5">
-        <v>52.4</v>
+        <v>73.8</v>
       </c>
       <c r="AO5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -936,13 +936,13 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>891</v>
+        <v>954</v>
       </c>
       <c r="D6">
-        <v>222.8</v>
+        <v>238.5</v>
       </c>
       <c r="E6">
-        <v>390.3</v>
+        <v>421.6</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -954,16 +954,16 @@
         <v>43</v>
       </c>
       <c r="I6">
-        <v>265.8</v>
+        <v>281.5</v>
       </c>
       <c r="J6">
-        <v>805</v>
+        <v>868</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
       <c r="L6">
-        <v>445.5</v>
+        <v>477</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -975,13 +975,13 @@
         <v>-0.3</v>
       </c>
       <c r="P6">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q6">
-        <v>70.2</v>
+        <v>72</v>
       </c>
       <c r="R6">
-        <v>125</v>
+        <v>127.9</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -990,19 +990,19 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V6">
-        <v>82.2</v>
+        <v>84.5</v>
       </c>
       <c r="W6">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="X6">
         <v>4</v>
       </c>
       <c r="Y6">
-        <v>140.5</v>
+        <v>144</v>
       </c>
       <c r="Z6">
         <v>2</v>
@@ -1014,13 +1014,13 @@
         <v>-0.3</v>
       </c>
       <c r="AC6">
-        <v>530</v>
+        <v>697</v>
       </c>
       <c r="AD6">
-        <v>132.5</v>
+        <v>174.2</v>
       </c>
       <c r="AE6">
-        <v>265</v>
+        <v>284.6</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1029,28 +1029,28 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AI6">
-        <v>132.5</v>
+        <v>225.2</v>
       </c>
       <c r="AJ6">
-        <v>530</v>
+        <v>595</v>
       </c>
       <c r="AK6">
         <v>4</v>
       </c>
       <c r="AL6">
-        <v>530</v>
+        <v>348.5</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN6">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AO6">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1059,13 +1059,13 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>61097</v>
+        <v>71073</v>
       </c>
       <c r="D7">
-        <v>686.5</v>
+        <v>798.6</v>
       </c>
       <c r="E7">
-        <v>1077.4</v>
+        <v>1308.9</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1074,37 +1074,37 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="I7">
-        <v>937</v>
+        <v>1058</v>
       </c>
       <c r="J7">
-        <v>4893</v>
+        <v>5828</v>
       </c>
       <c r="K7">
         <v>89</v>
       </c>
       <c r="L7">
-        <v>1035.5</v>
+        <v>1246.9</v>
       </c>
       <c r="M7">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N7">
-        <v>66.3</v>
+        <v>64</v>
       </c>
       <c r="O7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P7">
-        <v>14793</v>
+        <v>16312</v>
       </c>
       <c r="Q7">
-        <v>166.2</v>
+        <v>183.3</v>
       </c>
       <c r="R7">
-        <v>344.4</v>
+        <v>385.8</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1116,34 +1116,34 @@
         <v>17</v>
       </c>
       <c r="V7">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="W7">
-        <v>1956</v>
+        <v>2194</v>
       </c>
       <c r="X7">
         <v>89</v>
       </c>
       <c r="Y7">
-        <v>246.6</v>
+        <v>276.5</v>
       </c>
       <c r="Z7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA7">
-        <v>67.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="AB7">
         <v>0.3</v>
       </c>
       <c r="AC7">
-        <v>44523</v>
+        <v>43708</v>
       </c>
       <c r="AD7">
-        <v>500.3</v>
+        <v>491.1</v>
       </c>
       <c r="AE7">
-        <v>1629.9</v>
+        <v>871</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1152,25 +1152,25 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="AI7">
-        <v>473</v>
+        <v>603</v>
       </c>
       <c r="AJ7">
-        <v>13336</v>
+        <v>6193</v>
       </c>
       <c r="AK7">
         <v>89</v>
       </c>
       <c r="AL7">
-        <v>1272.1</v>
+        <v>809.4</v>
       </c>
       <c r="AM7">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="AN7">
-        <v>39.3</v>
+        <v>60.7</v>
       </c>
       <c r="AO7">
         <v>0.1</v>
@@ -1182,31 +1182,31 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <v>3607</v>
+        <v>4111</v>
       </c>
       <c r="D8">
-        <v>3607</v>
+        <v>4111</v>
       </c>
       <c r="F8">
-        <v>3607</v>
+        <v>4111</v>
       </c>
       <c r="G8">
-        <v>3607</v>
+        <v>4111</v>
       </c>
       <c r="H8">
-        <v>3607</v>
+        <v>4111</v>
       </c>
       <c r="I8">
-        <v>3607</v>
+        <v>4111</v>
       </c>
       <c r="J8">
-        <v>3607</v>
+        <v>4111</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>3607</v>
+        <v>4111</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -1218,31 +1218,31 @@
         <v>1.5</v>
       </c>
       <c r="P8">
-        <v>1841</v>
+        <v>2068</v>
       </c>
       <c r="Q8">
-        <v>1841</v>
+        <v>2068</v>
       </c>
       <c r="S8">
-        <v>1841</v>
+        <v>2068</v>
       </c>
       <c r="T8">
-        <v>1841</v>
+        <v>2068</v>
       </c>
       <c r="U8">
-        <v>1841</v>
+        <v>2068</v>
       </c>
       <c r="V8">
-        <v>1841</v>
+        <v>2068</v>
       </c>
       <c r="W8">
-        <v>1841</v>
+        <v>2068</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
       <c r="Y8">
-        <v>1841</v>
+        <v>2068</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -1251,34 +1251,34 @@
         <v>100</v>
       </c>
       <c r="AB8">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC8">
-        <v>983</v>
+        <v>1255</v>
       </c>
       <c r="AD8">
-        <v>983</v>
+        <v>1255</v>
       </c>
       <c r="AF8">
-        <v>983</v>
+        <v>1255</v>
       </c>
       <c r="AG8">
-        <v>983</v>
+        <v>1255</v>
       </c>
       <c r="AH8">
-        <v>983</v>
+        <v>1255</v>
       </c>
       <c r="AI8">
-        <v>983</v>
+        <v>1255</v>
       </c>
       <c r="AJ8">
-        <v>983</v>
+        <v>1255</v>
       </c>
       <c r="AK8">
         <v>1</v>
       </c>
       <c r="AL8">
-        <v>983</v>
+        <v>1255</v>
       </c>
       <c r="AM8">
         <v>1</v>
@@ -1287,7 +1287,7 @@
         <v>100</v>
       </c>
       <c r="AO8">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1329,31 +1329,31 @@
         <v>-2</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1362,7 +1362,7 @@
         <v>100</v>
       </c>
       <c r="AB9">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>-1.4</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1404,13 +1404,13 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>35736</v>
+        <v>42086</v>
       </c>
       <c r="D10">
-        <v>916.3</v>
+        <v>1079.1</v>
       </c>
       <c r="E10">
-        <v>1808</v>
+        <v>2067.2</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1419,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I10">
-        <v>1044.5</v>
+        <v>1230</v>
       </c>
       <c r="J10">
-        <v>8460</v>
+        <v>9116</v>
       </c>
       <c r="K10">
         <v>39</v>
       </c>
       <c r="L10">
-        <v>1624.4</v>
+        <v>1913</v>
       </c>
       <c r="M10">
         <v>22</v>
@@ -1443,13 +1443,13 @@
         <v>-0</v>
       </c>
       <c r="P10">
-        <v>6308</v>
+        <v>7206</v>
       </c>
       <c r="Q10">
-        <v>161.7</v>
+        <v>184.8</v>
       </c>
       <c r="R10">
-        <v>499.7</v>
+        <v>543.1</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1461,16 +1461,16 @@
         <v>5</v>
       </c>
       <c r="V10">
-        <v>112</v>
+        <v>124.5</v>
       </c>
       <c r="W10">
-        <v>3021</v>
+        <v>3242</v>
       </c>
       <c r="X10">
         <v>39</v>
       </c>
       <c r="Y10">
-        <v>262.8</v>
+        <v>300.2</v>
       </c>
       <c r="Z10">
         <v>24</v>
@@ -1482,13 +1482,13 @@
         <v>0.1</v>
       </c>
       <c r="AC10">
-        <v>21307</v>
+        <v>24010</v>
       </c>
       <c r="AD10">
-        <v>546.3</v>
+        <v>615.6</v>
       </c>
       <c r="AE10">
-        <v>995.1</v>
+        <v>806.3</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1497,28 +1497,28 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AI10">
-        <v>729</v>
+        <v>1009.5</v>
       </c>
       <c r="AJ10">
-        <v>5271</v>
+        <v>3597</v>
       </c>
       <c r="AK10">
         <v>39</v>
       </c>
       <c r="AL10">
-        <v>1121.4</v>
+        <v>889.3</v>
       </c>
       <c r="AM10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AN10">
-        <v>48.7</v>
+        <v>69.2</v>
       </c>
       <c r="AO10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>-1.4</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1641,13 +1641,13 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>205361</v>
+        <v>246430</v>
       </c>
       <c r="D12">
-        <v>792.9</v>
+        <v>951.5</v>
       </c>
       <c r="E12">
-        <v>1562.5</v>
+        <v>2067.4</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1656,37 +1656,37 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="I12">
-        <v>1009.5</v>
+        <v>1167.5</v>
       </c>
       <c r="J12">
-        <v>14888</v>
+        <v>22972</v>
       </c>
       <c r="K12">
         <v>259</v>
       </c>
       <c r="L12">
-        <v>1333.5</v>
+        <v>1642.9</v>
       </c>
       <c r="M12">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N12">
-        <v>59.5</v>
+        <v>57.9</v>
       </c>
       <c r="O12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>54737</v>
+        <v>69490</v>
       </c>
       <c r="Q12">
-        <v>211.3</v>
+        <v>268.3</v>
       </c>
       <c r="R12">
-        <v>766.1</v>
+        <v>1200.9</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1695,37 +1695,37 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V12">
-        <v>138.5</v>
+        <v>157</v>
       </c>
       <c r="W12">
-        <v>10421</v>
+        <v>17700</v>
       </c>
       <c r="X12">
         <v>259</v>
       </c>
       <c r="Y12">
-        <v>364.9</v>
+        <v>472.7</v>
       </c>
       <c r="Z12">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AA12">
-        <v>57.9</v>
+        <v>56.8</v>
       </c>
       <c r="AB12">
-        <v>-0</v>
+        <v>-0.1</v>
       </c>
       <c r="AC12">
-        <v>146549</v>
+        <v>146473</v>
       </c>
       <c r="AD12">
-        <v>565.8</v>
+        <v>565.5</v>
       </c>
       <c r="AE12">
-        <v>1230.1</v>
+        <v>903.8</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="AI12">
-        <v>603</v>
+        <v>818.5</v>
       </c>
       <c r="AJ12">
-        <v>6887</v>
+        <v>8295</v>
       </c>
       <c r="AK12">
         <v>259</v>
       </c>
       <c r="AL12">
-        <v>1422.8</v>
+        <v>909.8</v>
       </c>
       <c r="AM12">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="AN12">
-        <v>39.8</v>
+        <v>62.2</v>
       </c>
       <c r="AO12">
         <v>0.1</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>-1.4</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -1869,121 +1869,121 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>185749</v>
+        <v>219217</v>
       </c>
       <c r="D14">
-        <v>1643.8</v>
+        <v>1940</v>
       </c>
       <c r="E14">
-        <v>2564.8</v>
+        <v>3069.8</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>946</v>
+        <v>1116</v>
       </c>
       <c r="I14">
-        <v>2125</v>
+        <v>2491</v>
       </c>
       <c r="J14">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="K14">
         <v>113</v>
       </c>
       <c r="L14">
-        <v>2185.3</v>
+        <v>2609.7</v>
       </c>
       <c r="M14">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N14">
-        <v>75.2</v>
+        <v>74.3</v>
       </c>
       <c r="O14">
         <v>0.6</v>
       </c>
       <c r="P14">
-        <v>76745</v>
+        <v>87090</v>
       </c>
       <c r="Q14">
-        <v>679.2</v>
+        <v>770.7</v>
       </c>
       <c r="R14">
-        <v>2145.9</v>
+        <v>2394.5</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U14">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="V14">
-        <v>493</v>
+        <v>564</v>
       </c>
       <c r="W14">
-        <v>18016</v>
+        <v>20340</v>
       </c>
       <c r="X14">
         <v>113</v>
       </c>
       <c r="Y14">
-        <v>882.1</v>
+        <v>1012.7</v>
       </c>
       <c r="Z14">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AA14">
-        <v>77</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="AB14">
         <v>0.6</v>
       </c>
       <c r="AC14">
-        <v>87395</v>
+        <v>97340</v>
       </c>
       <c r="AD14">
-        <v>773.4</v>
+        <v>861.4</v>
       </c>
       <c r="AE14">
-        <v>988.5</v>
+        <v>788.2</v>
       </c>
       <c r="AF14">
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="AH14">
-        <v>640</v>
+        <v>845</v>
       </c>
       <c r="AI14">
-        <v>1081</v>
+        <v>1330</v>
       </c>
       <c r="AJ14">
-        <v>6448</v>
+        <v>3410</v>
       </c>
       <c r="AK14">
         <v>113</v>
       </c>
       <c r="AL14">
-        <v>1165.3</v>
+        <v>1131.9</v>
       </c>
       <c r="AM14">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AN14">
-        <v>66.40000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="AO14">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -1992,121 +1992,121 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>32782</v>
+        <v>33423</v>
       </c>
       <c r="D15">
-        <v>2731.8</v>
+        <v>2785.2</v>
       </c>
       <c r="E15">
-        <v>3179.9</v>
+        <v>3803.2</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>149.2</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1797</v>
+        <v>1855.5</v>
       </c>
       <c r="I15">
-        <v>3489.5</v>
+        <v>3546.2</v>
       </c>
       <c r="J15">
-        <v>10793</v>
+        <v>12666</v>
       </c>
       <c r="K15">
         <v>12</v>
       </c>
       <c r="L15">
-        <v>3642.4</v>
+        <v>4177.9</v>
       </c>
       <c r="M15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N15">
-        <v>75</v>
+        <v>66.7</v>
       </c>
       <c r="O15">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="P15">
-        <v>18703</v>
+        <v>20289</v>
       </c>
       <c r="Q15">
-        <v>1558.6</v>
+        <v>1690.8</v>
       </c>
       <c r="R15">
-        <v>3514.6</v>
+        <v>4123.7</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>292.5</v>
+        <v>84</v>
       </c>
       <c r="V15">
-        <v>1285</v>
+        <v>940.2</v>
       </c>
       <c r="W15">
-        <v>12485</v>
+        <v>14514</v>
       </c>
       <c r="X15">
         <v>12</v>
       </c>
       <c r="Y15">
-        <v>2078.1</v>
+        <v>2536.1</v>
       </c>
       <c r="Z15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA15">
-        <v>75</v>
+        <v>66.7</v>
       </c>
       <c r="AB15">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AC15">
-        <v>7021</v>
+        <v>11700</v>
       </c>
       <c r="AD15">
-        <v>585.1</v>
+        <v>975</v>
       </c>
       <c r="AE15">
-        <v>931.9</v>
+        <v>995.4</v>
       </c>
       <c r="AF15">
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>684.5</v>
       </c>
       <c r="AI15">
-        <v>1040.8</v>
+        <v>1407.8</v>
       </c>
       <c r="AJ15">
-        <v>2991</v>
+        <v>3465</v>
       </c>
       <c r="AK15">
         <v>12</v>
       </c>
       <c r="AL15">
-        <v>1404.2</v>
+        <v>1170</v>
       </c>
       <c r="AM15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AN15">
-        <v>41.7</v>
+        <v>83.3</v>
       </c>
       <c r="AO15">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2115,13 +2115,13 @@
         <v>34</v>
       </c>
       <c r="C16">
-        <v>2128</v>
+        <v>2533</v>
       </c>
       <c r="D16">
-        <v>425.6</v>
+        <v>506.6</v>
       </c>
       <c r="E16">
-        <v>951.7</v>
+        <v>1132.8</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2136,13 +2136,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2128</v>
+        <v>2533</v>
       </c>
       <c r="K16">
         <v>5</v>
       </c>
       <c r="L16">
-        <v>2128</v>
+        <v>2533</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -2154,13 +2154,13 @@
         <v>-1.3</v>
       </c>
       <c r="P16">
-        <v>1116</v>
+        <v>1174</v>
       </c>
       <c r="Q16">
-        <v>223.2</v>
+        <v>234.8</v>
       </c>
       <c r="R16">
-        <v>498</v>
+        <v>523.9</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>2</v>
       </c>
       <c r="W16">
-        <v>1114</v>
+        <v>1172</v>
       </c>
       <c r="X16">
         <v>5</v>
       </c>
       <c r="Y16">
-        <v>558</v>
+        <v>587</v>
       </c>
       <c r="Z16">
         <v>2</v>
@@ -2193,13 +2193,13 @@
         <v>-0.7</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>37.6</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2214,16 +2214,19 @@
         <v>0</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AK16">
         <v>5</v>
       </c>
+      <c r="AL16">
+        <v>84</v>
+      </c>
       <c r="AM16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO16">
         <v>-1.4</v>
@@ -2235,13 +2238,13 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>27904</v>
+        <v>33239</v>
       </c>
       <c r="D17">
-        <v>697.6</v>
+        <v>831</v>
       </c>
       <c r="E17">
-        <v>1095.6</v>
+        <v>1254</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2250,19 +2253,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>344.5</v>
+        <v>488.5</v>
       </c>
       <c r="I17">
-        <v>975.2</v>
+        <v>1172.2</v>
       </c>
       <c r="J17">
-        <v>5627</v>
+        <v>6299</v>
       </c>
       <c r="K17">
         <v>40</v>
       </c>
       <c r="L17">
-        <v>1268.4</v>
+        <v>1510.9</v>
       </c>
       <c r="M17">
         <v>22</v>
@@ -2274,13 +2277,13 @@
         <v>-0.1</v>
       </c>
       <c r="P17">
-        <v>13176</v>
+        <v>14925</v>
       </c>
       <c r="Q17">
-        <v>329.4</v>
+        <v>373.1</v>
       </c>
       <c r="R17">
-        <v>1446</v>
+        <v>1584.3</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2289,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>34.5</v>
+        <v>50.5</v>
       </c>
       <c r="V17">
-        <v>142.8</v>
+        <v>193</v>
       </c>
       <c r="W17">
-        <v>9196</v>
+        <v>10078</v>
       </c>
       <c r="X17">
         <v>40</v>
       </c>
       <c r="Y17">
-        <v>598.9</v>
+        <v>678.4</v>
       </c>
       <c r="Z17">
         <v>22</v>
@@ -2313,13 +2316,13 @@
         <v>-0.1</v>
       </c>
       <c r="AC17">
-        <v>19589</v>
+        <v>13681</v>
       </c>
       <c r="AD17">
-        <v>489.7</v>
+        <v>342</v>
       </c>
       <c r="AE17">
-        <v>2109.6</v>
+        <v>522.4</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2328,28 +2331,28 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>69.5</v>
       </c>
       <c r="AI17">
-        <v>143.5</v>
+        <v>500</v>
       </c>
       <c r="AJ17">
-        <v>13336</v>
+        <v>2203</v>
       </c>
       <c r="AK17">
         <v>40</v>
       </c>
       <c r="AL17">
-        <v>1780.8</v>
+        <v>594.8</v>
       </c>
       <c r="AM17">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AN17">
-        <v>27.5</v>
+        <v>57.5</v>
       </c>
       <c r="AO17">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2358,13 +2361,13 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>6905</v>
+        <v>7702</v>
       </c>
       <c r="D18">
-        <v>276.2</v>
+        <v>308.1</v>
       </c>
       <c r="E18">
-        <v>408.2</v>
+        <v>459</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2373,19 +2376,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="I18">
-        <v>527</v>
+        <v>592</v>
       </c>
       <c r="J18">
-        <v>1623</v>
+        <v>1859</v>
       </c>
       <c r="K18">
         <v>25</v>
       </c>
       <c r="L18">
-        <v>460.3</v>
+        <v>513.5</v>
       </c>
       <c r="M18">
         <v>15</v>
@@ -2397,13 +2400,13 @@
         <v>0.1</v>
       </c>
       <c r="P18">
-        <v>1507</v>
+        <v>1612</v>
       </c>
       <c r="Q18">
-        <v>60.3</v>
+        <v>64.5</v>
       </c>
       <c r="R18">
-        <v>106.1</v>
+        <v>114.9</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2415,16 +2418,16 @@
         <v>10</v>
       </c>
       <c r="V18">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="W18">
-        <v>465</v>
+        <v>511</v>
       </c>
       <c r="X18">
         <v>25</v>
       </c>
       <c r="Y18">
-        <v>100.5</v>
+        <v>107.5</v>
       </c>
       <c r="Z18">
         <v>15</v>
@@ -2436,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="AC18">
-        <v>4567</v>
+        <v>9379</v>
       </c>
       <c r="AD18">
-        <v>182.7</v>
+        <v>375.2</v>
       </c>
       <c r="AE18">
-        <v>384.2</v>
+        <v>505.4</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2451,28 +2454,28 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AI18">
-        <v>273</v>
+        <v>514</v>
       </c>
       <c r="AJ18">
-        <v>1602</v>
+        <v>1770</v>
       </c>
       <c r="AK18">
         <v>25</v>
       </c>
       <c r="AL18">
-        <v>652.4</v>
+        <v>625.3</v>
       </c>
       <c r="AM18">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AN18">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AO18">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -2481,34 +2484,34 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>8018</v>
+        <v>8831</v>
       </c>
       <c r="D19">
-        <v>1336.3</v>
+        <v>1471.8</v>
       </c>
       <c r="E19">
-        <v>2223.6</v>
+        <v>2385.5</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>30.5</v>
+        <v>34.8</v>
       </c>
       <c r="H19">
-        <v>162.5</v>
+        <v>239.5</v>
       </c>
       <c r="I19">
-        <v>1659.5</v>
+        <v>1871.5</v>
       </c>
       <c r="J19">
-        <v>5548</v>
+        <v>5970</v>
       </c>
       <c r="K19">
         <v>6</v>
       </c>
       <c r="L19">
-        <v>2004.5</v>
+        <v>2207.8</v>
       </c>
       <c r="M19">
         <v>4</v>
@@ -2520,34 +2523,34 @@
         <v>0.3</v>
       </c>
       <c r="P19">
-        <v>5969</v>
+        <v>7256</v>
       </c>
       <c r="Q19">
-        <v>994.8</v>
+        <v>1209.3</v>
       </c>
       <c r="R19">
-        <v>2233.7</v>
+        <v>2738.2</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="U19">
-        <v>45.5</v>
+        <v>57.5</v>
       </c>
       <c r="V19">
-        <v>267</v>
+        <v>285.8</v>
       </c>
       <c r="W19">
-        <v>5547</v>
+        <v>6792</v>
       </c>
       <c r="X19">
         <v>6</v>
       </c>
       <c r="Y19">
-        <v>1492.2</v>
+        <v>1814</v>
       </c>
       <c r="Z19">
         <v>4</v>
@@ -2559,43 +2562,43 @@
         <v>0.3</v>
       </c>
       <c r="AC19">
-        <v>1971</v>
+        <v>2583</v>
       </c>
       <c r="AD19">
-        <v>328.5</v>
+        <v>430.5</v>
       </c>
       <c r="AE19">
-        <v>405.7</v>
+        <v>473.5</v>
       </c>
       <c r="AF19">
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AH19">
-        <v>215</v>
+        <v>364.5</v>
       </c>
       <c r="AI19">
-        <v>519.2</v>
+        <v>598.5</v>
       </c>
       <c r="AJ19">
-        <v>992</v>
+        <v>1231</v>
       </c>
       <c r="AK19">
         <v>6</v>
       </c>
       <c r="AL19">
-        <v>657</v>
+        <v>516.6</v>
       </c>
       <c r="AM19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN19">
-        <v>50</v>
+        <v>83.3</v>
       </c>
       <c r="AO19">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -2604,13 +2607,13 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>18773</v>
+        <v>21447</v>
       </c>
       <c r="D20">
-        <v>1173.3</v>
+        <v>1340.4</v>
       </c>
       <c r="E20">
-        <v>1656.7</v>
+        <v>2071.5</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2619,37 +2622,37 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>333</v>
+        <v>127</v>
       </c>
       <c r="I20">
-        <v>1303.2</v>
+        <v>1498.8</v>
       </c>
       <c r="J20">
-        <v>4893</v>
+        <v>5828</v>
       </c>
       <c r="K20">
         <v>16</v>
       </c>
       <c r="L20">
-        <v>1877.3</v>
+        <v>2383</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N20">
-        <v>62.5</v>
+        <v>56.2</v>
       </c>
       <c r="O20">
-        <v>0.2</v>
+        <v>-0</v>
       </c>
       <c r="P20">
-        <v>16144</v>
+        <v>17030</v>
       </c>
       <c r="Q20">
-        <v>1009</v>
+        <v>1064.4</v>
       </c>
       <c r="R20">
-        <v>2056.8</v>
+        <v>2195.5</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2658,37 +2661,37 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>72.5</v>
+        <v>30</v>
       </c>
       <c r="V20">
-        <v>517.2</v>
+        <v>538.5</v>
       </c>
       <c r="W20">
-        <v>6137</v>
+        <v>6511</v>
       </c>
       <c r="X20">
         <v>16</v>
       </c>
       <c r="Y20">
-        <v>1467.6</v>
+        <v>1703</v>
       </c>
       <c r="Z20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA20">
-        <v>68.8</v>
+        <v>62.5</v>
       </c>
       <c r="AB20">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AC20">
-        <v>6298</v>
+        <v>13970</v>
       </c>
       <c r="AD20">
-        <v>393.6</v>
+        <v>873.1</v>
       </c>
       <c r="AE20">
-        <v>523</v>
+        <v>959.8</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2697,28 +2700,28 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>2.5</v>
+        <v>582.5</v>
       </c>
       <c r="AI20">
-        <v>662.5</v>
+        <v>1488.2</v>
       </c>
       <c r="AJ20">
-        <v>1428</v>
+        <v>2592</v>
       </c>
       <c r="AK20">
         <v>16</v>
       </c>
       <c r="AL20">
-        <v>787.2</v>
+        <v>1397</v>
       </c>
       <c r="AM20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AN20">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="AO20">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -2727,13 +2730,13 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>1603</v>
+        <v>1781</v>
       </c>
       <c r="D21">
-        <v>400.8</v>
+        <v>445.2</v>
       </c>
       <c r="E21">
-        <v>591.1</v>
+        <v>672.8</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2742,19 +2745,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>175.5</v>
+        <v>179.5</v>
       </c>
       <c r="I21">
-        <v>576.2</v>
+        <v>624.8</v>
       </c>
       <c r="J21">
-        <v>1252</v>
+        <v>1422</v>
       </c>
       <c r="K21">
         <v>4</v>
       </c>
       <c r="L21">
-        <v>801.5</v>
+        <v>890.5</v>
       </c>
       <c r="M21">
         <v>2</v>
@@ -2766,13 +2769,13 @@
         <v>-0.3</v>
       </c>
       <c r="P21">
-        <v>555</v>
+        <v>607</v>
       </c>
       <c r="Q21">
-        <v>138.8</v>
+        <v>151.8</v>
       </c>
       <c r="R21">
-        <v>226.7</v>
+        <v>251.2</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2781,19 +2784,19 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>40.5</v>
+        <v>41.5</v>
       </c>
       <c r="V21">
-        <v>179.2</v>
+        <v>193.2</v>
       </c>
       <c r="W21">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="X21">
         <v>4</v>
       </c>
       <c r="Y21">
-        <v>277.5</v>
+        <v>303.5</v>
       </c>
       <c r="Z21">
         <v>2</v>
@@ -2805,13 +2808,13 @@
         <v>-0.3</v>
       </c>
       <c r="AC21">
-        <v>3946</v>
+        <v>740</v>
       </c>
       <c r="AD21">
-        <v>986.5</v>
+        <v>185</v>
       </c>
       <c r="AE21">
-        <v>1567.6</v>
+        <v>370</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2820,28 +2823,28 @@
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="AI21">
-        <v>1313.5</v>
+        <v>185</v>
       </c>
       <c r="AJ21">
-        <v>3292</v>
+        <v>740</v>
       </c>
       <c r="AK21">
         <v>4</v>
       </c>
       <c r="AL21">
-        <v>1973</v>
+        <v>740</v>
       </c>
       <c r="AM21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AO21">
-        <v>0.5</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -2850,13 +2853,13 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>14901</v>
+        <v>17324</v>
       </c>
       <c r="D22">
-        <v>993.4</v>
+        <v>1154.9</v>
       </c>
       <c r="E22">
-        <v>858.8</v>
+        <v>990.3</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2865,19 +2868,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1201</v>
+        <v>1438</v>
       </c>
       <c r="I22">
-        <v>1612</v>
+        <v>1853.5</v>
       </c>
       <c r="J22">
-        <v>2347</v>
+        <v>2740</v>
       </c>
       <c r="K22">
         <v>15</v>
       </c>
       <c r="L22">
-        <v>1490.1</v>
+        <v>1732.4</v>
       </c>
       <c r="M22">
         <v>10</v>
@@ -2889,13 +2892,13 @@
         <v>0.3</v>
       </c>
       <c r="P22">
-        <v>8551</v>
+        <v>9589</v>
       </c>
       <c r="Q22">
-        <v>570.1</v>
+        <v>639.3</v>
       </c>
       <c r="R22">
-        <v>1183.7</v>
+        <v>1337.2</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2904,19 +2907,19 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>359</v>
+        <v>421</v>
       </c>
       <c r="V22">
-        <v>460.5</v>
+        <v>511</v>
       </c>
       <c r="W22">
-        <v>4715</v>
+        <v>5342</v>
       </c>
       <c r="X22">
         <v>15</v>
       </c>
       <c r="Y22">
-        <v>855.1</v>
+        <v>958.9</v>
       </c>
       <c r="Z22">
         <v>10</v>
@@ -2928,13 +2931,13 @@
         <v>0.3</v>
       </c>
       <c r="AC22">
-        <v>6087</v>
+        <v>7654</v>
       </c>
       <c r="AD22">
-        <v>405.8</v>
+        <v>510.3</v>
       </c>
       <c r="AE22">
-        <v>469.5</v>
+        <v>550.7</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2943,28 +2946,28 @@
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>238</v>
+        <v>310</v>
       </c>
       <c r="AI22">
-        <v>747.5</v>
+        <v>941</v>
       </c>
       <c r="AJ22">
-        <v>1223</v>
+        <v>1479</v>
       </c>
       <c r="AK22">
         <v>15</v>
       </c>
       <c r="AL22">
-        <v>760.9</v>
+        <v>765.4</v>
       </c>
       <c r="AM22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AN22">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="AO22">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -3045,13 +3048,13 @@
         <v>-2.1</v>
       </c>
       <c r="AC23">
-        <v>2344</v>
+        <v>28</v>
       </c>
       <c r="AD23">
-        <v>468.8</v>
+        <v>5.6</v>
       </c>
       <c r="AE23">
-        <v>1048.3</v>
+        <v>12.5</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -3066,13 +3069,13 @@
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>2344</v>
+        <v>28</v>
       </c>
       <c r="AK23">
         <v>5</v>
       </c>
       <c r="AL23">
-        <v>2344</v>
+        <v>28</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -3081,7 +3084,7 @@
         <v>20</v>
       </c>
       <c r="AO23">
-        <v>-0.6</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -3090,13 +3093,13 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>90970</v>
+        <v>110648</v>
       </c>
       <c r="D24">
-        <v>1856.5</v>
+        <v>2258.1</v>
       </c>
       <c r="E24">
-        <v>3812.5</v>
+        <v>4765.9</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3105,19 +3108,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>491</v>
+        <v>586</v>
       </c>
       <c r="I24">
-        <v>1669</v>
+        <v>1999</v>
       </c>
       <c r="J24">
-        <v>18330</v>
+        <v>23112</v>
       </c>
       <c r="K24">
         <v>49</v>
       </c>
       <c r="L24">
-        <v>2526.9</v>
+        <v>3073.6</v>
       </c>
       <c r="M24">
         <v>36</v>
@@ -3126,16 +3129,16 @@
         <v>73.5</v>
       </c>
       <c r="O24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P24">
-        <v>30043</v>
+        <v>35491</v>
       </c>
       <c r="Q24">
-        <v>613.1</v>
+        <v>724.3</v>
       </c>
       <c r="R24">
-        <v>1195.4</v>
+        <v>1412.5</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3144,19 +3147,19 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V24">
-        <v>478</v>
+        <v>570</v>
       </c>
       <c r="W24">
-        <v>4588</v>
+        <v>5485</v>
       </c>
       <c r="X24">
         <v>49</v>
       </c>
       <c r="Y24">
-        <v>834.5</v>
+        <v>985.9</v>
       </c>
       <c r="Z24">
         <v>36</v>
@@ -3168,43 +3171,43 @@
         <v>0.5</v>
       </c>
       <c r="AC24">
-        <v>31478</v>
+        <v>41820</v>
       </c>
       <c r="AD24">
-        <v>642.4</v>
+        <v>853.5</v>
       </c>
       <c r="AE24">
-        <v>1056.7</v>
+        <v>872.2</v>
       </c>
       <c r="AF24">
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="AH24">
-        <v>263</v>
+        <v>539</v>
       </c>
       <c r="AI24">
-        <v>769</v>
+        <v>1588</v>
       </c>
       <c r="AJ24">
-        <v>6327</v>
+        <v>3033</v>
       </c>
       <c r="AK24">
         <v>49</v>
       </c>
       <c r="AL24">
-        <v>1124.2</v>
+        <v>1072.3</v>
       </c>
       <c r="AM24">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="AN24">
-        <v>57.1</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="AO24">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -3215,13 +3218,13 @@
         <v>22</v>
       </c>
       <c r="C25">
-        <v>75768</v>
+        <v>83493</v>
       </c>
       <c r="D25">
-        <v>1329.3</v>
+        <v>1464.8</v>
       </c>
       <c r="E25">
-        <v>6343</v>
+        <v>6778.3</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3230,37 +3233,37 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I25">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="J25">
-        <v>47580</v>
+        <v>50844</v>
       </c>
       <c r="K25">
         <v>57</v>
       </c>
       <c r="L25">
-        <v>2444.1</v>
+        <v>2783.1</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N25">
-        <v>54.4</v>
+        <v>52.6</v>
       </c>
       <c r="O25">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="P25">
-        <v>20759</v>
+        <v>25477</v>
       </c>
       <c r="Q25">
-        <v>364.2</v>
+        <v>447</v>
       </c>
       <c r="R25">
-        <v>1205.8</v>
+        <v>1524.1</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3269,37 +3272,37 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="W25">
-        <v>8505</v>
+        <v>10903</v>
       </c>
       <c r="X25">
         <v>57</v>
       </c>
       <c r="Y25">
-        <v>669.6</v>
+        <v>849.2</v>
       </c>
       <c r="Z25">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA25">
-        <v>54.4</v>
+        <v>52.6</v>
       </c>
       <c r="AB25">
         <v>-0.2</v>
       </c>
       <c r="AC25">
-        <v>9741</v>
+        <v>21771</v>
       </c>
       <c r="AD25">
-        <v>170.9</v>
+        <v>381.9</v>
       </c>
       <c r="AE25">
-        <v>369.8</v>
+        <v>759.3</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3308,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="AJ25">
-        <v>1601</v>
+        <v>4716</v>
       </c>
       <c r="AK25">
         <v>57</v>
       </c>
       <c r="AL25">
-        <v>695.8</v>
+        <v>680.3</v>
       </c>
       <c r="AM25">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AN25">
-        <v>24.6</v>
+        <v>56.1</v>
       </c>
       <c r="AO25">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -3338,13 +3341,13 @@
         <v>23</v>
       </c>
       <c r="C26">
-        <v>137575</v>
+        <v>160822</v>
       </c>
       <c r="D26">
-        <v>1165.9</v>
+        <v>1362.9</v>
       </c>
       <c r="E26">
-        <v>2069.7</v>
+        <v>2489.1</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3353,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>364.5</v>
+        <v>363</v>
       </c>
       <c r="I26">
-        <v>1377.5</v>
+        <v>1661.5</v>
       </c>
       <c r="J26">
-        <v>14101</v>
+        <v>17617</v>
       </c>
       <c r="K26">
         <v>118</v>
       </c>
       <c r="L26">
-        <v>1677.7</v>
+        <v>1961.2</v>
       </c>
       <c r="M26">
         <v>82</v>
@@ -3377,13 +3380,13 @@
         <v>0.4</v>
       </c>
       <c r="P26">
-        <v>49716</v>
+        <v>57710</v>
       </c>
       <c r="Q26">
-        <v>421.3</v>
+        <v>489.1</v>
       </c>
       <c r="R26">
-        <v>1910.8</v>
+        <v>2363.3</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3392,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>55.5</v>
+        <v>63.5</v>
       </c>
       <c r="V26">
-        <v>234.5</v>
+        <v>255.8</v>
       </c>
       <c r="W26">
-        <v>19557</v>
+        <v>24554</v>
       </c>
       <c r="X26">
         <v>118</v>
       </c>
       <c r="Y26">
-        <v>613.8</v>
+        <v>712.5</v>
       </c>
       <c r="Z26">
         <v>81</v>
@@ -3413,16 +3416,16 @@
         <v>68.59999999999999</v>
       </c>
       <c r="AB26">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC26">
-        <v>51340</v>
+        <v>68658</v>
       </c>
       <c r="AD26">
-        <v>435.1</v>
+        <v>581.8</v>
       </c>
       <c r="AE26">
-        <v>701.3</v>
+        <v>823.3</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3431,28 +3434,28 @@
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AI26">
-        <v>698</v>
+        <v>929</v>
       </c>
       <c r="AJ26">
-        <v>4241</v>
+        <v>5325</v>
       </c>
       <c r="AK26">
         <v>118</v>
       </c>
       <c r="AL26">
-        <v>950.7</v>
+        <v>891.7</v>
       </c>
       <c r="AM26">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="AN26">
-        <v>45.8</v>
+        <v>65.3</v>
       </c>
       <c r="AO26">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -3461,13 +3464,13 @@
         <v>24</v>
       </c>
       <c r="C27">
-        <v>64834</v>
+        <v>75826</v>
       </c>
       <c r="D27">
-        <v>728.5</v>
+        <v>852</v>
       </c>
       <c r="E27">
-        <v>1329.2</v>
+        <v>1616.3</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3476,37 +3479,37 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I27">
-        <v>795</v>
+        <v>823</v>
       </c>
       <c r="J27">
-        <v>7432</v>
+        <v>8788</v>
       </c>
       <c r="K27">
         <v>89</v>
       </c>
       <c r="L27">
-        <v>1350.7</v>
+        <v>1613.3</v>
       </c>
       <c r="M27">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N27">
-        <v>53.9</v>
+        <v>52.8</v>
       </c>
       <c r="O27">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="P27">
-        <v>32245</v>
+        <v>39110</v>
       </c>
       <c r="Q27">
-        <v>362.3</v>
+        <v>439.4</v>
       </c>
       <c r="R27">
-        <v>1254.5</v>
+        <v>1680.4</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3515,37 +3518,37 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V27">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="W27">
-        <v>10371</v>
+        <v>14550</v>
       </c>
       <c r="X27">
         <v>89</v>
       </c>
       <c r="Y27">
-        <v>671.8</v>
+        <v>832.1</v>
       </c>
       <c r="Z27">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA27">
-        <v>53.9</v>
+        <v>52.8</v>
       </c>
       <c r="AB27">
         <v>-0.2</v>
       </c>
       <c r="AC27">
-        <v>27450</v>
+        <v>47134</v>
       </c>
       <c r="AD27">
-        <v>308.4</v>
+        <v>529.6</v>
       </c>
       <c r="AE27">
-        <v>676.6</v>
+        <v>826.9</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3554,28 +3557,28 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="AI27">
-        <v>300</v>
+        <v>781</v>
       </c>
       <c r="AJ27">
-        <v>3550</v>
+        <v>4356</v>
       </c>
       <c r="AK27">
         <v>89</v>
       </c>
       <c r="AL27">
-        <v>915</v>
+        <v>748.2</v>
       </c>
       <c r="AM27">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="AN27">
-        <v>33.7</v>
+        <v>70.8</v>
       </c>
       <c r="AO27">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -3584,13 +3587,13 @@
         <v>25</v>
       </c>
       <c r="C28">
-        <v>203966</v>
+        <v>237905</v>
       </c>
       <c r="D28">
-        <v>446.3</v>
+        <v>520.6</v>
       </c>
       <c r="E28">
-        <v>815.1</v>
+        <v>962.7</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3599,37 +3602,37 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="I28">
-        <v>573</v>
+        <v>661</v>
       </c>
       <c r="J28">
-        <v>8769</v>
+        <v>10974</v>
       </c>
       <c r="K28">
         <v>457</v>
       </c>
       <c r="L28">
-        <v>653.7</v>
+        <v>765</v>
       </c>
       <c r="M28">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N28">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="O28">
         <v>0.4</v>
       </c>
       <c r="P28">
-        <v>63626</v>
+        <v>73111</v>
       </c>
       <c r="Q28">
-        <v>139.2</v>
+        <v>160</v>
       </c>
       <c r="R28">
-        <v>322</v>
+        <v>372.9</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3638,19 +3641,19 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="V28">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="W28">
-        <v>3864</v>
+        <v>4680</v>
       </c>
       <c r="X28">
         <v>457</v>
       </c>
       <c r="Y28">
-        <v>198.2</v>
+        <v>227.8</v>
       </c>
       <c r="Z28">
         <v>321</v>
@@ -3662,13 +3665,13 @@
         <v>0.4</v>
       </c>
       <c r="AC28">
-        <v>139859</v>
+        <v>191865</v>
       </c>
       <c r="AD28">
-        <v>306</v>
+        <v>419.8</v>
       </c>
       <c r="AE28">
-        <v>1753.5</v>
+        <v>461.3</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3677,28 +3680,28 @@
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="AI28">
-        <v>392</v>
+        <v>643</v>
       </c>
       <c r="AJ28">
-        <v>36948</v>
+        <v>3646</v>
       </c>
       <c r="AK28">
         <v>457</v>
       </c>
       <c r="AL28">
-        <v>743.9</v>
+        <v>577.9</v>
       </c>
       <c r="AM28">
-        <v>188</v>
+        <v>332</v>
       </c>
       <c r="AN28">
-        <v>41.1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AO28">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -3707,13 +3710,13 @@
         <v>26</v>
       </c>
       <c r="C29">
-        <v>11556</v>
+        <v>13343</v>
       </c>
       <c r="D29">
-        <v>963</v>
+        <v>1111.9</v>
       </c>
       <c r="E29">
-        <v>1326.2</v>
+        <v>1557.4</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3725,16 +3728,16 @@
         <v>4.5</v>
       </c>
       <c r="I29">
-        <v>2034.2</v>
+        <v>2421.2</v>
       </c>
       <c r="J29">
-        <v>3687</v>
+        <v>4379</v>
       </c>
       <c r="K29">
         <v>12</v>
       </c>
       <c r="L29">
-        <v>1650.9</v>
+        <v>1906.1</v>
       </c>
       <c r="M29">
         <v>7</v>
@@ -3746,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>4976</v>
+        <v>5788</v>
       </c>
       <c r="Q29">
-        <v>414.7</v>
+        <v>482.3</v>
       </c>
       <c r="R29">
-        <v>755.3</v>
+        <v>879.6</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -3764,16 +3767,16 @@
         <v>2</v>
       </c>
       <c r="V29">
-        <v>346.2</v>
+        <v>397</v>
       </c>
       <c r="W29">
-        <v>2280</v>
+        <v>2581</v>
       </c>
       <c r="X29">
         <v>12</v>
       </c>
       <c r="Y29">
-        <v>829.3</v>
+        <v>964.7</v>
       </c>
       <c r="Z29">
         <v>6</v>
@@ -3785,13 +3788,13 @@
         <v>-0.3</v>
       </c>
       <c r="AC29">
-        <v>4143</v>
+        <v>5792</v>
       </c>
       <c r="AD29">
-        <v>345.2</v>
+        <v>482.7</v>
       </c>
       <c r="AE29">
-        <v>568.1</v>
+        <v>669.7</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3800,28 +3803,28 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AI29">
-        <v>614.8</v>
+        <v>824</v>
       </c>
       <c r="AJ29">
-        <v>1451</v>
+        <v>1727</v>
       </c>
       <c r="AK29">
         <v>12</v>
       </c>
       <c r="AL29">
-        <v>1035.8</v>
+        <v>827.4</v>
       </c>
       <c r="AM29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AN29">
-        <v>33.3</v>
+        <v>58.3</v>
       </c>
       <c r="AO29">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -3830,13 +3833,13 @@
         <v>27</v>
       </c>
       <c r="C30">
-        <v>5783</v>
+        <v>6811</v>
       </c>
       <c r="D30">
-        <v>413.1</v>
+        <v>486.5</v>
       </c>
       <c r="E30">
-        <v>760.9</v>
+        <v>897.6</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3848,16 +3851,16 @@
         <v>1.5</v>
       </c>
       <c r="I30">
-        <v>432</v>
+        <v>554.2</v>
       </c>
       <c r="J30">
-        <v>2470</v>
+        <v>2940</v>
       </c>
       <c r="K30">
         <v>14</v>
       </c>
       <c r="L30">
-        <v>826.1</v>
+        <v>973</v>
       </c>
       <c r="M30">
         <v>7</v>
@@ -3869,13 +3872,13 @@
         <v>-0.3</v>
       </c>
       <c r="P30">
-        <v>1449</v>
+        <v>1713</v>
       </c>
       <c r="Q30">
-        <v>103.5</v>
+        <v>122.4</v>
       </c>
       <c r="R30">
-        <v>178.9</v>
+        <v>209.3</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -3884,19 +3887,19 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V30">
-        <v>117.2</v>
+        <v>149</v>
       </c>
       <c r="W30">
-        <v>522</v>
+        <v>611</v>
       </c>
       <c r="X30">
         <v>14</v>
       </c>
       <c r="Y30">
-        <v>181.1</v>
+        <v>214.1</v>
       </c>
       <c r="Z30">
         <v>8</v>
@@ -3908,13 +3911,13 @@
         <v>-0.1</v>
       </c>
       <c r="AC30">
-        <v>2988</v>
+        <v>4772</v>
       </c>
       <c r="AD30">
-        <v>213.4</v>
+        <v>340.9</v>
       </c>
       <c r="AE30">
-        <v>449.4</v>
+        <v>542.2</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3923,28 +3926,28 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AI30">
-        <v>140.2</v>
+        <v>378.5</v>
       </c>
       <c r="AJ30">
-        <v>1574</v>
+        <v>1785</v>
       </c>
       <c r="AK30">
         <v>14</v>
       </c>
       <c r="AL30">
-        <v>498</v>
+        <v>596.5</v>
       </c>
       <c r="AM30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN30">
-        <v>42.9</v>
+        <v>57.1</v>
       </c>
       <c r="AO30">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -3953,13 +3956,13 @@
         <v>28</v>
       </c>
       <c r="C31">
-        <v>39513</v>
+        <v>44649</v>
       </c>
       <c r="D31">
-        <v>359.2</v>
+        <v>405.9</v>
       </c>
       <c r="E31">
-        <v>574.1</v>
+        <v>653</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3968,37 +3971,37 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>49.5</v>
+        <v>54.5</v>
       </c>
       <c r="I31">
-        <v>513.2</v>
+        <v>606.2</v>
       </c>
       <c r="J31">
-        <v>2665</v>
+        <v>3543</v>
       </c>
       <c r="K31">
         <v>110</v>
       </c>
       <c r="L31">
-        <v>617.4</v>
+        <v>720.1</v>
       </c>
       <c r="M31">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N31">
-        <v>58.2</v>
+        <v>56.4</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P31">
-        <v>16392</v>
+        <v>18022</v>
       </c>
       <c r="Q31">
-        <v>149</v>
+        <v>163.8</v>
       </c>
       <c r="R31">
-        <v>346.7</v>
+        <v>403.6</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -4007,37 +4010,37 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V31">
-        <v>101.2</v>
+        <v>114</v>
       </c>
       <c r="W31">
-        <v>1777</v>
+        <v>2178</v>
       </c>
       <c r="X31">
         <v>110</v>
       </c>
       <c r="Y31">
-        <v>244.7</v>
+        <v>277.3</v>
       </c>
       <c r="Z31">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA31">
-        <v>60.9</v>
+        <v>59.1</v>
       </c>
       <c r="AB31">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>36755</v>
+        <v>42807</v>
       </c>
       <c r="AD31">
-        <v>334.1</v>
+        <v>389.2</v>
       </c>
       <c r="AE31">
-        <v>882.4</v>
+        <v>651.8</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -4046,28 +4049,28 @@
         <v>0</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="AI31">
-        <v>426.5</v>
+        <v>561.5</v>
       </c>
       <c r="AJ31">
-        <v>7664</v>
+        <v>5226</v>
       </c>
       <c r="AK31">
         <v>110</v>
       </c>
       <c r="AL31">
-        <v>918.9</v>
+        <v>586.4</v>
       </c>
       <c r="AM31">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AN31">
-        <v>36.4</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="AO31">
-        <v>-0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -4076,13 +4079,13 @@
         <v>29</v>
       </c>
       <c r="C32">
-        <v>47425</v>
+        <v>54617</v>
       </c>
       <c r="D32">
-        <v>571.4</v>
+        <v>658</v>
       </c>
       <c r="E32">
-        <v>1338.1</v>
+        <v>1719.5</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -4094,34 +4097,34 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J32">
-        <v>7613</v>
+        <v>11368</v>
       </c>
       <c r="K32">
         <v>83</v>
       </c>
       <c r="L32">
-        <v>1216</v>
+        <v>1437.3</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N32">
-        <v>47</v>
+        <v>45.8</v>
       </c>
       <c r="O32">
         <v>-0.4</v>
       </c>
       <c r="P32">
-        <v>21149</v>
+        <v>22982</v>
       </c>
       <c r="Q32">
-        <v>254.8</v>
+        <v>276.9</v>
       </c>
       <c r="R32">
-        <v>738.1</v>
+        <v>823.7</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -4133,34 +4136,34 @@
         <v>0</v>
       </c>
       <c r="V32">
-        <v>137</v>
+        <v>144.5</v>
       </c>
       <c r="W32">
-        <v>5171</v>
+        <v>5461</v>
       </c>
       <c r="X32">
         <v>83</v>
       </c>
       <c r="Y32">
-        <v>542.3</v>
+        <v>604.8</v>
       </c>
       <c r="Z32">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA32">
-        <v>47</v>
+        <v>45.8</v>
       </c>
       <c r="AB32">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>41057</v>
+        <v>25359</v>
       </c>
       <c r="AD32">
-        <v>494.7</v>
+        <v>305.5</v>
       </c>
       <c r="AE32">
-        <v>1456.4</v>
+        <v>547.2</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -4172,25 +4175,25 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>346</v>
+        <v>585.5</v>
       </c>
       <c r="AJ32">
-        <v>8880</v>
+        <v>3251</v>
       </c>
       <c r="AK32">
         <v>83</v>
       </c>
       <c r="AL32">
-        <v>1642.3</v>
+        <v>650.2</v>
       </c>
       <c r="AM32">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="AN32">
-        <v>30.1</v>
+        <v>47</v>
       </c>
       <c r="AO32">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -4199,13 +4202,13 @@
         <v>30</v>
       </c>
       <c r="C33">
-        <v>203661</v>
+        <v>246585</v>
       </c>
       <c r="D33">
-        <v>418.2</v>
+        <v>506.3</v>
       </c>
       <c r="E33">
-        <v>2179.4</v>
+        <v>2759.3</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -4217,34 +4220,34 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>242.5</v>
+        <v>296</v>
       </c>
       <c r="J33">
-        <v>43003</v>
+        <v>55081</v>
       </c>
       <c r="K33">
         <v>487</v>
       </c>
       <c r="L33">
-        <v>838.1</v>
+        <v>1023.2</v>
       </c>
       <c r="M33">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N33">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="O33">
         <v>-0.3</v>
       </c>
       <c r="P33">
-        <v>36878</v>
+        <v>42789</v>
       </c>
       <c r="Q33">
-        <v>75.7</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="R33">
-        <v>359.8</v>
+        <v>383.7</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -4256,16 +4259,16 @@
         <v>1</v>
       </c>
       <c r="V33">
-        <v>23.5</v>
+        <v>30.5</v>
       </c>
       <c r="W33">
-        <v>6504</v>
+        <v>6452</v>
       </c>
       <c r="X33">
         <v>487</v>
       </c>
       <c r="Y33">
-        <v>149.9</v>
+        <v>173.9</v>
       </c>
       <c r="Z33">
         <v>246</v>
@@ -4277,13 +4280,13 @@
         <v>-0.3</v>
       </c>
       <c r="AC33">
-        <v>81960</v>
+        <v>121711</v>
       </c>
       <c r="AD33">
-        <v>168.3</v>
+        <v>249.9</v>
       </c>
       <c r="AE33">
-        <v>1051.3</v>
+        <v>457.1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -4292,28 +4295,28 @@
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>282.5</v>
       </c>
       <c r="AJ33">
-        <v>21892</v>
+        <v>3471</v>
       </c>
       <c r="AK33">
         <v>487</v>
       </c>
       <c r="AL33">
-        <v>827.9</v>
+        <v>430.1</v>
       </c>
       <c r="AM33">
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="AN33">
-        <v>20.3</v>
+        <v>58.1</v>
       </c>
       <c r="AO33">
-        <v>-0.6</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -4322,13 +4325,13 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>24536</v>
+        <v>30019</v>
       </c>
       <c r="D34">
-        <v>876.3</v>
+        <v>1072.1</v>
       </c>
       <c r="E34">
-        <v>1134.3</v>
+        <v>1391.3</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -4337,19 +4340,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>219.5</v>
+        <v>239</v>
       </c>
       <c r="I34">
-        <v>1692.2</v>
+        <v>1889.8</v>
       </c>
       <c r="J34">
-        <v>4125</v>
+        <v>4997</v>
       </c>
       <c r="K34">
         <v>28</v>
       </c>
       <c r="L34">
-        <v>1363.1</v>
+        <v>1667.7</v>
       </c>
       <c r="M34">
         <v>18</v>
@@ -4361,13 +4364,13 @@
         <v>0.2</v>
       </c>
       <c r="P34">
-        <v>8578</v>
+        <v>9906</v>
       </c>
       <c r="Q34">
-        <v>306.4</v>
+        <v>353.8</v>
       </c>
       <c r="R34">
-        <v>554.2</v>
+        <v>626.5</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -4379,16 +4382,16 @@
         <v>16.5</v>
       </c>
       <c r="V34">
-        <v>377.2</v>
+        <v>453.2</v>
       </c>
       <c r="W34">
-        <v>2057</v>
+        <v>2377</v>
       </c>
       <c r="X34">
         <v>28</v>
       </c>
       <c r="Y34">
-        <v>476.6</v>
+        <v>550.3</v>
       </c>
       <c r="Z34">
         <v>18</v>
@@ -4400,13 +4403,13 @@
         <v>0.2</v>
       </c>
       <c r="AC34">
-        <v>9250</v>
+        <v>11903</v>
       </c>
       <c r="AD34">
-        <v>330.4</v>
+        <v>425.1</v>
       </c>
       <c r="AE34">
-        <v>510.3</v>
+        <v>612.6</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -4415,28 +4418,28 @@
         <v>0</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AI34">
-        <v>794.8</v>
+        <v>818.5</v>
       </c>
       <c r="AJ34">
-        <v>1650</v>
+        <v>2139</v>
       </c>
       <c r="AK34">
         <v>28</v>
       </c>
       <c r="AL34">
-        <v>840.9</v>
+        <v>850.2</v>
       </c>
       <c r="AM34">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AN34">
-        <v>39.3</v>
+        <v>50</v>
       </c>
       <c r="AO34">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -4445,13 +4448,13 @@
         <v>32</v>
       </c>
       <c r="C35">
-        <v>45416</v>
+        <v>54232</v>
       </c>
       <c r="D35">
-        <v>1032.2</v>
+        <v>1232.5</v>
       </c>
       <c r="E35">
-        <v>1990.8</v>
+        <v>2365.1</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4460,19 +4463,19 @@
         <v>1.5</v>
       </c>
       <c r="H35">
-        <v>331.5</v>
+        <v>364.5</v>
       </c>
       <c r="I35">
-        <v>1380</v>
+        <v>1671.2</v>
       </c>
       <c r="J35">
-        <v>11096</v>
+        <v>13295</v>
       </c>
       <c r="K35">
         <v>44</v>
       </c>
       <c r="L35">
-        <v>1376.2</v>
+        <v>1643.4</v>
       </c>
       <c r="M35">
         <v>33</v>
@@ -4484,34 +4487,34 @@
         <v>0.6</v>
       </c>
       <c r="P35">
-        <v>8098</v>
+        <v>9612</v>
       </c>
       <c r="Q35">
-        <v>184</v>
+        <v>218.5</v>
       </c>
       <c r="R35">
-        <v>395.6</v>
+        <v>470.3</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="U35">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="V35">
-        <v>138.8</v>
+        <v>147</v>
       </c>
       <c r="W35">
-        <v>1930</v>
+        <v>2252</v>
       </c>
       <c r="X35">
         <v>44</v>
       </c>
       <c r="Y35">
-        <v>238.2</v>
+        <v>282.7</v>
       </c>
       <c r="Z35">
         <v>34</v>
@@ -4520,16 +4523,16 @@
         <v>77.3</v>
       </c>
       <c r="AB35">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AC35">
-        <v>7148</v>
+        <v>18197</v>
       </c>
       <c r="AD35">
-        <v>162.5</v>
+        <v>413.6</v>
       </c>
       <c r="AE35">
-        <v>279.2</v>
+        <v>476.6</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -4538,28 +4541,28 @@
         <v>0</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>238.5</v>
       </c>
       <c r="AI35">
-        <v>262.8</v>
+        <v>710.2</v>
       </c>
       <c r="AJ35">
-        <v>901</v>
+        <v>1515</v>
       </c>
       <c r="AK35">
         <v>44</v>
       </c>
       <c r="AL35">
-        <v>510.6</v>
+        <v>606.6</v>
       </c>
       <c r="AM35">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AN35">
-        <v>31.8</v>
+        <v>68.2</v>
       </c>
       <c r="AO35">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -4568,13 +4571,13 @@
         <v>33</v>
       </c>
       <c r="C36">
-        <v>4939</v>
+        <v>5901</v>
       </c>
       <c r="D36">
-        <v>235.2</v>
+        <v>281</v>
       </c>
       <c r="E36">
-        <v>546.2</v>
+        <v>646.2</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -4586,16 +4589,16 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="J36">
-        <v>1879</v>
+        <v>2240</v>
       </c>
       <c r="K36">
         <v>21</v>
       </c>
       <c r="L36">
-        <v>705.6</v>
+        <v>843</v>
       </c>
       <c r="M36">
         <v>7</v>
@@ -4607,13 +4610,13 @@
         <v>-0.8</v>
       </c>
       <c r="P36">
-        <v>1698</v>
+        <v>2041</v>
       </c>
       <c r="Q36">
-        <v>80.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="R36">
-        <v>263</v>
+        <v>313.1</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -4625,16 +4628,16 @@
         <v>0</v>
       </c>
       <c r="V36">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="W36">
-        <v>1165</v>
+        <v>1392</v>
       </c>
       <c r="X36">
         <v>21</v>
       </c>
       <c r="Y36">
-        <v>212.2</v>
+        <v>255.1</v>
       </c>
       <c r="Z36">
         <v>8</v>
@@ -4646,13 +4649,13 @@
         <v>-0.7</v>
       </c>
       <c r="AC36">
-        <v>5331</v>
+        <v>3396</v>
       </c>
       <c r="AD36">
-        <v>253.9</v>
+        <v>161.7</v>
       </c>
       <c r="AE36">
-        <v>818.3</v>
+        <v>402.2</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4664,25 +4667,25 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ36">
-        <v>3642</v>
+        <v>1687</v>
       </c>
       <c r="AK36">
         <v>21</v>
       </c>
       <c r="AL36">
-        <v>1777</v>
+        <v>485.1</v>
       </c>
       <c r="AM36">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AN36">
-        <v>14.3</v>
+        <v>33.3</v>
       </c>
       <c r="AO36">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -4691,13 +4694,13 @@
         <v>34</v>
       </c>
       <c r="C37">
-        <v>29279</v>
+        <v>35249</v>
       </c>
       <c r="D37">
-        <v>887.2</v>
+        <v>1068.2</v>
       </c>
       <c r="E37">
-        <v>1330.1</v>
+        <v>1572</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -4706,19 +4709,19 @@
         <v>2</v>
       </c>
       <c r="H37">
-        <v>326</v>
+        <v>390</v>
       </c>
       <c r="I37">
-        <v>1021</v>
+        <v>1280</v>
       </c>
       <c r="J37">
-        <v>4765</v>
+        <v>6036</v>
       </c>
       <c r="K37">
         <v>33</v>
       </c>
       <c r="L37">
-        <v>1171.2</v>
+        <v>1410</v>
       </c>
       <c r="M37">
         <v>25</v>
@@ -4730,13 +4733,13 @@
         <v>0.6</v>
       </c>
       <c r="P37">
-        <v>18776</v>
+        <v>22655</v>
       </c>
       <c r="Q37">
-        <v>569</v>
+        <v>686.5</v>
       </c>
       <c r="R37">
-        <v>1950.8</v>
+        <v>2419.9</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -4745,19 +4748,19 @@
         <v>1</v>
       </c>
       <c r="U37">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="V37">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="W37">
-        <v>11227</v>
+        <v>13956</v>
       </c>
       <c r="X37">
         <v>33</v>
       </c>
       <c r="Y37">
-        <v>751</v>
+        <v>906.2</v>
       </c>
       <c r="Z37">
         <v>25</v>
@@ -4769,13 +4772,13 @@
         <v>0.6</v>
       </c>
       <c r="AC37">
-        <v>11035</v>
+        <v>14015</v>
       </c>
       <c r="AD37">
-        <v>334.4</v>
+        <v>424.7</v>
       </c>
       <c r="AE37">
-        <v>502.1</v>
+        <v>523.6</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4784,28 +4787,28 @@
         <v>0</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="AI37">
-        <v>542</v>
+        <v>663</v>
       </c>
       <c r="AJ37">
-        <v>1721</v>
+        <v>2074</v>
       </c>
       <c r="AK37">
         <v>33</v>
       </c>
       <c r="AL37">
-        <v>689.7</v>
+        <v>609.3</v>
       </c>
       <c r="AM37">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AN37">
-        <v>48.5</v>
+        <v>69.7</v>
       </c>
       <c r="AO37">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -4814,13 +4817,13 @@
         <v>35</v>
       </c>
       <c r="C38">
-        <v>109130</v>
+        <v>128744</v>
       </c>
       <c r="D38">
-        <v>839.5</v>
+        <v>990.3</v>
       </c>
       <c r="E38">
-        <v>1812.5</v>
+        <v>2096.6</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -4829,19 +4832,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>166</v>
+        <v>230.5</v>
       </c>
       <c r="I38">
-        <v>978</v>
+        <v>1153.8</v>
       </c>
       <c r="J38">
-        <v>14162</v>
+        <v>16335</v>
       </c>
       <c r="K38">
         <v>130</v>
       </c>
       <c r="L38">
-        <v>1381.4</v>
+        <v>1629.7</v>
       </c>
       <c r="M38">
         <v>79</v>
@@ -4853,13 +4856,13 @@
         <v>0.1</v>
       </c>
       <c r="P38">
-        <v>53441</v>
+        <v>61451</v>
       </c>
       <c r="Q38">
-        <v>411.1</v>
+        <v>472.7</v>
       </c>
       <c r="R38">
-        <v>1885.8</v>
+        <v>2123.2</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -4868,19 +4871,19 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="V38">
-        <v>168.5</v>
+        <v>180.2</v>
       </c>
       <c r="W38">
-        <v>20111</v>
+        <v>22462</v>
       </c>
       <c r="X38">
         <v>130</v>
       </c>
       <c r="Y38">
-        <v>668</v>
+        <v>768.1</v>
       </c>
       <c r="Z38">
         <v>80</v>
@@ -4892,13 +4895,13 @@
         <v>0.1</v>
       </c>
       <c r="AC38">
-        <v>64618</v>
+        <v>49452</v>
       </c>
       <c r="AD38">
-        <v>497.1</v>
+        <v>380.4</v>
       </c>
       <c r="AE38">
-        <v>3242.5</v>
+        <v>565.2</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4907,28 +4910,28 @@
         <v>0</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="AI38">
-        <v>232</v>
+        <v>462.8</v>
       </c>
       <c r="AJ38">
-        <v>36858</v>
+        <v>2449</v>
       </c>
       <c r="AK38">
         <v>130</v>
       </c>
       <c r="AL38">
-        <v>1700.5</v>
+        <v>588.7</v>
       </c>
       <c r="AM38">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AN38">
-        <v>29.2</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="AO38">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -4937,13 +4940,13 @@
         <v>36</v>
       </c>
       <c r="C39">
-        <v>13335</v>
+        <v>15610</v>
       </c>
       <c r="D39">
-        <v>162.6</v>
+        <v>190.4</v>
       </c>
       <c r="E39">
-        <v>441.1</v>
+        <v>529.5</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -4955,16 +4958,16 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>114.2</v>
+        <v>119.8</v>
       </c>
       <c r="J39">
-        <v>3483</v>
+        <v>4227</v>
       </c>
       <c r="K39">
         <v>82</v>
       </c>
       <c r="L39">
-        <v>360.4</v>
+        <v>421.9</v>
       </c>
       <c r="M39">
         <v>37</v>
@@ -4976,13 +4979,13 @@
         <v>-0.4</v>
       </c>
       <c r="P39">
-        <v>1855</v>
+        <v>2235</v>
       </c>
       <c r="Q39">
-        <v>22.6</v>
+        <v>27.3</v>
       </c>
       <c r="R39">
-        <v>87.7</v>
+        <v>106.4</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -4994,34 +4997,34 @@
         <v>0</v>
       </c>
       <c r="V39">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="W39">
-        <v>767</v>
+        <v>932</v>
       </c>
       <c r="X39">
         <v>82</v>
       </c>
       <c r="Y39">
-        <v>48.8</v>
+        <v>60.4</v>
       </c>
       <c r="Z39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA39">
-        <v>46.3</v>
+        <v>45.1</v>
       </c>
       <c r="AB39">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>7292</v>
+        <v>20736</v>
       </c>
       <c r="AD39">
-        <v>88.90000000000001</v>
+        <v>252.9</v>
       </c>
       <c r="AE39">
-        <v>307.7</v>
+        <v>455.8</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -5030,28 +5033,28 @@
         <v>0</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>295.2</v>
       </c>
       <c r="AJ39">
-        <v>2234</v>
+        <v>2680</v>
       </c>
       <c r="AK39">
         <v>82</v>
       </c>
       <c r="AL39">
-        <v>662.9</v>
+        <v>432</v>
       </c>
       <c r="AM39">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="AN39">
-        <v>13.4</v>
+        <v>58.5</v>
       </c>
       <c r="AO39">
-        <v>-0.9</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -5060,13 +5063,13 @@
         <v>37</v>
       </c>
       <c r="C40">
-        <v>11038</v>
+        <v>12924</v>
       </c>
       <c r="D40">
-        <v>849.1</v>
+        <v>994.2</v>
       </c>
       <c r="E40">
-        <v>1187.9</v>
+        <v>1360.2</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -5075,19 +5078,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I40">
-        <v>1903</v>
+        <v>2288</v>
       </c>
       <c r="J40">
-        <v>3159</v>
+        <v>3423</v>
       </c>
       <c r="K40">
         <v>13</v>
       </c>
       <c r="L40">
-        <v>1379.8</v>
+        <v>1615.5</v>
       </c>
       <c r="M40">
         <v>8</v>
@@ -5099,13 +5102,13 @@
         <v>0.1</v>
       </c>
       <c r="P40">
-        <v>7760</v>
+        <v>8772</v>
       </c>
       <c r="Q40">
-        <v>596.9</v>
+        <v>674.8</v>
       </c>
       <c r="R40">
-        <v>1302</v>
+        <v>1478.9</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -5114,19 +5117,19 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="V40">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="W40">
-        <v>4541</v>
+        <v>5181</v>
       </c>
       <c r="X40">
         <v>13</v>
       </c>
       <c r="Y40">
-        <v>970</v>
+        <v>1096.5</v>
       </c>
       <c r="Z40">
         <v>8</v>
@@ -5138,13 +5141,13 @@
         <v>0.1</v>
       </c>
       <c r="AC40">
-        <v>3931</v>
+        <v>5956</v>
       </c>
       <c r="AD40">
-        <v>302.4</v>
+        <v>458.2</v>
       </c>
       <c r="AE40">
-        <v>628.5</v>
+        <v>525.4</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -5153,28 +5156,28 @@
         <v>0</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>1041</v>
       </c>
       <c r="AJ40">
-        <v>2030</v>
+        <v>1319</v>
       </c>
       <c r="AK40">
         <v>13</v>
       </c>
       <c r="AL40">
-        <v>1310.3</v>
+        <v>744.5</v>
       </c>
       <c r="AM40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AN40">
-        <v>23.1</v>
+        <v>61.5</v>
       </c>
       <c r="AO40">
-        <v>-0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41" spans="1:41">
@@ -5183,13 +5186,13 @@
         <v>38</v>
       </c>
       <c r="C41">
-        <v>40209</v>
+        <v>48262</v>
       </c>
       <c r="D41">
-        <v>484.4</v>
+        <v>581.5</v>
       </c>
       <c r="E41">
-        <v>961</v>
+        <v>1152.7</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5198,37 +5201,37 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I41">
-        <v>603.5</v>
+        <v>734</v>
       </c>
       <c r="J41">
-        <v>6213</v>
+        <v>7473</v>
       </c>
       <c r="K41">
         <v>83</v>
       </c>
       <c r="L41">
-        <v>773.2</v>
+        <v>946.3</v>
       </c>
       <c r="M41">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N41">
-        <v>62.7</v>
+        <v>61.4</v>
       </c>
       <c r="O41">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P41">
-        <v>12272</v>
+        <v>15078</v>
       </c>
       <c r="Q41">
-        <v>147.9</v>
+        <v>181.7</v>
       </c>
       <c r="R41">
-        <v>448</v>
+        <v>587.5</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -5237,37 +5240,37 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="V41">
-        <v>89.5</v>
+        <v>118.5</v>
       </c>
       <c r="W41">
-        <v>3753</v>
+        <v>5018</v>
       </c>
       <c r="X41">
         <v>83</v>
       </c>
       <c r="Y41">
-        <v>245.4</v>
+        <v>307.7</v>
       </c>
       <c r="Z41">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA41">
-        <v>60.2</v>
+        <v>59</v>
       </c>
       <c r="AB41">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>41986</v>
+        <v>29005</v>
       </c>
       <c r="AD41">
-        <v>505.9</v>
+        <v>349.5</v>
       </c>
       <c r="AE41">
-        <v>2248.5</v>
+        <v>480.9</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -5276,28 +5279,28 @@
         <v>0</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AI41">
-        <v>434</v>
+        <v>591</v>
       </c>
       <c r="AJ41">
-        <v>20246</v>
+        <v>1837</v>
       </c>
       <c r="AK41">
         <v>83</v>
       </c>
       <c r="AL41">
-        <v>1272.3</v>
+        <v>591.9</v>
       </c>
       <c r="AM41">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="AN41">
-        <v>39.8</v>
+        <v>59</v>
       </c>
       <c r="AO41">
-        <v>0.1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:41">
@@ -5306,13 +5309,13 @@
         <v>39</v>
       </c>
       <c r="C42">
-        <v>12416</v>
+        <v>14370</v>
       </c>
       <c r="D42">
-        <v>443.4</v>
+        <v>513.2</v>
       </c>
       <c r="E42">
-        <v>825.3</v>
+        <v>954.4</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5321,19 +5324,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I42">
-        <v>418.2</v>
+        <v>455.8</v>
       </c>
       <c r="J42">
-        <v>3039</v>
+        <v>3413</v>
       </c>
       <c r="K42">
         <v>28</v>
       </c>
       <c r="L42">
-        <v>776</v>
+        <v>898.1</v>
       </c>
       <c r="M42">
         <v>16</v>
@@ -5345,13 +5348,13 @@
         <v>-0</v>
       </c>
       <c r="P42">
-        <v>4489</v>
+        <v>5406</v>
       </c>
       <c r="Q42">
-        <v>160.3</v>
+        <v>193.1</v>
       </c>
       <c r="R42">
-        <v>416.9</v>
+        <v>499.7</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -5360,19 +5363,19 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V42">
-        <v>83.2</v>
+        <v>115.5</v>
       </c>
       <c r="W42">
-        <v>1644</v>
+        <v>1951</v>
       </c>
       <c r="X42">
         <v>28</v>
       </c>
       <c r="Y42">
-        <v>280.6</v>
+        <v>337.9</v>
       </c>
       <c r="Z42">
         <v>16</v>
@@ -5384,13 +5387,13 @@
         <v>-0.1</v>
       </c>
       <c r="AC42">
-        <v>14205</v>
+        <v>10147</v>
       </c>
       <c r="AD42">
-        <v>507.3</v>
+        <v>362.4</v>
       </c>
       <c r="AE42">
-        <v>1293</v>
+        <v>698.2</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -5399,28 +5402,28 @@
         <v>0</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AI42">
-        <v>282.2</v>
+        <v>277.5</v>
       </c>
       <c r="AJ42">
-        <v>6335</v>
+        <v>3105</v>
       </c>
       <c r="AK42">
         <v>28</v>
       </c>
       <c r="AL42">
-        <v>1578.3</v>
+        <v>724.8</v>
       </c>
       <c r="AM42">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AN42">
-        <v>32.1</v>
+        <v>50</v>
       </c>
       <c r="AO42">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -5429,13 +5432,13 @@
         <v>40</v>
       </c>
       <c r="C43">
-        <v>146034</v>
+        <v>167302</v>
       </c>
       <c r="D43">
-        <v>708.9</v>
+        <v>812.1</v>
       </c>
       <c r="E43">
-        <v>3399.5</v>
+        <v>3754.1</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5444,37 +5447,37 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="I43">
-        <v>502.2</v>
+        <v>585</v>
       </c>
       <c r="J43">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="K43">
         <v>206</v>
       </c>
       <c r="L43">
-        <v>1206.9</v>
+        <v>1394.2</v>
       </c>
       <c r="M43">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N43">
-        <v>58.7</v>
+        <v>58.3</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43">
-        <v>60480</v>
+        <v>70884</v>
       </c>
       <c r="Q43">
-        <v>293.6</v>
+        <v>344.1</v>
       </c>
       <c r="R43">
-        <v>1506.1</v>
+        <v>1777.1</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -5483,37 +5486,37 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V43">
-        <v>126.8</v>
+        <v>151.8</v>
       </c>
       <c r="W43">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="X43">
         <v>206</v>
       </c>
       <c r="Y43">
-        <v>468.8</v>
+        <v>553.8</v>
       </c>
       <c r="Z43">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA43">
-        <v>62.6</v>
+        <v>62.1</v>
       </c>
       <c r="AB43">
         <v>0.1</v>
       </c>
       <c r="AC43">
-        <v>61979</v>
+        <v>107104</v>
       </c>
       <c r="AD43">
-        <v>300.9</v>
+        <v>519.9</v>
       </c>
       <c r="AE43">
-        <v>493.1</v>
+        <v>710.2</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -5522,28 +5525,28 @@
         <v>0</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="AI43">
-        <v>470.2</v>
+        <v>751</v>
       </c>
       <c r="AJ43">
-        <v>2322</v>
+        <v>4927</v>
       </c>
       <c r="AK43">
         <v>206</v>
       </c>
       <c r="AL43">
-        <v>696.4</v>
+        <v>728.6</v>
       </c>
       <c r="AM43">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="AN43">
-        <v>43.2</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="AO43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="44" spans="1:41">
@@ -5552,13 +5555,13 @@
         <v>41</v>
       </c>
       <c r="C44">
-        <v>7188</v>
+        <v>8360</v>
       </c>
       <c r="D44">
-        <v>266.2</v>
+        <v>309.6</v>
       </c>
       <c r="E44">
-        <v>361.5</v>
+        <v>429.7</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -5567,19 +5570,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44">
-        <v>468</v>
+        <v>560</v>
       </c>
       <c r="J44">
-        <v>1148</v>
+        <v>1538</v>
       </c>
       <c r="K44">
         <v>27</v>
       </c>
       <c r="L44">
-        <v>449.2</v>
+        <v>522.5</v>
       </c>
       <c r="M44">
         <v>16</v>
@@ -5591,13 +5594,13 @@
         <v>0.1</v>
       </c>
       <c r="P44">
-        <v>1206</v>
+        <v>1381</v>
       </c>
       <c r="Q44">
-        <v>44.7</v>
+        <v>51.1</v>
       </c>
       <c r="R44">
-        <v>79.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -5606,37 +5609,37 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V44">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="W44">
-        <v>341</v>
+        <v>439</v>
       </c>
       <c r="X44">
         <v>27</v>
       </c>
       <c r="Y44">
-        <v>86.09999999999999</v>
+        <v>86.3</v>
       </c>
       <c r="Z44">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AA44">
-        <v>51.9</v>
+        <v>59.3</v>
       </c>
       <c r="AB44">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>1482</v>
+        <v>7631</v>
       </c>
       <c r="AD44">
-        <v>54.9</v>
+        <v>282.6</v>
       </c>
       <c r="AE44">
-        <v>169.9</v>
+        <v>362.5</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -5645,28 +5648,28 @@
         <v>0</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AI44">
-        <v>0</v>
+        <v>419.5</v>
       </c>
       <c r="AJ44">
-        <v>750</v>
+        <v>1213</v>
       </c>
       <c r="AK44">
         <v>27</v>
       </c>
       <c r="AL44">
-        <v>370.5</v>
+        <v>401.6</v>
       </c>
       <c r="AM44">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AN44">
-        <v>14.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="AO44">
-        <v>-0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="45" spans="1:41">
@@ -5675,13 +5678,13 @@
         <v>42</v>
       </c>
       <c r="C45">
-        <v>145843</v>
+        <v>172848</v>
       </c>
       <c r="D45">
-        <v>530.3</v>
+        <v>628.5</v>
       </c>
       <c r="E45">
-        <v>1373.8</v>
+        <v>1643.3</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -5690,37 +5693,37 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I45">
-        <v>558</v>
+        <v>650</v>
       </c>
       <c r="J45">
-        <v>17279</v>
+        <v>20844</v>
       </c>
       <c r="K45">
         <v>275</v>
       </c>
       <c r="L45">
-        <v>911.5</v>
+        <v>1087.1</v>
       </c>
       <c r="M45">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N45">
-        <v>58.2</v>
+        <v>57.8</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45">
-        <v>69763</v>
+        <v>83050</v>
       </c>
       <c r="Q45">
-        <v>253.7</v>
+        <v>302</v>
       </c>
       <c r="R45">
-        <v>919.9</v>
+        <v>1112.1</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -5729,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V45">
-        <v>107</v>
+        <v>136.5</v>
       </c>
       <c r="W45">
-        <v>7809</v>
+        <v>9950</v>
       </c>
       <c r="X45">
         <v>275</v>
       </c>
       <c r="Y45">
-        <v>422.8</v>
+        <v>503.3</v>
       </c>
       <c r="Z45">
         <v>165</v>
@@ -5753,13 +5756,13 @@
         <v>0</v>
       </c>
       <c r="AC45">
-        <v>58211</v>
+        <v>94826</v>
       </c>
       <c r="AD45">
-        <v>211.7</v>
+        <v>344.8</v>
       </c>
       <c r="AE45">
-        <v>458.2</v>
+        <v>549.9</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -5768,28 +5771,28 @@
         <v>0</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="AI45">
-        <v>280</v>
+        <v>459</v>
       </c>
       <c r="AJ45">
-        <v>2696</v>
+        <v>3346</v>
       </c>
       <c r="AK45">
         <v>275</v>
       </c>
       <c r="AL45">
-        <v>669.1</v>
+        <v>557.8</v>
       </c>
       <c r="AM45">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="AN45">
-        <v>31.6</v>
+        <v>61.8</v>
       </c>
       <c r="AO45">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -5800,34 +5803,34 @@
         <v>22</v>
       </c>
       <c r="C46">
-        <v>13346</v>
+        <v>15122</v>
       </c>
       <c r="D46">
-        <v>1482.9</v>
+        <v>1680.2</v>
       </c>
       <c r="E46">
-        <v>1273.5</v>
+        <v>1337.6</v>
       </c>
       <c r="F46">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="G46">
-        <v>528</v>
+        <v>778</v>
       </c>
       <c r="H46">
-        <v>815</v>
+        <v>1039</v>
       </c>
       <c r="I46">
-        <v>2129</v>
+        <v>2490</v>
       </c>
       <c r="J46">
-        <v>3864</v>
+        <v>4225</v>
       </c>
       <c r="K46">
         <v>9</v>
       </c>
       <c r="L46">
-        <v>1482.9</v>
+        <v>1680.2</v>
       </c>
       <c r="M46">
         <v>9</v>
@@ -5839,34 +5842,34 @@
         <v>1.5</v>
       </c>
       <c r="P46">
-        <v>2064</v>
+        <v>2299</v>
       </c>
       <c r="Q46">
-        <v>229.3</v>
+        <v>255.4</v>
       </c>
       <c r="R46">
-        <v>129.6</v>
+        <v>138.9</v>
       </c>
       <c r="S46">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T46">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="U46">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="V46">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="W46">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="X46">
         <v>9</v>
       </c>
       <c r="Y46">
-        <v>229.3</v>
+        <v>255.4</v>
       </c>
       <c r="Z46">
         <v>9</v>
@@ -5875,46 +5878,46 @@
         <v>100</v>
       </c>
       <c r="AB46">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC46">
-        <v>3858</v>
+        <v>5322</v>
       </c>
       <c r="AD46">
-        <v>428.7</v>
+        <v>591.3</v>
       </c>
       <c r="AE46">
-        <v>684.6</v>
+        <v>804.7</v>
       </c>
       <c r="AF46">
         <v>0</v>
       </c>
       <c r="AG46">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="AI46">
-        <v>808</v>
+        <v>890</v>
       </c>
       <c r="AJ46">
-        <v>1748</v>
+        <v>2204</v>
       </c>
       <c r="AK46">
         <v>9</v>
       </c>
       <c r="AL46">
-        <v>1286</v>
+        <v>760.3</v>
       </c>
       <c r="AM46">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AN46">
-        <v>33.3</v>
+        <v>77.8</v>
       </c>
       <c r="AO46">
-        <v>-0.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="47" spans="1:41">
@@ -5923,121 +5926,121 @@
         <v>23</v>
       </c>
       <c r="C47">
-        <v>69907</v>
+        <v>83558</v>
       </c>
       <c r="D47">
-        <v>1625.7</v>
+        <v>1943.2</v>
       </c>
       <c r="E47">
-        <v>1836.4</v>
+        <v>2195.9</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>153.5</v>
+        <v>99</v>
       </c>
       <c r="H47">
-        <v>1298</v>
+        <v>1523</v>
       </c>
       <c r="I47">
-        <v>2518.5</v>
+        <v>2938</v>
       </c>
       <c r="J47">
-        <v>8682</v>
+        <v>10192</v>
       </c>
       <c r="K47">
         <v>43</v>
       </c>
       <c r="L47">
-        <v>1997.3</v>
+        <v>2457.6</v>
       </c>
       <c r="M47">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N47">
-        <v>81.40000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="O47">
         <v>0.8</v>
       </c>
       <c r="P47">
-        <v>22936</v>
+        <v>26414</v>
       </c>
       <c r="Q47">
-        <v>533.4</v>
+        <v>614.3</v>
       </c>
       <c r="R47">
-        <v>1495</v>
+        <v>1716.2</v>
       </c>
       <c r="S47">
         <v>0</v>
       </c>
       <c r="T47">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U47">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="V47">
-        <v>373.5</v>
+        <v>513.5</v>
       </c>
       <c r="W47">
-        <v>9692</v>
+        <v>11140</v>
       </c>
       <c r="X47">
         <v>43</v>
       </c>
       <c r="Y47">
-        <v>655.3</v>
+        <v>776.9</v>
       </c>
       <c r="Z47">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA47">
-        <v>81.40000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="AB47">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AC47">
-        <v>23920</v>
+        <v>28317</v>
       </c>
       <c r="AD47">
-        <v>556.3</v>
+        <v>658.5</v>
       </c>
       <c r="AE47">
-        <v>662.4</v>
+        <v>610</v>
       </c>
       <c r="AF47">
         <v>0</v>
       </c>
       <c r="AG47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH47">
-        <v>469</v>
+        <v>699</v>
       </c>
       <c r="AI47">
-        <v>860</v>
+        <v>1121</v>
       </c>
       <c r="AJ47">
-        <v>3303</v>
+        <v>2094</v>
       </c>
       <c r="AK47">
         <v>43</v>
       </c>
       <c r="AL47">
-        <v>854.3</v>
+        <v>884.9</v>
       </c>
       <c r="AM47">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AN47">
-        <v>65.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="AO47">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -6046,34 +6049,34 @@
         <v>25</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>10.6</v>
+        <v>11.3</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H48">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I48">
-        <v>11.2</v>
+        <v>12</v>
       </c>
       <c r="J48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K48">
         <v>2</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -6085,34 +6088,34 @@
         <v>-0.3</v>
       </c>
       <c r="P48">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q48">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="R48">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="S48">
         <v>0</v>
       </c>
       <c r="T48">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="U48">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="V48">
-        <v>10.5</v>
+        <v>12.8</v>
       </c>
       <c r="W48">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X48">
         <v>2</v>
       </c>
       <c r="Y48">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Z48">
         <v>1</v>
@@ -6124,43 +6127,40 @@
         <v>-0.3</v>
       </c>
       <c r="AC48">
-        <v>1116</v>
+        <v>0</v>
       </c>
       <c r="AD48">
-        <v>558</v>
+        <v>0</v>
       </c>
       <c r="AE48">
-        <v>789.1</v>
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
       </c>
       <c r="AG48">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="AH48">
-        <v>558</v>
+        <v>0</v>
       </c>
       <c r="AI48">
-        <v>837</v>
+        <v>0</v>
       </c>
       <c r="AJ48">
-        <v>1116</v>
+        <v>0</v>
       </c>
       <c r="AK48">
         <v>2</v>
       </c>
-      <c r="AL48">
-        <v>1116</v>
-      </c>
       <c r="AM48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AO48">
-        <v>0.5</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="49" spans="1:41">
@@ -6169,31 +6169,31 @@
         <v>28</v>
       </c>
       <c r="C49">
-        <v>552</v>
+        <v>650</v>
       </c>
       <c r="D49">
-        <v>552</v>
+        <v>650</v>
       </c>
       <c r="F49">
-        <v>552</v>
+        <v>650</v>
       </c>
       <c r="G49">
-        <v>552</v>
+        <v>650</v>
       </c>
       <c r="H49">
-        <v>552</v>
+        <v>650</v>
       </c>
       <c r="I49">
-        <v>552</v>
+        <v>650</v>
       </c>
       <c r="J49">
-        <v>552</v>
+        <v>650</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49">
-        <v>552</v>
+        <v>650</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -6205,31 +6205,31 @@
         <v>1.5</v>
       </c>
       <c r="P49">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Q49">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="S49">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="T49">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="U49">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="V49">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="W49">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="X49">
         <v>1</v>
       </c>
       <c r="Y49">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Z49">
         <v>1</v>
@@ -6238,40 +6238,43 @@
         <v>100</v>
       </c>
       <c r="AB49">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AI49">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AJ49">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AK49">
         <v>1</v>
       </c>
+      <c r="AL49">
+        <v>217</v>
+      </c>
       <c r="AM49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO49">
-        <v>-1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="50" spans="1:41">
@@ -6280,31 +6283,31 @@
         <v>29</v>
       </c>
       <c r="C50">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="D50">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="F50">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="G50">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="H50">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="I50">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="J50">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -6316,31 +6319,31 @@
         <v>1.5</v>
       </c>
       <c r="P50">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="Q50">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="S50">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="T50">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="U50">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="V50">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="W50">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="X50">
         <v>1</v>
       </c>
       <c r="Y50">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="Z50">
         <v>1</v>
@@ -6349,40 +6352,43 @@
         <v>100</v>
       </c>
       <c r="AB50">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK50">
         <v>1</v>
       </c>
+      <c r="AL50">
+        <v>2</v>
+      </c>
       <c r="AM50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO50">
-        <v>-1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="51" spans="1:41">
@@ -6391,13 +6397,13 @@
         <v>31</v>
       </c>
       <c r="C51">
-        <v>2037</v>
+        <v>2309</v>
       </c>
       <c r="D51">
-        <v>509.2</v>
+        <v>577.2</v>
       </c>
       <c r="E51">
-        <v>1018.5</v>
+        <v>1154.5</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -6409,16 +6415,16 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>509.2</v>
+        <v>577.2</v>
       </c>
       <c r="J51">
-        <v>2037</v>
+        <v>2309</v>
       </c>
       <c r="K51">
         <v>4</v>
       </c>
       <c r="L51">
-        <v>2037</v>
+        <v>2309</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -6430,13 +6436,13 @@
         <v>-1.1</v>
       </c>
       <c r="P51">
-        <v>533</v>
+        <v>617</v>
       </c>
       <c r="Q51">
-        <v>133.2</v>
+        <v>154.2</v>
       </c>
       <c r="R51">
-        <v>266.5</v>
+        <v>308.5</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -6448,16 +6454,16 @@
         <v>0</v>
       </c>
       <c r="V51">
-        <v>133.2</v>
+        <v>154.2</v>
       </c>
       <c r="W51">
-        <v>533</v>
+        <v>617</v>
       </c>
       <c r="X51">
         <v>4</v>
       </c>
       <c r="Y51">
-        <v>533</v>
+        <v>617</v>
       </c>
       <c r="Z51">
         <v>1</v>
@@ -6469,13 +6475,13 @@
         <v>-1.2</v>
       </c>
       <c r="AC51">
-        <v>5316</v>
+        <v>14</v>
       </c>
       <c r="AD51">
-        <v>1329</v>
+        <v>3.5</v>
       </c>
       <c r="AE51">
-        <v>2658</v>
+        <v>7</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -6487,16 +6493,16 @@
         <v>0</v>
       </c>
       <c r="AI51">
-        <v>1329</v>
+        <v>3.5</v>
       </c>
       <c r="AJ51">
-        <v>5316</v>
+        <v>14</v>
       </c>
       <c r="AK51">
         <v>4</v>
       </c>
       <c r="AL51">
-        <v>5316</v>
+        <v>14</v>
       </c>
       <c r="AM51">
         <v>1</v>
@@ -6505,7 +6511,7 @@
         <v>25</v>
       </c>
       <c r="AO51">
-        <v>-0.4</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="52" spans="1:41">
@@ -6514,34 +6520,34 @@
         <v>32</v>
       </c>
       <c r="C52">
-        <v>32970</v>
+        <v>38506</v>
       </c>
       <c r="D52">
-        <v>3663.3</v>
+        <v>4278.4</v>
       </c>
       <c r="E52">
-        <v>3082.6</v>
+        <v>3531.8</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>1066</v>
+        <v>1300</v>
       </c>
       <c r="H52">
-        <v>3281</v>
+        <v>4167</v>
       </c>
       <c r="I52">
-        <v>4944</v>
+        <v>5854</v>
       </c>
       <c r="J52">
-        <v>8682</v>
+        <v>10192</v>
       </c>
       <c r="K52">
         <v>9</v>
       </c>
       <c r="L52">
-        <v>4121.2</v>
+        <v>4813.2</v>
       </c>
       <c r="M52">
         <v>8</v>
@@ -6553,34 +6559,34 @@
         <v>1.1</v>
       </c>
       <c r="P52">
-        <v>15707</v>
+        <v>18162</v>
       </c>
       <c r="Q52">
-        <v>1745.2</v>
+        <v>2018</v>
       </c>
       <c r="R52">
-        <v>3036.7</v>
+        <v>3494.3</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="U52">
-        <v>871</v>
+        <v>999</v>
       </c>
       <c r="V52">
-        <v>1166</v>
+        <v>1389</v>
       </c>
       <c r="W52">
-        <v>9691</v>
+        <v>11139</v>
       </c>
       <c r="X52">
         <v>9</v>
       </c>
       <c r="Y52">
-        <v>1963.4</v>
+        <v>2270.2</v>
       </c>
       <c r="Z52">
         <v>8</v>
@@ -6592,43 +6598,43 @@
         <v>1.1</v>
       </c>
       <c r="AC52">
-        <v>7346</v>
+        <v>7885</v>
       </c>
       <c r="AD52">
-        <v>816.2</v>
+        <v>876.1</v>
       </c>
       <c r="AE52">
-        <v>584.2</v>
+        <v>794</v>
       </c>
       <c r="AF52">
         <v>0</v>
       </c>
       <c r="AG52">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AH52">
-        <v>1028</v>
+        <v>886</v>
       </c>
       <c r="AI52">
-        <v>1091</v>
+        <v>1486</v>
       </c>
       <c r="AJ52">
-        <v>1584</v>
+        <v>1862</v>
       </c>
       <c r="AK52">
         <v>9</v>
       </c>
       <c r="AL52">
-        <v>1049.4</v>
+        <v>1314.2</v>
       </c>
       <c r="AM52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN52">
-        <v>77.8</v>
+        <v>66.7</v>
       </c>
       <c r="AO52">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="53" spans="1:41">
@@ -6637,13 +6643,13 @@
         <v>33</v>
       </c>
       <c r="C53">
-        <v>18533</v>
+        <v>21883</v>
       </c>
       <c r="D53">
-        <v>1323.8</v>
+        <v>1563.1</v>
       </c>
       <c r="E53">
-        <v>1473.1</v>
+        <v>1790.7</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -6652,19 +6658,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>859</v>
+        <v>1026.5</v>
       </c>
       <c r="I53">
-        <v>2102</v>
+        <v>2497.8</v>
       </c>
       <c r="J53">
-        <v>4641</v>
+        <v>5937</v>
       </c>
       <c r="K53">
         <v>14</v>
       </c>
       <c r="L53">
-        <v>2059.2</v>
+        <v>2431.4</v>
       </c>
       <c r="M53">
         <v>9</v>
@@ -6676,13 +6682,13 @@
         <v>0.2</v>
       </c>
       <c r="P53">
-        <v>4344</v>
+        <v>4947</v>
       </c>
       <c r="Q53">
-        <v>310.3</v>
+        <v>353.4</v>
       </c>
       <c r="R53">
-        <v>412.7</v>
+        <v>484.9</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -6691,19 +6697,19 @@
         <v>0</v>
       </c>
       <c r="U53">
-        <v>193.5</v>
+        <v>213.5</v>
       </c>
       <c r="V53">
-        <v>445</v>
+        <v>486.5</v>
       </c>
       <c r="W53">
-        <v>1490</v>
+        <v>1796</v>
       </c>
       <c r="X53">
         <v>14</v>
       </c>
       <c r="Y53">
-        <v>482.7</v>
+        <v>549.7</v>
       </c>
       <c r="Z53">
         <v>9</v>
@@ -6715,13 +6721,13 @@
         <v>0.2</v>
       </c>
       <c r="AC53">
-        <v>4891</v>
+        <v>4465</v>
       </c>
       <c r="AD53">
-        <v>349.4</v>
+        <v>318.9</v>
       </c>
       <c r="AE53">
-        <v>587.7</v>
+        <v>568.5</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -6733,25 +6739,25 @@
         <v>0</v>
       </c>
       <c r="AI53">
-        <v>621.5</v>
+        <v>356.5</v>
       </c>
       <c r="AJ53">
-        <v>1522</v>
+        <v>1728</v>
       </c>
       <c r="AK53">
         <v>14</v>
       </c>
       <c r="AL53">
-        <v>978.2</v>
+        <v>744.2</v>
       </c>
       <c r="AM53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN53">
-        <v>35.7</v>
+        <v>42.9</v>
       </c>
       <c r="AO53">
-        <v>-0</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="54" spans="1:41">
@@ -6760,13 +6766,13 @@
         <v>34</v>
       </c>
       <c r="C54">
-        <v>2268</v>
+        <v>3031</v>
       </c>
       <c r="D54">
-        <v>756</v>
+        <v>1010.3</v>
       </c>
       <c r="E54">
-        <v>1309.4</v>
+        <v>1749.9</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -6778,16 +6784,16 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1134</v>
+        <v>1515.5</v>
       </c>
       <c r="J54">
-        <v>2268</v>
+        <v>3031</v>
       </c>
       <c r="K54">
         <v>3</v>
       </c>
       <c r="L54">
-        <v>2268</v>
+        <v>3031</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -6799,13 +6805,13 @@
         <v>-0.8</v>
       </c>
       <c r="P54">
-        <v>965</v>
+        <v>1130</v>
       </c>
       <c r="Q54">
-        <v>321.7</v>
+        <v>376.7</v>
       </c>
       <c r="R54">
-        <v>557.1</v>
+        <v>652.4</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -6817,16 +6823,16 @@
         <v>0</v>
       </c>
       <c r="V54">
-        <v>482.5</v>
+        <v>565</v>
       </c>
       <c r="W54">
-        <v>965</v>
+        <v>1130</v>
       </c>
       <c r="X54">
         <v>3</v>
       </c>
       <c r="Y54">
-        <v>965</v>
+        <v>1130</v>
       </c>
       <c r="Z54">
         <v>1</v>
@@ -6838,13 +6844,13 @@
         <v>-0.9</v>
       </c>
       <c r="AC54">
-        <v>837</v>
+        <v>1197</v>
       </c>
       <c r="AD54">
-        <v>279</v>
+        <v>399</v>
       </c>
       <c r="AE54">
-        <v>483.2</v>
+        <v>691.1</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -6856,16 +6862,16 @@
         <v>0</v>
       </c>
       <c r="AI54">
-        <v>418.5</v>
+        <v>598.5</v>
       </c>
       <c r="AJ54">
-        <v>837</v>
+        <v>1197</v>
       </c>
       <c r="AK54">
         <v>3</v>
       </c>
       <c r="AL54">
-        <v>837</v>
+        <v>1197</v>
       </c>
       <c r="AM54">
         <v>1</v>
@@ -6874,7 +6880,7 @@
         <v>33.3</v>
       </c>
       <c r="AO54">
-        <v>-0.1</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="55" spans="1:41">
@@ -6883,34 +6889,34 @@
         <v>35</v>
       </c>
       <c r="C55">
-        <v>2323</v>
+        <v>2690</v>
       </c>
       <c r="D55">
-        <v>1161.5</v>
+        <v>1345</v>
       </c>
       <c r="E55">
-        <v>1642.6</v>
+        <v>1902.1</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>580.8</v>
+        <v>672.5</v>
       </c>
       <c r="H55">
-        <v>1161.5</v>
+        <v>1345</v>
       </c>
       <c r="I55">
-        <v>1742.2</v>
+        <v>2017.5</v>
       </c>
       <c r="J55">
-        <v>2323</v>
+        <v>2690</v>
       </c>
       <c r="K55">
         <v>2</v>
       </c>
       <c r="L55">
-        <v>2323</v>
+        <v>2690</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -6922,34 +6928,34 @@
         <v>-0.3</v>
       </c>
       <c r="P55">
-        <v>485</v>
+        <v>565</v>
       </c>
       <c r="Q55">
-        <v>242.5</v>
+        <v>282.5</v>
       </c>
       <c r="R55">
-        <v>342.9</v>
+        <v>399.5</v>
       </c>
       <c r="S55">
         <v>0</v>
       </c>
       <c r="T55">
-        <v>121.2</v>
+        <v>141.2</v>
       </c>
       <c r="U55">
-        <v>242.5</v>
+        <v>282.5</v>
       </c>
       <c r="V55">
-        <v>363.8</v>
+        <v>423.8</v>
       </c>
       <c r="W55">
-        <v>485</v>
+        <v>565</v>
       </c>
       <c r="X55">
         <v>2</v>
       </c>
       <c r="Y55">
-        <v>485</v>
+        <v>565</v>
       </c>
       <c r="Z55">
         <v>1</v>
@@ -6961,34 +6967,34 @@
         <v>-0.3</v>
       </c>
       <c r="AC55">
-        <v>1447</v>
+        <v>1743</v>
       </c>
       <c r="AD55">
-        <v>723.5</v>
+        <v>871.5</v>
       </c>
       <c r="AE55">
-        <v>409.4</v>
+        <v>580.5</v>
       </c>
       <c r="AF55">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="AG55">
-        <v>578.8</v>
+        <v>666.2</v>
       </c>
       <c r="AH55">
-        <v>723.5</v>
+        <v>871.5</v>
       </c>
       <c r="AI55">
-        <v>868.2</v>
+        <v>1076.8</v>
       </c>
       <c r="AJ55">
-        <v>1013</v>
+        <v>1282</v>
       </c>
       <c r="AK55">
         <v>2</v>
       </c>
       <c r="AL55">
-        <v>723.5</v>
+        <v>871.5</v>
       </c>
       <c r="AM55">
         <v>2</v>
@@ -6997,7 +7003,7 @@
         <v>100</v>
       </c>
       <c r="AO55">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="56" spans="1:41">
@@ -7006,31 +7012,31 @@
         <v>36</v>
       </c>
       <c r="C56">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="D56">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="F56">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="G56">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="H56">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="I56">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="J56">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -7042,31 +7048,31 @@
         <v>1.5</v>
       </c>
       <c r="P56">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="Q56">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="S56">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="T56">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="U56">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="V56">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="W56">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="X56">
         <v>1</v>
       </c>
       <c r="Y56">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="Z56">
         <v>1</v>
@@ -7075,34 +7081,34 @@
         <v>100</v>
       </c>
       <c r="AB56">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC56">
-        <v>823</v>
+        <v>978</v>
       </c>
       <c r="AD56">
-        <v>823</v>
+        <v>978</v>
       </c>
       <c r="AF56">
-        <v>823</v>
+        <v>978</v>
       </c>
       <c r="AG56">
-        <v>823</v>
+        <v>978</v>
       </c>
       <c r="AH56">
-        <v>823</v>
+        <v>978</v>
       </c>
       <c r="AI56">
-        <v>823</v>
+        <v>978</v>
       </c>
       <c r="AJ56">
-        <v>823</v>
+        <v>978</v>
       </c>
       <c r="AK56">
         <v>1</v>
       </c>
       <c r="AL56">
-        <v>823</v>
+        <v>978</v>
       </c>
       <c r="AM56">
         <v>1</v>
@@ -7111,7 +7117,7 @@
         <v>100</v>
       </c>
       <c r="AO56">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="57" spans="1:41">
@@ -7120,34 +7126,34 @@
         <v>37</v>
       </c>
       <c r="C57">
-        <v>4362</v>
+        <v>5266</v>
       </c>
       <c r="D57">
-        <v>2181</v>
+        <v>2633</v>
       </c>
       <c r="E57">
-        <v>1031</v>
+        <v>1233.2</v>
       </c>
       <c r="F57">
-        <v>1452</v>
+        <v>1761</v>
       </c>
       <c r="G57">
-        <v>1816.5</v>
+        <v>2197</v>
       </c>
       <c r="H57">
-        <v>2181</v>
+        <v>2633</v>
       </c>
       <c r="I57">
-        <v>2545.5</v>
+        <v>3069</v>
       </c>
       <c r="J57">
-        <v>2910</v>
+        <v>3505</v>
       </c>
       <c r="K57">
         <v>2</v>
       </c>
       <c r="L57">
-        <v>2181</v>
+        <v>2633</v>
       </c>
       <c r="M57">
         <v>2</v>
@@ -7159,34 +7165,34 @@
         <v>1.5</v>
       </c>
       <c r="P57">
-        <v>723</v>
+        <v>920</v>
       </c>
       <c r="Q57">
-        <v>361.5</v>
+        <v>460</v>
       </c>
       <c r="R57">
-        <v>171.8</v>
+        <v>152.7</v>
       </c>
       <c r="S57">
-        <v>240</v>
+        <v>352</v>
       </c>
       <c r="T57">
-        <v>300.8</v>
+        <v>406</v>
       </c>
       <c r="U57">
-        <v>361.5</v>
+        <v>460</v>
       </c>
       <c r="V57">
-        <v>422.2</v>
+        <v>514</v>
       </c>
       <c r="W57">
-        <v>483</v>
+        <v>568</v>
       </c>
       <c r="X57">
         <v>2</v>
       </c>
       <c r="Y57">
-        <v>361.5</v>
+        <v>460</v>
       </c>
       <c r="Z57">
         <v>2</v>
@@ -7195,37 +7201,37 @@
         <v>100</v>
       </c>
       <c r="AB57">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC57">
-        <v>614</v>
+        <v>673</v>
       </c>
       <c r="AD57">
-        <v>307</v>
+        <v>336.5</v>
       </c>
       <c r="AE57">
-        <v>434.2</v>
+        <v>475.9</v>
       </c>
       <c r="AF57">
         <v>0</v>
       </c>
       <c r="AG57">
-        <v>153.5</v>
+        <v>168.2</v>
       </c>
       <c r="AH57">
-        <v>307</v>
+        <v>336.5</v>
       </c>
       <c r="AI57">
-        <v>460.5</v>
+        <v>504.8</v>
       </c>
       <c r="AJ57">
-        <v>614</v>
+        <v>673</v>
       </c>
       <c r="AK57">
         <v>2</v>
       </c>
       <c r="AL57">
-        <v>614</v>
+        <v>673</v>
       </c>
       <c r="AM57">
         <v>1</v>
@@ -7234,7 +7240,7 @@
         <v>50</v>
       </c>
       <c r="AO57">
-        <v>0.5</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="58" spans="1:41">
@@ -7243,31 +7249,31 @@
         <v>42</v>
       </c>
       <c r="C58">
-        <v>217</v>
+        <v>322</v>
       </c>
       <c r="D58">
-        <v>217</v>
+        <v>322</v>
       </c>
       <c r="F58">
-        <v>217</v>
+        <v>322</v>
       </c>
       <c r="G58">
-        <v>217</v>
+        <v>322</v>
       </c>
       <c r="H58">
-        <v>217</v>
+        <v>322</v>
       </c>
       <c r="I58">
-        <v>217</v>
+        <v>322</v>
       </c>
       <c r="J58">
-        <v>217</v>
+        <v>322</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58">
-        <v>217</v>
+        <v>322</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -7279,31 +7285,31 @@
         <v>1.5</v>
       </c>
       <c r="P58">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="Q58">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="S58">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="T58">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="U58">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="V58">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="W58">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="X58">
         <v>1</v>
       </c>
       <c r="Y58">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="Z58">
         <v>1</v>
@@ -7312,34 +7318,34 @@
         <v>100</v>
       </c>
       <c r="AB58">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC58">
-        <v>1419</v>
+        <v>1805</v>
       </c>
       <c r="AD58">
-        <v>1419</v>
+        <v>1805</v>
       </c>
       <c r="AF58">
-        <v>1419</v>
+        <v>1805</v>
       </c>
       <c r="AG58">
-        <v>1419</v>
+        <v>1805</v>
       </c>
       <c r="AH58">
-        <v>1419</v>
+        <v>1805</v>
       </c>
       <c r="AI58">
-        <v>1419</v>
+        <v>1805</v>
       </c>
       <c r="AJ58">
-        <v>1419</v>
+        <v>1805</v>
       </c>
       <c r="AK58">
         <v>1</v>
       </c>
       <c r="AL58">
-        <v>1419</v>
+        <v>1805</v>
       </c>
       <c r="AM58">
         <v>1</v>
@@ -7348,7 +7354,7 @@
         <v>100</v>
       </c>
       <c r="AO58">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="59" spans="1:41">
@@ -7359,34 +7365,34 @@
         <v>23</v>
       </c>
       <c r="C59">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D59">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="E59">
-        <v>33.2</v>
+        <v>36.1</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>11.8</v>
+        <v>12.8</v>
       </c>
       <c r="H59">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="I59">
-        <v>35.2</v>
+        <v>38.2</v>
       </c>
       <c r="J59">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K59">
         <v>2</v>
       </c>
       <c r="L59">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -7398,34 +7404,34 @@
         <v>-0.3</v>
       </c>
       <c r="P59">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q59">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="R59">
+        <v>4.9</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1.8</v>
+      </c>
+      <c r="U59">
         <v>3.5</v>
       </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <v>1.2</v>
-      </c>
-      <c r="U59">
-        <v>2.5</v>
-      </c>
       <c r="V59">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="W59">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X59">
         <v>2</v>
       </c>
       <c r="Y59">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z59">
         <v>1</v>
@@ -7437,40 +7443,43 @@
         <v>-0.3</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="AE59">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="AF59">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AG59">
-        <v>0</v>
+        <v>38.2</v>
       </c>
       <c r="AH59">
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="AI59">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="AJ59">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AK59">
         <v>2</v>
       </c>
+      <c r="AL59">
+        <v>43.5</v>
+      </c>
       <c r="AM59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN59">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO59">
-        <v>-1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="60" spans="1:41">
@@ -7479,34 +7488,34 @@
         <v>24</v>
       </c>
       <c r="C60">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D60">
-        <v>44.5</v>
+        <v>47.5</v>
       </c>
       <c r="E60">
-        <v>60.1</v>
+        <v>64.3</v>
       </c>
       <c r="F60">
         <v>2</v>
       </c>
       <c r="G60">
-        <v>23.2</v>
+        <v>24.8</v>
       </c>
       <c r="H60">
-        <v>44.5</v>
+        <v>47.5</v>
       </c>
       <c r="I60">
-        <v>65.8</v>
+        <v>70.2</v>
       </c>
       <c r="J60">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K60">
         <v>2</v>
       </c>
       <c r="L60">
-        <v>44.5</v>
+        <v>47.5</v>
       </c>
       <c r="M60">
         <v>2</v>
@@ -7518,34 +7527,34 @@
         <v>1.5</v>
       </c>
       <c r="P60">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R60">
-        <v>7.1</v>
+        <v>4.2</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="U60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V60">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="W60">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X60">
         <v>2</v>
       </c>
       <c r="Y60">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z60">
         <v>1</v>
@@ -7557,34 +7566,34 @@
         <v>-0.3</v>
       </c>
       <c r="AC60">
-        <v>590</v>
+        <v>652</v>
       </c>
       <c r="AD60">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="AE60">
-        <v>417.2</v>
+        <v>461</v>
       </c>
       <c r="AF60">
         <v>0</v>
       </c>
       <c r="AG60">
-        <v>147.5</v>
+        <v>163</v>
       </c>
       <c r="AH60">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="AI60">
-        <v>442.5</v>
+        <v>489</v>
       </c>
       <c r="AJ60">
-        <v>590</v>
+        <v>652</v>
       </c>
       <c r="AK60">
         <v>2</v>
       </c>
       <c r="AL60">
-        <v>590</v>
+        <v>652</v>
       </c>
       <c r="AM60">
         <v>1</v>
@@ -7593,7 +7602,7 @@
         <v>50</v>
       </c>
       <c r="AO60">
-        <v>0.5</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="61" spans="1:41">
@@ -7641,13 +7650,13 @@
         <v>-1.1</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -7659,61 +7668,64 @@
         <v>0</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61">
         <v>4</v>
       </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
       <c r="Z61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA61">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB61">
-        <v>-2.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AC61">
-        <v>246</v>
+        <v>424</v>
       </c>
       <c r="AD61">
-        <v>61.5</v>
+        <v>106</v>
       </c>
       <c r="AE61">
-        <v>123</v>
+        <v>142.2</v>
       </c>
       <c r="AF61">
         <v>0</v>
       </c>
       <c r="AG61">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="AH61">
-        <v>0</v>
+        <v>56.5</v>
       </c>
       <c r="AI61">
-        <v>61.5</v>
+        <v>146.8</v>
       </c>
       <c r="AJ61">
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="AK61">
         <v>4</v>
       </c>
       <c r="AL61">
-        <v>246</v>
+        <v>141.3</v>
       </c>
       <c r="AM61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN61">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AO61">
-        <v>-0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="62" spans="1:41">
@@ -7788,37 +7800,40 @@
         <v>-2.1</v>
       </c>
       <c r="AC62">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AD62">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AF62">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AG62">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AH62">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AI62">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AJ62">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AK62">
         <v>1</v>
       </c>
+      <c r="AL62">
+        <v>160</v>
+      </c>
       <c r="AM62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN62">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO62">
-        <v>-1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="63" spans="1:41">
@@ -7827,31 +7842,31 @@
         <v>29</v>
       </c>
       <c r="C63">
-        <v>4250</v>
+        <v>6144</v>
       </c>
       <c r="D63">
-        <v>4250</v>
+        <v>6144</v>
       </c>
       <c r="F63">
-        <v>4250</v>
+        <v>6144</v>
       </c>
       <c r="G63">
-        <v>4250</v>
+        <v>6144</v>
       </c>
       <c r="H63">
-        <v>4250</v>
+        <v>6144</v>
       </c>
       <c r="I63">
-        <v>4250</v>
+        <v>6144</v>
       </c>
       <c r="J63">
-        <v>4250</v>
+        <v>6144</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="L63">
-        <v>4250</v>
+        <v>6144</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -7863,31 +7878,31 @@
         <v>1.5</v>
       </c>
       <c r="P63">
-        <v>478</v>
+        <v>691</v>
       </c>
       <c r="Q63">
-        <v>478</v>
+        <v>691</v>
       </c>
       <c r="S63">
-        <v>478</v>
+        <v>691</v>
       </c>
       <c r="T63">
-        <v>478</v>
+        <v>691</v>
       </c>
       <c r="U63">
-        <v>478</v>
+        <v>691</v>
       </c>
       <c r="V63">
-        <v>478</v>
+        <v>691</v>
       </c>
       <c r="W63">
-        <v>478</v>
+        <v>691</v>
       </c>
       <c r="X63">
         <v>1</v>
       </c>
       <c r="Y63">
-        <v>478</v>
+        <v>691</v>
       </c>
       <c r="Z63">
         <v>1</v>
@@ -7896,34 +7911,34 @@
         <v>100</v>
       </c>
       <c r="AB63">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC63">
-        <v>1485</v>
+        <v>2668</v>
       </c>
       <c r="AD63">
-        <v>1485</v>
+        <v>2668</v>
       </c>
       <c r="AF63">
-        <v>1485</v>
+        <v>2668</v>
       </c>
       <c r="AG63">
-        <v>1485</v>
+        <v>2668</v>
       </c>
       <c r="AH63">
-        <v>1485</v>
+        <v>2668</v>
       </c>
       <c r="AI63">
-        <v>1485</v>
+        <v>2668</v>
       </c>
       <c r="AJ63">
-        <v>1485</v>
+        <v>2668</v>
       </c>
       <c r="AK63">
         <v>1</v>
       </c>
       <c r="AL63">
-        <v>1485</v>
+        <v>2668</v>
       </c>
       <c r="AM63">
         <v>1</v>
@@ -7932,7 +7947,7 @@
         <v>100</v>
       </c>
       <c r="AO63">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="64" spans="1:41">
@@ -7941,13 +7956,13 @@
         <v>30</v>
       </c>
       <c r="C64">
-        <v>11279</v>
+        <v>13700</v>
       </c>
       <c r="D64">
-        <v>626.6</v>
+        <v>761.1</v>
       </c>
       <c r="E64">
-        <v>1374</v>
+        <v>1697.5</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -7959,16 +7974,16 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>416.8</v>
+        <v>436</v>
       </c>
       <c r="J64">
-        <v>4946</v>
+        <v>6087</v>
       </c>
       <c r="K64">
         <v>18</v>
       </c>
       <c r="L64">
-        <v>1409.9</v>
+        <v>1712.5</v>
       </c>
       <c r="M64">
         <v>8</v>
@@ -7977,16 +7992,16 @@
         <v>44.4</v>
       </c>
       <c r="O64">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="P64">
-        <v>1257</v>
+        <v>1474</v>
       </c>
       <c r="Q64">
-        <v>69.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="R64">
-        <v>163.2</v>
+        <v>193.5</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -7998,16 +8013,16 @@
         <v>0</v>
       </c>
       <c r="V64">
-        <v>30.2</v>
+        <v>31</v>
       </c>
       <c r="W64">
-        <v>648</v>
+        <v>773</v>
       </c>
       <c r="X64">
         <v>18</v>
       </c>
       <c r="Y64">
-        <v>157.1</v>
+        <v>184.2</v>
       </c>
       <c r="Z64">
         <v>8</v>
@@ -8019,13 +8034,13 @@
         <v>-0.5</v>
       </c>
       <c r="AC64">
-        <v>3586</v>
+        <v>6667</v>
       </c>
       <c r="AD64">
-        <v>199.2</v>
+        <v>370.4</v>
       </c>
       <c r="AE64">
-        <v>465.8</v>
+        <v>631</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -8034,28 +8049,28 @@
         <v>0</v>
       </c>
       <c r="AH64">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AI64">
-        <v>0</v>
+        <v>625.2</v>
       </c>
       <c r="AJ64">
-        <v>1735</v>
+        <v>2144</v>
       </c>
       <c r="AK64">
         <v>18</v>
       </c>
       <c r="AL64">
-        <v>896.5</v>
+        <v>666.7</v>
       </c>
       <c r="AM64">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AN64">
-        <v>22.2</v>
+        <v>55.6</v>
       </c>
       <c r="AO64">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="65" spans="1:41">
@@ -8064,31 +8079,31 @@
         <v>31</v>
       </c>
       <c r="C65">
-        <v>638</v>
+        <v>1180</v>
       </c>
       <c r="D65">
-        <v>638</v>
+        <v>1180</v>
       </c>
       <c r="F65">
-        <v>638</v>
+        <v>1180</v>
       </c>
       <c r="G65">
-        <v>638</v>
+        <v>1180</v>
       </c>
       <c r="H65">
-        <v>638</v>
+        <v>1180</v>
       </c>
       <c r="I65">
-        <v>638</v>
+        <v>1180</v>
       </c>
       <c r="J65">
-        <v>638</v>
+        <v>1180</v>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="L65">
-        <v>638</v>
+        <v>1180</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -8100,31 +8115,31 @@
         <v>1.5</v>
       </c>
       <c r="P65">
-        <v>456</v>
+        <v>1010</v>
       </c>
       <c r="Q65">
-        <v>456</v>
+        <v>1010</v>
       </c>
       <c r="S65">
-        <v>456</v>
+        <v>1010</v>
       </c>
       <c r="T65">
-        <v>456</v>
+        <v>1010</v>
       </c>
       <c r="U65">
-        <v>456</v>
+        <v>1010</v>
       </c>
       <c r="V65">
-        <v>456</v>
+        <v>1010</v>
       </c>
       <c r="W65">
-        <v>456</v>
+        <v>1010</v>
       </c>
       <c r="X65">
         <v>1</v>
       </c>
       <c r="Y65">
-        <v>456</v>
+        <v>1010</v>
       </c>
       <c r="Z65">
         <v>1</v>
@@ -8133,7 +8148,7 @@
         <v>100</v>
       </c>
       <c r="AB65">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -8166,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="AO65">
-        <v>-1.4</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="66" spans="1:41">
@@ -8175,34 +8190,34 @@
         <v>34</v>
       </c>
       <c r="C66">
-        <v>1348</v>
+        <v>1607</v>
       </c>
       <c r="D66">
-        <v>674</v>
+        <v>803.5</v>
       </c>
       <c r="E66">
-        <v>545.9</v>
+        <v>724.8</v>
       </c>
       <c r="F66">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G66">
-        <v>481</v>
+        <v>547.2</v>
       </c>
       <c r="H66">
-        <v>674</v>
+        <v>803.5</v>
       </c>
       <c r="I66">
-        <v>867</v>
+        <v>1059.8</v>
       </c>
       <c r="J66">
-        <v>1060</v>
+        <v>1316</v>
       </c>
       <c r="K66">
         <v>2</v>
       </c>
       <c r="L66">
-        <v>674</v>
+        <v>803.5</v>
       </c>
       <c r="M66">
         <v>2</v>
@@ -8214,34 +8229,34 @@
         <v>1.5</v>
       </c>
       <c r="P66">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="Q66">
-        <v>194.5</v>
+        <v>226</v>
       </c>
       <c r="R66">
-        <v>149.2</v>
+        <v>186.7</v>
       </c>
       <c r="S66">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="T66">
-        <v>141.8</v>
+        <v>160</v>
       </c>
       <c r="U66">
-        <v>194.5</v>
+        <v>226</v>
       </c>
       <c r="V66">
-        <v>247.2</v>
+        <v>292</v>
       </c>
       <c r="W66">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="X66">
         <v>2</v>
       </c>
       <c r="Y66">
-        <v>194.5</v>
+        <v>226</v>
       </c>
       <c r="Z66">
         <v>2</v>
@@ -8250,46 +8265,46 @@
         <v>100</v>
       </c>
       <c r="AB66">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC66">
-        <v>155</v>
+        <v>398</v>
       </c>
       <c r="AD66">
-        <v>77.5</v>
+        <v>199</v>
       </c>
       <c r="AE66">
-        <v>109.6</v>
+        <v>28.3</v>
       </c>
       <c r="AF66">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="AG66">
-        <v>38.8</v>
+        <v>189</v>
       </c>
       <c r="AH66">
-        <v>77.5</v>
+        <v>199</v>
       </c>
       <c r="AI66">
-        <v>116.2</v>
+        <v>209</v>
       </c>
       <c r="AJ66">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="AK66">
         <v>2</v>
       </c>
       <c r="AL66">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="AM66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN66">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AO66">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="67" spans="1:41">
@@ -8298,13 +8313,13 @@
         <v>35</v>
       </c>
       <c r="C67">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D67">
-        <v>21.8</v>
+        <v>23.5</v>
       </c>
       <c r="E67">
-        <v>43.5</v>
+        <v>47</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -8316,16 +8331,16 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>21.8</v>
+        <v>23.5</v>
       </c>
       <c r="J67">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K67">
         <v>4</v>
       </c>
       <c r="L67">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -8376,13 +8391,13 @@
         <v>-1.2</v>
       </c>
       <c r="AC67">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="AD67">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AE67">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -8394,22 +8409,25 @@
         <v>0</v>
       </c>
       <c r="AI67">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AJ67">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="AK67">
         <v>4</v>
       </c>
+      <c r="AL67">
+        <v>288</v>
+      </c>
       <c r="AM67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN67">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO67">
-        <v>-1.4</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="68" spans="1:41">
@@ -8418,34 +8436,34 @@
         <v>36</v>
       </c>
       <c r="C68">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="D68">
-        <v>67.7</v>
+        <v>81.7</v>
       </c>
       <c r="E68">
-        <v>64.3</v>
+        <v>83</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="H68">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I68">
-        <v>101.5</v>
+        <v>122.5</v>
       </c>
       <c r="J68">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="K68">
         <v>3</v>
       </c>
       <c r="L68">
-        <v>101.5</v>
+        <v>122.5</v>
       </c>
       <c r="M68">
         <v>2</v>
@@ -8457,34 +8475,34 @@
         <v>0.3</v>
       </c>
       <c r="P68">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="Q68">
-        <v>63.3</v>
+        <v>71.7</v>
       </c>
       <c r="R68">
-        <v>60.7</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="S68">
         <v>0</v>
       </c>
       <c r="T68">
-        <v>34.5</v>
+        <v>43.5</v>
       </c>
       <c r="U68">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="V68">
-        <v>95</v>
+        <v>107.5</v>
       </c>
       <c r="W68">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="X68">
         <v>3</v>
       </c>
       <c r="Y68">
-        <v>95</v>
+        <v>107.5</v>
       </c>
       <c r="Z68">
         <v>2</v>
@@ -8496,34 +8514,34 @@
         <v>0.3</v>
       </c>
       <c r="AC68">
-        <v>457</v>
+        <v>545</v>
       </c>
       <c r="AD68">
-        <v>152.3</v>
+        <v>181.7</v>
       </c>
       <c r="AE68">
-        <v>133.5</v>
+        <v>164.9</v>
       </c>
       <c r="AF68">
         <v>0</v>
       </c>
       <c r="AG68">
-        <v>104</v>
+        <v>111.5</v>
       </c>
       <c r="AH68">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI68">
-        <v>228.5</v>
+        <v>272.5</v>
       </c>
       <c r="AJ68">
-        <v>249</v>
+        <v>322</v>
       </c>
       <c r="AK68">
         <v>3</v>
       </c>
       <c r="AL68">
-        <v>228.5</v>
+        <v>272.5</v>
       </c>
       <c r="AM68">
         <v>2</v>
@@ -8532,7 +8550,7 @@
         <v>66.7</v>
       </c>
       <c r="AO68">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="69" spans="1:41">
@@ -8541,13 +8559,13 @@
         <v>38</v>
       </c>
       <c r="C69">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="D69">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="E69">
-        <v>228.6</v>
+        <v>266.7</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -8559,16 +8577,16 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="J69">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="K69">
         <v>3</v>
       </c>
       <c r="L69">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -8580,13 +8598,13 @@
         <v>-0.8</v>
       </c>
       <c r="P69">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q69">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="R69">
-        <v>10.4</v>
+        <v>12.7</v>
       </c>
       <c r="S69">
         <v>0</v>
@@ -8598,16 +8616,16 @@
         <v>0</v>
       </c>
       <c r="V69">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W69">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="X69">
         <v>3</v>
       </c>
       <c r="Y69">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Z69">
         <v>1</v>
@@ -8619,43 +8637,43 @@
         <v>-0.9</v>
       </c>
       <c r="AC69">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="AD69">
-        <v>50.3</v>
+        <v>58.3</v>
       </c>
       <c r="AE69">
-        <v>87.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AF69">
         <v>0</v>
       </c>
       <c r="AG69">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI69">
-        <v>75.5</v>
+        <v>87.5</v>
       </c>
       <c r="AJ69">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="AK69">
         <v>3</v>
       </c>
       <c r="AL69">
-        <v>151</v>
+        <v>87.5</v>
       </c>
       <c r="AM69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN69">
-        <v>33.3</v>
+        <v>66.7</v>
       </c>
       <c r="AO69">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="70" spans="1:41">
@@ -8736,40 +8754,43 @@
         <v>-2.1</v>
       </c>
       <c r="AC70">
-        <v>0</v>
+        <v>2251</v>
       </c>
       <c r="AD70">
-        <v>0</v>
+        <v>1125.5</v>
       </c>
       <c r="AE70">
-        <v>0</v>
+        <v>1591.7</v>
       </c>
       <c r="AF70">
         <v>0</v>
       </c>
       <c r="AG70">
-        <v>0</v>
+        <v>562.8</v>
       </c>
       <c r="AH70">
-        <v>0</v>
+        <v>1125.5</v>
       </c>
       <c r="AI70">
-        <v>0</v>
+        <v>1688.2</v>
       </c>
       <c r="AJ70">
-        <v>0</v>
+        <v>2251</v>
       </c>
       <c r="AK70">
         <v>2</v>
       </c>
+      <c r="AL70">
+        <v>2251</v>
+      </c>
       <c r="AM70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN70">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO70">
-        <v>-1.4</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="71" spans="1:41">
@@ -8850,34 +8871,34 @@
         <v>-2.1</v>
       </c>
       <c r="AC71">
-        <v>556</v>
+        <v>692</v>
       </c>
       <c r="AD71">
-        <v>185.3</v>
+        <v>230.7</v>
       </c>
       <c r="AE71">
-        <v>165.4</v>
+        <v>200.6</v>
       </c>
       <c r="AF71">
         <v>0</v>
       </c>
       <c r="AG71">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="AH71">
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="AI71">
-        <v>278</v>
+        <v>346</v>
       </c>
       <c r="AJ71">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="AK71">
         <v>3</v>
       </c>
       <c r="AL71">
-        <v>278</v>
+        <v>346</v>
       </c>
       <c r="AM71">
         <v>2</v>
@@ -8886,7 +8907,7 @@
         <v>66.7</v>
       </c>
       <c r="AO71">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="72" spans="1:41">
@@ -8895,31 +8916,31 @@
         <v>41</v>
       </c>
       <c r="C72">
-        <v>1755</v>
+        <v>1786</v>
       </c>
       <c r="D72">
-        <v>1755</v>
+        <v>1786</v>
       </c>
       <c r="F72">
-        <v>1755</v>
+        <v>1786</v>
       </c>
       <c r="G72">
-        <v>1755</v>
+        <v>1786</v>
       </c>
       <c r="H72">
-        <v>1755</v>
+        <v>1786</v>
       </c>
       <c r="I72">
-        <v>1755</v>
+        <v>1786</v>
       </c>
       <c r="J72">
-        <v>1755</v>
+        <v>1786</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="L72">
-        <v>1755</v>
+        <v>1786</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -8964,7 +8985,7 @@
         <v>100</v>
       </c>
       <c r="AB72">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -8997,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="AO72">
-        <v>-1.4</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="73" spans="1:41">
@@ -9045,13 +9066,13 @@
         <v>-1.6</v>
       </c>
       <c r="P73">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q73">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="R73">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="S73">
         <v>0</v>
@@ -9066,13 +9087,13 @@
         <v>0</v>
       </c>
       <c r="W73">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X73">
         <v>8</v>
       </c>
       <c r="Y73">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z73">
         <v>1</v>
@@ -9081,16 +9102,16 @@
         <v>12.5</v>
       </c>
       <c r="AB73">
-        <v>-1.6</v>
+        <v>-1.7</v>
       </c>
       <c r="AC73">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AD73">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="AE73">
-        <v>0</v>
+        <v>60.5</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -9105,19 +9126,22 @@
         <v>0</v>
       </c>
       <c r="AJ73">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AK73">
         <v>8</v>
       </c>
+      <c r="AL73">
+        <v>171</v>
+      </c>
       <c r="AM73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN73">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AO73">
-        <v>-1.4</v>
+        <v>-1.7</v>
       </c>
     </row>
   </sheetData>
